--- a/res_mapping_schemes/NERA_Level0_v3.0.xlsx
+++ b/res_mapping_schemes/NERA_Level0_v3.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/res_mapping_schemes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3303EBF2-9140-564E-9878-A041807C5DA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="928" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="27020" windowHeight="12220" tabRatio="928" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" r:id="rId1"/>
@@ -19,12 +25,12 @@
     <sheet name="NERA-Dwelling Fractions-Rural" sheetId="9" r:id="rId10"/>
     <sheet name="Notes" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="310">
   <si>
     <t>ISO-two digit</t>
   </si>
@@ -1077,23 +1083,17 @@
     <t>License</t>
   </si>
   <si>
-    <t>https://creativecommons.org/licenses/by-sa/4.0/</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>EUCENTRE 2014</t>
+    <t>https://creativecommons.org/licenses/by/4.0/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="138">
     <font>
@@ -1926,6 +1926,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3422,12 +3423,12 @@
     <xf numFmtId="0" fontId="53" fillId="90" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="72" fillId="91" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="67" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4499,7 +4500,7 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="90" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5095,7 +5096,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5104,7 +5105,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5173,1801 +5174,1801 @@
   </cellXfs>
   <cellStyles count="1796">
     <cellStyle name="20% - Accent1" xfId="1142" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="9"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="10"/>
-    <cellStyle name="20% - Accent1 2 2 2 2" xfId="1165"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="11"/>
-    <cellStyle name="20% - Accent1 2 3 2" xfId="1166"/>
-    <cellStyle name="20% - Accent1 2 4" xfId="12"/>
-    <cellStyle name="20% - Accent1 2 4 2" xfId="994"/>
-    <cellStyle name="20% - Accent1 2 4 3" xfId="1167"/>
-    <cellStyle name="20% - Accent1 2 5" xfId="13"/>
-    <cellStyle name="20% - Accent1 2 6" xfId="993"/>
-    <cellStyle name="20% - Accent1 2 7" xfId="1086"/>
-    <cellStyle name="20% - Accent1 3" xfId="14"/>
-    <cellStyle name="20% - Accent1 3 2" xfId="15"/>
-    <cellStyle name="20% - Accent1 3 2 2" xfId="1168"/>
-    <cellStyle name="20% - Accent1 3 3" xfId="16"/>
-    <cellStyle name="20% - Accent1 3 3 2" xfId="1169"/>
-    <cellStyle name="20% - Accent1 3 4" xfId="995"/>
-    <cellStyle name="20% - Accent1 4" xfId="17"/>
-    <cellStyle name="20% - Accent1 4 2" xfId="18"/>
-    <cellStyle name="20% - Accent1 4 2 2" xfId="1170"/>
-    <cellStyle name="20% - Accent1 5" xfId="19"/>
-    <cellStyle name="20% - Accent1 5 2" xfId="996"/>
-    <cellStyle name="20% - Accent1 5 3" xfId="1171"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="1165" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 4 2" xfId="994" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent1 2 4 3" xfId="1167" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent1 2 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent1 2 6" xfId="993" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent1 2 7" xfId="1086" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent1 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent1 3 2 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent1 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent1 3 3 2" xfId="1169" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent1 3 4" xfId="995" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent1 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent1 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent1 4 2 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent1 5" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent1 5 2" xfId="996" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Accent1 5 3" xfId="1171" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="20% - Accent2" xfId="1146" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="20"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="21"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="22"/>
-    <cellStyle name="20% - Accent2 2 2 2 2" xfId="1172"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="23"/>
-    <cellStyle name="20% - Accent2 2 3 2" xfId="1173"/>
-    <cellStyle name="20% - Accent2 2 4" xfId="24"/>
-    <cellStyle name="20% - Accent2 2 4 2" xfId="998"/>
-    <cellStyle name="20% - Accent2 2 4 3" xfId="1174"/>
-    <cellStyle name="20% - Accent2 2 5" xfId="25"/>
-    <cellStyle name="20% - Accent2 2 6" xfId="997"/>
-    <cellStyle name="20% - Accent2 2 7" xfId="1087"/>
-    <cellStyle name="20% - Accent2 3" xfId="26"/>
-    <cellStyle name="20% - Accent2 3 2" xfId="27"/>
-    <cellStyle name="20% - Accent2 3 2 2" xfId="1175"/>
-    <cellStyle name="20% - Accent2 3 3" xfId="28"/>
-    <cellStyle name="20% - Accent2 3 3 2" xfId="1176"/>
-    <cellStyle name="20% - Accent2 3 4" xfId="999"/>
-    <cellStyle name="20% - Accent2 4" xfId="29"/>
-    <cellStyle name="20% - Accent2 4 2" xfId="30"/>
-    <cellStyle name="20% - Accent2 4 2 2" xfId="1177"/>
-    <cellStyle name="20% - Accent2 5" xfId="31"/>
-    <cellStyle name="20% - Accent2 5 2" xfId="1000"/>
-    <cellStyle name="20% - Accent2 5 3" xfId="1178"/>
+    <cellStyle name="20% - Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="1172" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="1173" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent2 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent2 2 4 2" xfId="998" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent2 2 4 3" xfId="1174" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent2 2 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Accent2 2 6" xfId="997" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20% - Accent2 2 7" xfId="1087" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - Accent2 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - Accent2 3 2 2" xfId="1175" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - Accent2 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent2 3 3 2" xfId="1176" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Accent2 3 4" xfId="999" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - Accent2 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Accent2 4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - Accent2 4 2 2" xfId="1177" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Accent2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Accent2 5 2" xfId="1000" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - Accent2 5 3" xfId="1178" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="20% - Accent3" xfId="1150" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="32"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="33"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="34"/>
-    <cellStyle name="20% - Accent3 2 2 2 2" xfId="1179"/>
-    <cellStyle name="20% - Accent3 2 3" xfId="35"/>
-    <cellStyle name="20% - Accent3 2 3 2" xfId="1180"/>
-    <cellStyle name="20% - Accent3 2 4" xfId="36"/>
-    <cellStyle name="20% - Accent3 2 4 2" xfId="1002"/>
-    <cellStyle name="20% - Accent3 2 4 3" xfId="1181"/>
-    <cellStyle name="20% - Accent3 2 5" xfId="37"/>
-    <cellStyle name="20% - Accent3 2 6" xfId="1001"/>
-    <cellStyle name="20% - Accent3 2 7" xfId="1088"/>
-    <cellStyle name="20% - Accent3 3" xfId="38"/>
-    <cellStyle name="20% - Accent3 3 2" xfId="39"/>
-    <cellStyle name="20% - Accent3 3 2 2" xfId="1182"/>
-    <cellStyle name="20% - Accent3 3 3" xfId="40"/>
-    <cellStyle name="20% - Accent3 3 3 2" xfId="1183"/>
-    <cellStyle name="20% - Accent3 3 4" xfId="1003"/>
-    <cellStyle name="20% - Accent3 4" xfId="41"/>
-    <cellStyle name="20% - Accent3 4 2" xfId="42"/>
-    <cellStyle name="20% - Accent3 4 2 2" xfId="1184"/>
-    <cellStyle name="20% - Accent3 5" xfId="43"/>
-    <cellStyle name="20% - Accent3 5 2" xfId="1004"/>
-    <cellStyle name="20% - Accent3 5 3" xfId="1185"/>
+    <cellStyle name="20% - Accent3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="1179" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - Accent3 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - Accent3 2 3 2" xfId="1180" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - Accent3 2 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - Accent3 2 4 2" xfId="1002" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Accent3 2 4 3" xfId="1181" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - Accent3 2 5" xfId="37" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - Accent3 2 6" xfId="1001" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - Accent3 2 7" xfId="1088" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="38" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - Accent3 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Accent3 3 2 2" xfId="1182" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - Accent3 3 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - Accent3 3 3 2" xfId="1183" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent3 3 4" xfId="1003" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - Accent3 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - Accent3 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - Accent3 4 2 2" xfId="1184" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent3 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - Accent3 5 2" xfId="1004" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - Accent3 5 3" xfId="1185" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="20% - Accent4" xfId="1154" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="44"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="45"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="46"/>
-    <cellStyle name="20% - Accent4 2 2 2 2" xfId="1186"/>
-    <cellStyle name="20% - Accent4 2 3" xfId="47"/>
-    <cellStyle name="20% - Accent4 2 3 2" xfId="1187"/>
-    <cellStyle name="20% - Accent4 2 4" xfId="48"/>
-    <cellStyle name="20% - Accent4 2 4 2" xfId="1006"/>
-    <cellStyle name="20% - Accent4 2 4 3" xfId="1188"/>
-    <cellStyle name="20% - Accent4 2 5" xfId="49"/>
-    <cellStyle name="20% - Accent4 2 6" xfId="1005"/>
-    <cellStyle name="20% - Accent4 2 7" xfId="1089"/>
-    <cellStyle name="20% - Accent4 3" xfId="50"/>
-    <cellStyle name="20% - Accent4 3 2" xfId="51"/>
-    <cellStyle name="20% - Accent4 3 2 2" xfId="1189"/>
-    <cellStyle name="20% - Accent4 3 3" xfId="52"/>
-    <cellStyle name="20% - Accent4 3 3 2" xfId="1190"/>
-    <cellStyle name="20% - Accent4 3 4" xfId="1007"/>
-    <cellStyle name="20% - Accent4 4" xfId="53"/>
-    <cellStyle name="20% - Accent4 4 2" xfId="54"/>
-    <cellStyle name="20% - Accent4 4 2 2" xfId="1191"/>
-    <cellStyle name="20% - Accent4 5" xfId="55"/>
-    <cellStyle name="20% - Accent4 5 2" xfId="1008"/>
-    <cellStyle name="20% - Accent4 5 3" xfId="1192"/>
+    <cellStyle name="20% - Accent4 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="1186" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20% - Accent4 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - Accent4 2 3 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - Accent4 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20% - Accent4 2 4 2" xfId="1006" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - Accent4 2 4 3" xfId="1188" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - Accent4 2 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - Accent4 2 6" xfId="1005" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - Accent4 2 7" xfId="1089" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - Accent4 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - Accent4 3 2 2" xfId="1189" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20% - Accent4 3 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - Accent4 3 3 2" xfId="1190" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - Accent4 3 4" xfId="1007" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - Accent4 4" xfId="53" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - Accent4 4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - Accent4 4 2 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - Accent4 5" xfId="55" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - Accent4 5 2" xfId="1008" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - Accent4 5 3" xfId="1192" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="20% - Accent5" xfId="1158" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="56"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="57"/>
-    <cellStyle name="20% - Accent5 2 2 2" xfId="58"/>
-    <cellStyle name="20% - Accent5 2 2 2 2" xfId="1193"/>
-    <cellStyle name="20% - Accent5 2 3" xfId="59"/>
-    <cellStyle name="20% - Accent5 2 3 2" xfId="1194"/>
-    <cellStyle name="20% - Accent5 2 4" xfId="60"/>
-    <cellStyle name="20% - Accent5 2 4 2" xfId="1010"/>
-    <cellStyle name="20% - Accent5 2 4 3" xfId="1195"/>
-    <cellStyle name="20% - Accent5 2 5" xfId="61"/>
-    <cellStyle name="20% - Accent5 2 6" xfId="1009"/>
-    <cellStyle name="20% - Accent5 2 7" xfId="1090"/>
-    <cellStyle name="20% - Accent5 3" xfId="62"/>
-    <cellStyle name="20% - Accent5 3 2" xfId="63"/>
-    <cellStyle name="20% - Accent5 3 2 2" xfId="1196"/>
-    <cellStyle name="20% - Accent5 3 3" xfId="64"/>
-    <cellStyle name="20% - Accent5 3 3 2" xfId="1197"/>
-    <cellStyle name="20% - Accent5 3 4" xfId="1011"/>
-    <cellStyle name="20% - Accent5 4" xfId="65"/>
-    <cellStyle name="20% - Accent5 4 2" xfId="66"/>
-    <cellStyle name="20% - Accent5 4 2 2" xfId="1198"/>
-    <cellStyle name="20% - Accent5 5" xfId="67"/>
-    <cellStyle name="20% - Accent5 5 2" xfId="1012"/>
-    <cellStyle name="20% - Accent5 5 3" xfId="1199"/>
+    <cellStyle name="20% - Accent5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - Accent5 2 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - Accent5 2 2 2 2" xfId="1193" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - Accent5 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - Accent5 2 3 2" xfId="1194" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - Accent5 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - Accent5 2 4 2" xfId="1010" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - Accent5 2 4 3" xfId="1195" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - Accent5 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - Accent5 2 6" xfId="1009" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - Accent5 2 7" xfId="1090" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="62" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - Accent5 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - Accent5 3 2 2" xfId="1196" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - Accent5 3 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - Accent5 3 3 2" xfId="1197" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - Accent5 3 4" xfId="1011" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - Accent5 4" xfId="65" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - Accent5 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - Accent5 4 2 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - Accent5 5" xfId="67" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - Accent5 5 2" xfId="1012" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - Accent5 5 3" xfId="1199" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
     <cellStyle name="20% - Accent6" xfId="1162" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="68"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="69"/>
-    <cellStyle name="20% - Accent6 2 2 2" xfId="70"/>
-    <cellStyle name="20% - Accent6 2 2 2 2" xfId="1200"/>
-    <cellStyle name="20% - Accent6 2 3" xfId="71"/>
-    <cellStyle name="20% - Accent6 2 3 2" xfId="1201"/>
-    <cellStyle name="20% - Accent6 2 4" xfId="72"/>
-    <cellStyle name="20% - Accent6 2 4 2" xfId="1014"/>
-    <cellStyle name="20% - Accent6 2 4 3" xfId="1202"/>
-    <cellStyle name="20% - Accent6 2 5" xfId="73"/>
-    <cellStyle name="20% - Accent6 2 6" xfId="1013"/>
-    <cellStyle name="20% - Accent6 2 7" xfId="1091"/>
-    <cellStyle name="20% - Accent6 3" xfId="74"/>
-    <cellStyle name="20% - Accent6 3 2" xfId="75"/>
-    <cellStyle name="20% - Accent6 3 2 2" xfId="1203"/>
-    <cellStyle name="20% - Accent6 3 3" xfId="76"/>
-    <cellStyle name="20% - Accent6 3 3 2" xfId="1204"/>
-    <cellStyle name="20% - Accent6 3 4" xfId="1015"/>
-    <cellStyle name="20% - Accent6 4" xfId="77"/>
-    <cellStyle name="20% - Accent6 4 2" xfId="78"/>
-    <cellStyle name="20% - Accent6 4 2 2" xfId="1205"/>
-    <cellStyle name="20% - Accent6 5" xfId="79"/>
-    <cellStyle name="20% - Accent6 5 2" xfId="1016"/>
-    <cellStyle name="20% - Accent6 5 3" xfId="1206"/>
+    <cellStyle name="20% - Accent6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - Accent6 2 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - Accent6 2 2 2 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - Accent6 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - Accent6 2 3 2" xfId="1201" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - Accent6 2 4" xfId="72" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - Accent6 2 4 2" xfId="1014" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - Accent6 2 4 3" xfId="1202" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - Accent6 2 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - Accent6 2 6" xfId="1013" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - Accent6 2 7" xfId="1091" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - Accent6 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - Accent6 3 2 2" xfId="1203" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - Accent6 3 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - Accent6 3 3 2" xfId="1204" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - Accent6 3 4" xfId="1015" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - Accent6 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - Accent6 4 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - Accent6 4 2 2" xfId="1205" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - Accent6 5" xfId="79" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - Accent6 5 2" xfId="1016" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - Accent6 5 3" xfId="1206" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="40% - Accent1" xfId="1143" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="80"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="81"/>
-    <cellStyle name="40% - Accent1 2 2 2" xfId="82"/>
-    <cellStyle name="40% - Accent1 2 2 2 2" xfId="1207"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="83"/>
-    <cellStyle name="40% - Accent1 2 3 2" xfId="1208"/>
-    <cellStyle name="40% - Accent1 2 4" xfId="84"/>
-    <cellStyle name="40% - Accent1 2 4 2" xfId="1018"/>
-    <cellStyle name="40% - Accent1 2 4 3" xfId="1209"/>
-    <cellStyle name="40% - Accent1 2 5" xfId="85"/>
-    <cellStyle name="40% - Accent1 2 6" xfId="1017"/>
-    <cellStyle name="40% - Accent1 2 7" xfId="1092"/>
-    <cellStyle name="40% - Accent1 3" xfId="86"/>
-    <cellStyle name="40% - Accent1 3 2" xfId="87"/>
-    <cellStyle name="40% - Accent1 3 2 2" xfId="1210"/>
-    <cellStyle name="40% - Accent1 3 3" xfId="88"/>
-    <cellStyle name="40% - Accent1 3 3 2" xfId="1211"/>
-    <cellStyle name="40% - Accent1 3 4" xfId="1019"/>
-    <cellStyle name="40% - Accent1 4" xfId="89"/>
-    <cellStyle name="40% - Accent1 4 2" xfId="90"/>
-    <cellStyle name="40% - Accent1 4 2 2" xfId="1212"/>
-    <cellStyle name="40% - Accent1 5" xfId="91"/>
-    <cellStyle name="40% - Accent1 5 2" xfId="1020"/>
-    <cellStyle name="40% - Accent1 5 3" xfId="1213"/>
+    <cellStyle name="40% - Accent1 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2" xfId="1207" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="83" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="1208" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="40% - Accent1 2 4" xfId="84" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="40% - Accent1 2 4 2" xfId="1018" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="40% - Accent1 2 4 3" xfId="1209" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="40% - Accent1 2 5" xfId="85" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="40% - Accent1 2 6" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="40% - Accent1 2 7" xfId="1092" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="86" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="40% - Accent1 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="40% - Accent1 3 2 2" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="40% - Accent1 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="40% - Accent1 3 3 2" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="40% - Accent1 3 4" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="40% - Accent1 4" xfId="89" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="40% - Accent1 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="40% - Accent1 4 2 2" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - Accent1 5" xfId="91" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - Accent1 5 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="40% - Accent1 5 3" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
     <cellStyle name="40% - Accent2" xfId="1147" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="92"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="93"/>
-    <cellStyle name="40% - Accent2 2 2 2" xfId="94"/>
-    <cellStyle name="40% - Accent2 2 2 2 2" xfId="1214"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="95"/>
-    <cellStyle name="40% - Accent2 2 3 2" xfId="1215"/>
-    <cellStyle name="40% - Accent2 2 4" xfId="96"/>
-    <cellStyle name="40% - Accent2 2 4 2" xfId="1022"/>
-    <cellStyle name="40% - Accent2 2 4 3" xfId="1216"/>
-    <cellStyle name="40% - Accent2 2 5" xfId="97"/>
-    <cellStyle name="40% - Accent2 2 6" xfId="1021"/>
-    <cellStyle name="40% - Accent2 2 7" xfId="1093"/>
-    <cellStyle name="40% - Accent2 3" xfId="98"/>
-    <cellStyle name="40% - Accent2 3 2" xfId="99"/>
-    <cellStyle name="40% - Accent2 3 2 2" xfId="1217"/>
-    <cellStyle name="40% - Accent2 3 3" xfId="100"/>
-    <cellStyle name="40% - Accent2 3 3 2" xfId="1218"/>
-    <cellStyle name="40% - Accent2 3 4" xfId="1023"/>
-    <cellStyle name="40% - Accent2 4" xfId="101"/>
-    <cellStyle name="40% - Accent2 4 2" xfId="102"/>
-    <cellStyle name="40% - Accent2 4 2 2" xfId="1219"/>
-    <cellStyle name="40% - Accent2 5" xfId="103"/>
-    <cellStyle name="40% - Accent2 5 2" xfId="1024"/>
-    <cellStyle name="40% - Accent2 5 3" xfId="1220"/>
+    <cellStyle name="40% - Accent2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="93" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="95" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="40% - Accent2 2 4" xfId="96" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="40% - Accent2 2 4 2" xfId="1022" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="40% - Accent2 2 4 3" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="40% - Accent2 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="40% - Accent2 2 6" xfId="1021" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="40% - Accent2 2 7" xfId="1093" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="40% - Accent2 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="40% - Accent2 3 2 2" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="40% - Accent2 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="40% - Accent2 3 3 2" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="40% - Accent2 3 4" xfId="1023" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - Accent2 4" xfId="101" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - Accent2 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - Accent2 4 2 2" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="40% - Accent2 5" xfId="103" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - Accent2 5 2" xfId="1024" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - Accent2 5 3" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
     <cellStyle name="40% - Accent3" xfId="1151" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="104"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="105"/>
-    <cellStyle name="40% - Accent3 2 2 2" xfId="106"/>
-    <cellStyle name="40% - Accent3 2 2 2 2" xfId="1221"/>
-    <cellStyle name="40% - Accent3 2 3" xfId="107"/>
-    <cellStyle name="40% - Accent3 2 3 2" xfId="1222"/>
-    <cellStyle name="40% - Accent3 2 4" xfId="108"/>
-    <cellStyle name="40% - Accent3 2 4 2" xfId="1026"/>
-    <cellStyle name="40% - Accent3 2 4 3" xfId="1223"/>
-    <cellStyle name="40% - Accent3 2 5" xfId="109"/>
-    <cellStyle name="40% - Accent3 2 6" xfId="1025"/>
-    <cellStyle name="40% - Accent3 2 7" xfId="1094"/>
-    <cellStyle name="40% - Accent3 3" xfId="110"/>
-    <cellStyle name="40% - Accent3 3 2" xfId="111"/>
-    <cellStyle name="40% - Accent3 3 2 2" xfId="1224"/>
-    <cellStyle name="40% - Accent3 3 3" xfId="112"/>
-    <cellStyle name="40% - Accent3 3 3 2" xfId="1225"/>
-    <cellStyle name="40% - Accent3 3 4" xfId="1027"/>
-    <cellStyle name="40% - Accent3 4" xfId="113"/>
-    <cellStyle name="40% - Accent3 4 2" xfId="114"/>
-    <cellStyle name="40% - Accent3 4 2 2" xfId="1226"/>
-    <cellStyle name="40% - Accent3 5" xfId="115"/>
-    <cellStyle name="40% - Accent3 5 2" xfId="1028"/>
-    <cellStyle name="40% - Accent3 5 3" xfId="1227"/>
+    <cellStyle name="40% - Accent3 2" xfId="104" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - Accent3 2 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="40% - Accent3 2 2 2 2" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="40% - Accent3 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="40% - Accent3 2 3 2" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - Accent3 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - Accent3 2 4 2" xfId="1026" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - Accent3 2 4 3" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - Accent3 2 5" xfId="109" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="40% - Accent3 2 6" xfId="1025" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - Accent3 2 7" xfId="1094" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="110" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - Accent3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - Accent3 3 2 2" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - Accent3 3 3" xfId="112" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - Accent3 3 3 2" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - Accent3 3 4" xfId="1027" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - Accent3 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - Accent3 4 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - Accent3 4 2 2" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - Accent3 5" xfId="115" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - Accent3 5 2" xfId="1028" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - Accent3 5 3" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
     <cellStyle name="40% - Accent4" xfId="1155" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="116"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="117"/>
-    <cellStyle name="40% - Accent4 2 2 2" xfId="118"/>
-    <cellStyle name="40% - Accent4 2 2 2 2" xfId="1228"/>
-    <cellStyle name="40% - Accent4 2 3" xfId="119"/>
-    <cellStyle name="40% - Accent4 2 3 2" xfId="1229"/>
-    <cellStyle name="40% - Accent4 2 4" xfId="120"/>
-    <cellStyle name="40% - Accent4 2 4 2" xfId="1030"/>
-    <cellStyle name="40% - Accent4 2 4 3" xfId="1230"/>
-    <cellStyle name="40% - Accent4 2 5" xfId="121"/>
-    <cellStyle name="40% - Accent4 2 6" xfId="1029"/>
-    <cellStyle name="40% - Accent4 2 7" xfId="1095"/>
-    <cellStyle name="40% - Accent4 3" xfId="122"/>
-    <cellStyle name="40% - Accent4 3 2" xfId="123"/>
-    <cellStyle name="40% - Accent4 3 2 2" xfId="1231"/>
-    <cellStyle name="40% - Accent4 3 3" xfId="124"/>
-    <cellStyle name="40% - Accent4 3 3 2" xfId="1232"/>
-    <cellStyle name="40% - Accent4 3 4" xfId="1031"/>
-    <cellStyle name="40% - Accent4 4" xfId="125"/>
-    <cellStyle name="40% - Accent4 4 2" xfId="126"/>
-    <cellStyle name="40% - Accent4 4 2 2" xfId="1233"/>
-    <cellStyle name="40% - Accent4 5" xfId="127"/>
-    <cellStyle name="40% - Accent4 5 2" xfId="1032"/>
-    <cellStyle name="40% - Accent4 5 3" xfId="1234"/>
+    <cellStyle name="40% - Accent4 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - Accent4 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - Accent4 2 2 2 2" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - Accent4 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - Accent4 2 3 2" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - Accent4 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - Accent4 2 4 2" xfId="1030" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - Accent4 2 4 3" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - Accent4 2 5" xfId="121" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - Accent4 2 6" xfId="1029" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - Accent4 2 7" xfId="1095" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="122" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - Accent4 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - Accent4 3 2 2" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - Accent4 3 3" xfId="124" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - Accent4 3 3 2" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - Accent4 3 4" xfId="1031" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - Accent4 4" xfId="125" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - Accent4 4 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - Accent4 4 2 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - Accent4 5" xfId="127" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - Accent4 5 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - Accent4 5 3" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
     <cellStyle name="40% - Accent5" xfId="1159" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="128"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="129"/>
-    <cellStyle name="40% - Accent5 2 2 2" xfId="130"/>
-    <cellStyle name="40% - Accent5 2 2 2 2" xfId="1235"/>
-    <cellStyle name="40% - Accent5 2 3" xfId="131"/>
-    <cellStyle name="40% - Accent5 2 3 2" xfId="1236"/>
-    <cellStyle name="40% - Accent5 2 4" xfId="132"/>
-    <cellStyle name="40% - Accent5 2 4 2" xfId="1034"/>
-    <cellStyle name="40% - Accent5 2 4 3" xfId="1237"/>
-    <cellStyle name="40% - Accent5 2 5" xfId="133"/>
-    <cellStyle name="40% - Accent5 2 6" xfId="1033"/>
-    <cellStyle name="40% - Accent5 2 7" xfId="1096"/>
-    <cellStyle name="40% - Accent5 3" xfId="134"/>
-    <cellStyle name="40% - Accent5 3 2" xfId="135"/>
-    <cellStyle name="40% - Accent5 3 2 2" xfId="1238"/>
-    <cellStyle name="40% - Accent5 3 3" xfId="136"/>
-    <cellStyle name="40% - Accent5 3 3 2" xfId="1239"/>
-    <cellStyle name="40% - Accent5 3 4" xfId="1035"/>
-    <cellStyle name="40% - Accent5 4" xfId="137"/>
-    <cellStyle name="40% - Accent5 4 2" xfId="138"/>
-    <cellStyle name="40% - Accent5 4 2 2" xfId="1240"/>
-    <cellStyle name="40% - Accent5 5" xfId="139"/>
-    <cellStyle name="40% - Accent5 5 2" xfId="1036"/>
-    <cellStyle name="40% - Accent5 5 3" xfId="1241"/>
+    <cellStyle name="40% - Accent5 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - Accent5 2 2 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - Accent5 2 2 2 2" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - Accent5 2 3" xfId="131" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - Accent5 2 3 2" xfId="1236" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - Accent5 2 4" xfId="132" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - Accent5 2 4 2" xfId="1034" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - Accent5 2 4 3" xfId="1237" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - Accent5 2 5" xfId="133" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - Accent5 2 6" xfId="1033" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - Accent5 2 7" xfId="1096" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - Accent5 3 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - Accent5 3 2 2" xfId="1238" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - Accent5 3 3" xfId="136" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - Accent5 3 3 2" xfId="1239" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - Accent5 3 4" xfId="1035" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - Accent5 4" xfId="137" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - Accent5 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - Accent5 4 2 2" xfId="1240" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - Accent5 5" xfId="139" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - Accent5 5 2" xfId="1036" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - Accent5 5 3" xfId="1241" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="40% - Accent6" xfId="1163" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="140"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="141"/>
-    <cellStyle name="40% - Accent6 2 2 2" xfId="142"/>
-    <cellStyle name="40% - Accent6 2 2 2 2" xfId="1242"/>
-    <cellStyle name="40% - Accent6 2 3" xfId="143"/>
-    <cellStyle name="40% - Accent6 2 3 2" xfId="1243"/>
-    <cellStyle name="40% - Accent6 2 4" xfId="144"/>
-    <cellStyle name="40% - Accent6 2 4 2" xfId="1038"/>
-    <cellStyle name="40% - Accent6 2 4 3" xfId="1244"/>
-    <cellStyle name="40% - Accent6 2 5" xfId="145"/>
-    <cellStyle name="40% - Accent6 2 6" xfId="1037"/>
-    <cellStyle name="40% - Accent6 2 7" xfId="1097"/>
-    <cellStyle name="40% - Accent6 3" xfId="146"/>
-    <cellStyle name="40% - Accent6 3 2" xfId="147"/>
-    <cellStyle name="40% - Accent6 3 2 2" xfId="1245"/>
-    <cellStyle name="40% - Accent6 3 3" xfId="148"/>
-    <cellStyle name="40% - Accent6 3 3 2" xfId="1246"/>
-    <cellStyle name="40% - Accent6 3 4" xfId="1039"/>
-    <cellStyle name="40% - Accent6 4" xfId="149"/>
-    <cellStyle name="40% - Accent6 4 2" xfId="150"/>
-    <cellStyle name="40% - Accent6 4 2 2" xfId="1247"/>
-    <cellStyle name="40% - Accent6 5" xfId="151"/>
-    <cellStyle name="40% - Accent6 5 2" xfId="1040"/>
-    <cellStyle name="40% - Accent6 5 3" xfId="1248"/>
+    <cellStyle name="40% - Accent6 2" xfId="140" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - Accent6 2 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - Accent6 2 2 2 2" xfId="1242" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - Accent6 2 3" xfId="143" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - Accent6 2 3 2" xfId="1243" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - Accent6 2 4" xfId="144" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - Accent6 2 4 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - Accent6 2 4 3" xfId="1244" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - Accent6 2 5" xfId="145" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - Accent6 2 6" xfId="1037" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - Accent6 2 7" xfId="1097" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - Accent6 3 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - Accent6 3 2 2" xfId="1245" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - Accent6 3 3" xfId="148" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - Accent6 3 3 2" xfId="1246" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - Accent6 3 4" xfId="1039" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - Accent6 4" xfId="149" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - Accent6 4 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="40% - Accent6 4 2 2" xfId="1247" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - Accent6 5" xfId="151" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - Accent6 5 2" xfId="1040" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - Accent6 5 3" xfId="1248" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
     <cellStyle name="60% - Accent1" xfId="1144" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="152"/>
-    <cellStyle name="60% - Accent1 2 2" xfId="153"/>
-    <cellStyle name="60% - Accent1 2 2 2" xfId="1249"/>
-    <cellStyle name="60% - Accent1 2 3" xfId="154"/>
-    <cellStyle name="60% - Accent1 2 3 2" xfId="1250"/>
-    <cellStyle name="60% - Accent1 2 4" xfId="1098"/>
-    <cellStyle name="60% - Accent1 3" xfId="155"/>
-    <cellStyle name="60% - Accent1 3 2" xfId="156"/>
-    <cellStyle name="60% - Accent1 3 2 2" xfId="1251"/>
-    <cellStyle name="60% - Accent1 4" xfId="157"/>
+    <cellStyle name="60% - Accent1 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="60% - Accent1 2 2 2" xfId="1249" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="60% - Accent1 2 3" xfId="154" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="60% - Accent1 2 3 2" xfId="1250" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="60% - Accent1 2 4" xfId="1098" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="60% - Accent1 3" xfId="155" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="60% - Accent1 3 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="60% - Accent1 3 2 2" xfId="1251" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="60% - Accent1 4" xfId="157" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
     <cellStyle name="60% - Accent2" xfId="1148" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="158"/>
-    <cellStyle name="60% - Accent2 2 2" xfId="159"/>
-    <cellStyle name="60% - Accent2 2 2 2" xfId="1252"/>
-    <cellStyle name="60% - Accent2 2 3" xfId="160"/>
-    <cellStyle name="60% - Accent2 2 3 2" xfId="1253"/>
-    <cellStyle name="60% - Accent2 2 4" xfId="1099"/>
-    <cellStyle name="60% - Accent2 3" xfId="161"/>
-    <cellStyle name="60% - Accent2 3 2" xfId="162"/>
-    <cellStyle name="60% - Accent2 3 2 2" xfId="1254"/>
-    <cellStyle name="60% - Accent2 4" xfId="163"/>
+    <cellStyle name="60% - Accent2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="60% - Accent2 2 2 2" xfId="1252" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="60% - Accent2 2 3" xfId="160" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="60% - Accent2 2 3 2" xfId="1253" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="60% - Accent2 2 4" xfId="1099" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="60% - Accent2 3" xfId="161" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="60% - Accent2 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="60% - Accent2 3 2 2" xfId="1254" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="60% - Accent2 4" xfId="163" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
     <cellStyle name="60% - Accent3" xfId="1152" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3 2" xfId="164"/>
-    <cellStyle name="60% - Accent3 2 2" xfId="165"/>
-    <cellStyle name="60% - Accent3 2 2 2" xfId="1255"/>
-    <cellStyle name="60% - Accent3 2 3" xfId="166"/>
-    <cellStyle name="60% - Accent3 2 3 2" xfId="1256"/>
-    <cellStyle name="60% - Accent3 2 4" xfId="1100"/>
-    <cellStyle name="60% - Accent3 3" xfId="167"/>
-    <cellStyle name="60% - Accent3 3 2" xfId="168"/>
-    <cellStyle name="60% - Accent3 3 2 2" xfId="1257"/>
-    <cellStyle name="60% - Accent3 4" xfId="169"/>
+    <cellStyle name="60% - Accent3 2" xfId="164" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="165" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="60% - Accent3 2 2 2" xfId="1255" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="60% - Accent3 2 3" xfId="166" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="60% - Accent3 2 3 2" xfId="1256" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="60% - Accent3 2 4" xfId="1100" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="60% - Accent3 3" xfId="167" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="60% - Accent3 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="60% - Accent3 3 2 2" xfId="1257" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="60% - Accent3 4" xfId="169" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
     <cellStyle name="60% - Accent4" xfId="1156" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4 2" xfId="170"/>
-    <cellStyle name="60% - Accent4 2 2" xfId="171"/>
-    <cellStyle name="60% - Accent4 2 2 2" xfId="1258"/>
-    <cellStyle name="60% - Accent4 2 3" xfId="172"/>
-    <cellStyle name="60% - Accent4 2 3 2" xfId="1259"/>
-    <cellStyle name="60% - Accent4 2 4" xfId="1101"/>
-    <cellStyle name="60% - Accent4 3" xfId="173"/>
-    <cellStyle name="60% - Accent4 3 2" xfId="174"/>
-    <cellStyle name="60% - Accent4 3 2 2" xfId="1260"/>
-    <cellStyle name="60% - Accent4 4" xfId="175"/>
+    <cellStyle name="60% - Accent4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="60% - Accent4 2 2 2" xfId="1258" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="60% - Accent4 2 3" xfId="172" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="60% - Accent4 2 3 2" xfId="1259" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="60% - Accent4 2 4" xfId="1101" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="60% - Accent4 3" xfId="173" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="60% - Accent4 3 2" xfId="174" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="60% - Accent4 3 2 2" xfId="1260" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="60% - Accent4 4" xfId="175" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
     <cellStyle name="60% - Accent5" xfId="1160" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5 2" xfId="176"/>
-    <cellStyle name="60% - Accent5 2 2" xfId="177"/>
-    <cellStyle name="60% - Accent5 2 2 2" xfId="1261"/>
-    <cellStyle name="60% - Accent5 2 3" xfId="178"/>
-    <cellStyle name="60% - Accent5 2 3 2" xfId="1262"/>
-    <cellStyle name="60% - Accent5 2 4" xfId="1102"/>
-    <cellStyle name="60% - Accent5 3" xfId="179"/>
-    <cellStyle name="60% - Accent5 3 2" xfId="180"/>
-    <cellStyle name="60% - Accent5 3 2 2" xfId="1263"/>
-    <cellStyle name="60% - Accent5 4" xfId="181"/>
+    <cellStyle name="60% - Accent5 2" xfId="176" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="60% - Accent5 2 2 2" xfId="1261" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="60% - Accent5 2 3" xfId="178" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="60% - Accent5 2 3 2" xfId="1262" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="60% - Accent5 2 4" xfId="1102" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="60% - Accent5 3" xfId="179" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="60% - Accent5 3 2" xfId="180" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="60% - Accent5 3 2 2" xfId="1263" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="60% - Accent5 4" xfId="181" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
     <cellStyle name="60% - Accent6" xfId="1164" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6 2" xfId="182"/>
-    <cellStyle name="60% - Accent6 2 2" xfId="183"/>
-    <cellStyle name="60% - Accent6 2 2 2" xfId="1264"/>
-    <cellStyle name="60% - Accent6 2 3" xfId="184"/>
-    <cellStyle name="60% - Accent6 2 3 2" xfId="1265"/>
-    <cellStyle name="60% - Accent6 2 4" xfId="1103"/>
-    <cellStyle name="60% - Accent6 3" xfId="185"/>
-    <cellStyle name="60% - Accent6 3 2" xfId="186"/>
-    <cellStyle name="60% - Accent6 3 2 2" xfId="1266"/>
-    <cellStyle name="60% - Accent6 4" xfId="187"/>
+    <cellStyle name="60% - Accent6 2" xfId="182" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="183" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="60% - Accent6 2 2 2" xfId="1264" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="60% - Accent6 2 3" xfId="184" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="60% - Accent6 2 3 2" xfId="1265" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="60% - Accent6 2 4" xfId="1103" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="60% - Accent6 3" xfId="185" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="60% - Accent6 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="60% - Accent6 3 2 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="60% - Accent6 4" xfId="187" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
     <cellStyle name="Accent1" xfId="1141" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent1 2" xfId="188"/>
-    <cellStyle name="Accent1 2 2" xfId="189"/>
-    <cellStyle name="Accent1 2 2 2" xfId="1267"/>
-    <cellStyle name="Accent1 2 3" xfId="190"/>
-    <cellStyle name="Accent1 2 3 2" xfId="1268"/>
-    <cellStyle name="Accent1 2 4" xfId="1104"/>
-    <cellStyle name="Accent1 3" xfId="191"/>
-    <cellStyle name="Accent1 3 2" xfId="192"/>
-    <cellStyle name="Accent1 3 2 2" xfId="1269"/>
-    <cellStyle name="Accent1 4" xfId="193"/>
+    <cellStyle name="Accent1 2" xfId="188" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Accent1 2 2" xfId="189" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Accent1 2 2 2" xfId="1267" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Accent1 2 3" xfId="190" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Accent1 2 3 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Accent1 2 4" xfId="1104" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Accent1 3" xfId="191" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Accent1 3 2" xfId="192" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Accent1 3 2 2" xfId="1269" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Accent1 4" xfId="193" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
     <cellStyle name="Accent2" xfId="1145" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent2 2" xfId="194"/>
-    <cellStyle name="Accent2 2 2" xfId="195"/>
-    <cellStyle name="Accent2 2 2 2" xfId="1270"/>
-    <cellStyle name="Accent2 2 3" xfId="196"/>
-    <cellStyle name="Accent2 2 3 2" xfId="1271"/>
-    <cellStyle name="Accent2 2 4" xfId="1105"/>
-    <cellStyle name="Accent2 3" xfId="197"/>
-    <cellStyle name="Accent2 3 2" xfId="198"/>
-    <cellStyle name="Accent2 3 2 2" xfId="1272"/>
-    <cellStyle name="Accent2 4" xfId="199"/>
+    <cellStyle name="Accent2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Accent2 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Accent2 2 2 2" xfId="1270" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Accent2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Accent2 2 3 2" xfId="1271" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Accent2 2 4" xfId="1105" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Accent2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Accent2 3 2" xfId="198" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Accent2 3 2 2" xfId="1272" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Accent2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
     <cellStyle name="Accent3" xfId="1149" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent3 2" xfId="200"/>
-    <cellStyle name="Accent3 2 2" xfId="201"/>
-    <cellStyle name="Accent3 2 2 2" xfId="1273"/>
-    <cellStyle name="Accent3 2 3" xfId="202"/>
-    <cellStyle name="Accent3 2 3 2" xfId="1274"/>
-    <cellStyle name="Accent3 2 4" xfId="1106"/>
-    <cellStyle name="Accent3 3" xfId="203"/>
-    <cellStyle name="Accent3 3 2" xfId="204"/>
-    <cellStyle name="Accent3 3 2 2" xfId="1275"/>
-    <cellStyle name="Accent3 4" xfId="205"/>
+    <cellStyle name="Accent3 2" xfId="200" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Accent3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Accent3 2 2 2" xfId="1273" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Accent3 2 3" xfId="202" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Accent3 2 3 2" xfId="1274" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Accent3 2 4" xfId="1106" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Accent3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Accent3 3 2" xfId="204" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Accent3 3 2 2" xfId="1275" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Accent3 4" xfId="205" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
     <cellStyle name="Accent4" xfId="1153" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent4 2" xfId="206"/>
-    <cellStyle name="Accent4 2 2" xfId="207"/>
-    <cellStyle name="Accent4 2 2 2" xfId="1276"/>
-    <cellStyle name="Accent4 2 3" xfId="208"/>
-    <cellStyle name="Accent4 2 3 2" xfId="1277"/>
-    <cellStyle name="Accent4 2 4" xfId="1107"/>
-    <cellStyle name="Accent4 3" xfId="209"/>
-    <cellStyle name="Accent4 3 2" xfId="210"/>
-    <cellStyle name="Accent4 3 2 2" xfId="1278"/>
-    <cellStyle name="Accent4 4" xfId="211"/>
+    <cellStyle name="Accent4 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Accent4 2 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Accent4 2 2 2" xfId="1276" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Accent4 2 3" xfId="208" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Accent4 2 3 2" xfId="1277" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Accent4 2 4" xfId="1107" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Accent4 3" xfId="209" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Accent4 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Accent4 3 2 2" xfId="1278" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Accent4 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
     <cellStyle name="Accent5" xfId="1157" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent5 2" xfId="212"/>
-    <cellStyle name="Accent5 2 2" xfId="213"/>
-    <cellStyle name="Accent5 2 2 2" xfId="1279"/>
-    <cellStyle name="Accent5 2 3" xfId="214"/>
-    <cellStyle name="Accent5 2 3 2" xfId="1280"/>
-    <cellStyle name="Accent5 2 4" xfId="1108"/>
-    <cellStyle name="Accent5 3" xfId="215"/>
-    <cellStyle name="Accent5 3 2" xfId="216"/>
-    <cellStyle name="Accent5 3 2 2" xfId="1281"/>
-    <cellStyle name="Accent5 4" xfId="217"/>
+    <cellStyle name="Accent5 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Accent5 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Accent5 2 2 2" xfId="1279" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Accent5 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Accent5 2 3 2" xfId="1280" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Accent5 2 4" xfId="1108" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Accent5 3" xfId="215" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Accent5 3 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Accent5 3 2 2" xfId="1281" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Accent5 4" xfId="217" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
     <cellStyle name="Accent6" xfId="1161" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Accent6 2" xfId="218"/>
-    <cellStyle name="Accent6 2 2" xfId="219"/>
-    <cellStyle name="Accent6 2 2 2" xfId="1282"/>
-    <cellStyle name="Accent6 2 3" xfId="220"/>
-    <cellStyle name="Accent6 2 3 2" xfId="1283"/>
-    <cellStyle name="Accent6 2 4" xfId="1109"/>
-    <cellStyle name="Accent6 3" xfId="221"/>
-    <cellStyle name="Accent6 3 2" xfId="222"/>
-    <cellStyle name="Accent6 3 2 2" xfId="1284"/>
-    <cellStyle name="Accent6 4" xfId="223"/>
+    <cellStyle name="Accent6 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Accent6 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Accent6 2 2 2" xfId="1282" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Accent6 2 3" xfId="220" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Accent6 2 3 2" xfId="1283" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Accent6 2 4" xfId="1109" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Accent6 3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Accent6 3 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Accent6 3 2 2" xfId="1284" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Accent6 4" xfId="223" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
     <cellStyle name="Bad" xfId="1131" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Bad 2" xfId="224"/>
-    <cellStyle name="Bad 2 2" xfId="225"/>
-    <cellStyle name="Bad 2 2 2" xfId="1285"/>
-    <cellStyle name="Bad 2 2 3" xfId="1286"/>
-    <cellStyle name="Bad 2 2 4" xfId="1287"/>
-    <cellStyle name="Bad 2 3" xfId="226"/>
-    <cellStyle name="Bad 2 3 2" xfId="1288"/>
-    <cellStyle name="Bad 2 4" xfId="1110"/>
-    <cellStyle name="Bad 3" xfId="227"/>
-    <cellStyle name="Bad 3 2" xfId="228"/>
-    <cellStyle name="Bad 3 2 2" xfId="1289"/>
-    <cellStyle name="Bad 3 3" xfId="1290"/>
-    <cellStyle name="Bad 3 4" xfId="1291"/>
-    <cellStyle name="Bad 4" xfId="229"/>
+    <cellStyle name="Bad 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Bad 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Bad 2 2 2" xfId="1285" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Bad 2 2 3" xfId="1286" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Bad 2 2 4" xfId="1287" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Bad 2 3" xfId="226" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Bad 2 3 2" xfId="1288" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Bad 2 4" xfId="1110" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Bad 3" xfId="227" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Bad 3 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Bad 3 2 2" xfId="1289" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Bad 3 3" xfId="1290" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Bad 3 4" xfId="1291" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Bad 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
     <cellStyle name="Calculation" xfId="1135" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Calculation 2" xfId="230"/>
-    <cellStyle name="Calculation 2 2" xfId="231"/>
-    <cellStyle name="Calculation 2 2 2" xfId="1292"/>
-    <cellStyle name="Calculation 2 3" xfId="232"/>
-    <cellStyle name="Calculation 2 3 2" xfId="1293"/>
-    <cellStyle name="Calculation 2 4" xfId="1111"/>
-    <cellStyle name="Calculation 3" xfId="233"/>
-    <cellStyle name="Calculation 3 2" xfId="234"/>
-    <cellStyle name="Calculation 3 2 2" xfId="1294"/>
-    <cellStyle name="Calculation 4" xfId="235"/>
+    <cellStyle name="Calculation 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Calculation 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Calculation 2 2 2" xfId="1292" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Calculation 2 3" xfId="232" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Calculation 2 3 2" xfId="1293" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Calculation 2 4" xfId="1111" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Calculation 3" xfId="233" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Calculation 3 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Calculation 3 2 2" xfId="1294" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Calculation 4" xfId="235" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
     <cellStyle name="Check Cell" xfId="1137" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Check Cell 2" xfId="236"/>
-    <cellStyle name="Check Cell 2 2" xfId="237"/>
-    <cellStyle name="Check Cell 2 2 2" xfId="1295"/>
-    <cellStyle name="Check Cell 2 3" xfId="238"/>
-    <cellStyle name="Check Cell 2 3 2" xfId="1296"/>
-    <cellStyle name="Check Cell 2 4" xfId="1112"/>
-    <cellStyle name="Check Cell 3" xfId="239"/>
-    <cellStyle name="Check Cell 3 2" xfId="240"/>
-    <cellStyle name="Check Cell 3 2 2" xfId="1297"/>
-    <cellStyle name="Check Cell 4" xfId="241"/>
-    <cellStyle name="Comma 2" xfId="242"/>
-    <cellStyle name="Comma 2 2" xfId="243"/>
-    <cellStyle name="Comma 2 2 2" xfId="1298"/>
-    <cellStyle name="Comma 2 3" xfId="244"/>
-    <cellStyle name="Comma 3" xfId="245"/>
-    <cellStyle name="Comma 3 2" xfId="246"/>
-    <cellStyle name="Comma 3 3" xfId="247"/>
-    <cellStyle name="Excel Built-in Normal" xfId="248"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="249"/>
-    <cellStyle name="Excel Built-in Normal 2 2" xfId="1299"/>
+    <cellStyle name="Check Cell 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Check Cell 2 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Check Cell 2 2 2" xfId="1295" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Check Cell 2 3" xfId="238" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Check Cell 2 3 2" xfId="1296" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Check Cell 2 4" xfId="1112" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Check Cell 3" xfId="239" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Check Cell 3 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Check Cell 3 2 2" xfId="1297" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Check Cell 4" xfId="241" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Comma 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Comma 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="1298" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Comma 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Comma 3" xfId="245" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Comma 3 2" xfId="246" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Comma 3 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="248" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Excel Built-in Normal 2 2" xfId="1299" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
     <cellStyle name="Explanatory Text" xfId="1139" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text 2" xfId="250"/>
-    <cellStyle name="Explanatory Text 2 2" xfId="251"/>
-    <cellStyle name="Explanatory Text 2 2 2" xfId="1300"/>
-    <cellStyle name="Explanatory Text 2 3" xfId="252"/>
-    <cellStyle name="Explanatory Text 2 3 2" xfId="1301"/>
-    <cellStyle name="Explanatory Text 2 4" xfId="1113"/>
-    <cellStyle name="Explanatory Text 3" xfId="253"/>
-    <cellStyle name="Explanatory Text 3 2" xfId="254"/>
-    <cellStyle name="Explanatory Text 3 2 2" xfId="1302"/>
-    <cellStyle name="Explanatory Text 4" xfId="255"/>
+    <cellStyle name="Explanatory Text 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Explanatory Text 2 2 2" xfId="1300" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Explanatory Text 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Explanatory Text 2 3 2" xfId="1301" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Explanatory Text 2 4" xfId="1113" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Explanatory Text 3" xfId="253" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Explanatory Text 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Explanatory Text 3 2 2" xfId="1302" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Explanatory Text 4" xfId="255" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
     <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="257"/>
-    <cellStyle name="Followed Hyperlink 2 2" xfId="1303"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="257" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Followed Hyperlink 2 2" xfId="1303" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
     <cellStyle name="Good" xfId="1130" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Good 2" xfId="258"/>
-    <cellStyle name="Good 2 2" xfId="259"/>
-    <cellStyle name="Good 2 2 2" xfId="1304"/>
-    <cellStyle name="Good 2 2 3" xfId="1305"/>
-    <cellStyle name="Good 2 2 4" xfId="1306"/>
-    <cellStyle name="Good 2 3" xfId="260"/>
-    <cellStyle name="Good 2 3 2" xfId="1307"/>
-    <cellStyle name="Good 2 4" xfId="1114"/>
-    <cellStyle name="Good 3" xfId="261"/>
-    <cellStyle name="Good 3 2" xfId="262"/>
-    <cellStyle name="Good 3 2 2" xfId="1308"/>
-    <cellStyle name="Good 3 3" xfId="1309"/>
-    <cellStyle name="Good 3 4" xfId="1310"/>
-    <cellStyle name="Good 4" xfId="263"/>
-    <cellStyle name="Header" xfId="264"/>
-    <cellStyle name="Header 2" xfId="265"/>
-    <cellStyle name="Header 2 2" xfId="266"/>
-    <cellStyle name="Header 2 3" xfId="267"/>
-    <cellStyle name="Header 3" xfId="268"/>
-    <cellStyle name="Header 4" xfId="269"/>
+    <cellStyle name="Good 2" xfId="258" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Good 2 2" xfId="259" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Good 2 2 2" xfId="1304" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Good 2 2 3" xfId="1305" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Good 2 2 4" xfId="1306" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Good 2 3" xfId="260" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Good 2 3 2" xfId="1307" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Good 2 4" xfId="1114" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Good 3" xfId="261" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Good 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Good 3 2 2" xfId="1308" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Good 3 3" xfId="1309" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Good 3 4" xfId="1310" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Good 4" xfId="263" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Header" xfId="264" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Header 2" xfId="265" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Header 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Header 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Header 3" xfId="268" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Header 4" xfId="269" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 1 2" xfId="270"/>
-    <cellStyle name="Heading 1 2 2" xfId="271"/>
-    <cellStyle name="Heading 1 2 2 2" xfId="1311"/>
-    <cellStyle name="Heading 1 2 3" xfId="1115"/>
-    <cellStyle name="Heading 1 3" xfId="272"/>
-    <cellStyle name="Heading 1 3 2" xfId="1312"/>
-    <cellStyle name="Heading 1 4" xfId="273"/>
+    <cellStyle name="Heading 1 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="271" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Heading 1 2 2 2" xfId="1311" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Heading 1 2 3" xfId="1115" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Heading 1 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Heading 1 3 2" xfId="1312" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Heading 1 4" xfId="273" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 2 2" xfId="274"/>
-    <cellStyle name="Heading 2 2 2" xfId="275"/>
-    <cellStyle name="Heading 2 2 2 2" xfId="1313"/>
-    <cellStyle name="Heading 2 2 3" xfId="1116"/>
-    <cellStyle name="Heading 2 3" xfId="276"/>
-    <cellStyle name="Heading 2 3 2" xfId="1314"/>
-    <cellStyle name="Heading 2 4" xfId="277"/>
+    <cellStyle name="Heading 2 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Heading 2 2 2 2" xfId="1313" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="1116" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Heading 2 3" xfId="276" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Heading 2 3 2" xfId="1314" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Heading 2 4" xfId="277" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 3 2" xfId="278"/>
-    <cellStyle name="Heading 3 2 2" xfId="279"/>
-    <cellStyle name="Heading 3 2 2 2" xfId="1315"/>
-    <cellStyle name="Heading 3 2 3" xfId="1117"/>
-    <cellStyle name="Heading 3 3" xfId="280"/>
-    <cellStyle name="Heading 3 3 2" xfId="1316"/>
-    <cellStyle name="Heading 3 4" xfId="281"/>
+    <cellStyle name="Heading 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Heading 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Heading 3 2 2 2" xfId="1315" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Heading 3 2 3" xfId="1117" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Heading 3 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Heading 3 3 2" xfId="1316" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Heading 3 4" xfId="281" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
     <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Heading 4 2" xfId="282"/>
-    <cellStyle name="Heading 4 2 2" xfId="283"/>
-    <cellStyle name="Heading 4 2 2 2" xfId="1317"/>
-    <cellStyle name="Heading 4 2 3" xfId="1118"/>
-    <cellStyle name="Heading 4 3" xfId="284"/>
-    <cellStyle name="Heading 4 3 2" xfId="1318"/>
-    <cellStyle name="Heading 4 4" xfId="285"/>
+    <cellStyle name="Heading 4 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Heading 4 2 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Heading 4 2 2 2" xfId="1317" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Heading 4 2 3" xfId="1118" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Heading 4 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Heading 4 3 2" xfId="1318" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Heading 4 4" xfId="285" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
     <cellStyle name="Hyperlink" xfId="286" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="287"/>
-    <cellStyle name="Hyperlink 2 2" xfId="288"/>
-    <cellStyle name="Hyperlink 2 2 2" xfId="289"/>
-    <cellStyle name="Hyperlink 2 2 3" xfId="290"/>
-    <cellStyle name="Hyperlink 2 3" xfId="291"/>
-    <cellStyle name="Hyperlink 2 4" xfId="292"/>
-    <cellStyle name="Hyperlink 3" xfId="293"/>
-    <cellStyle name="Hyperlink 3 2" xfId="294"/>
-    <cellStyle name="Hyperlink 3 3" xfId="295"/>
-    <cellStyle name="Hyperlink 4" xfId="296"/>
-    <cellStyle name="Hyperlink 4 2" xfId="297"/>
-    <cellStyle name="Hyperlink 4 2 2" xfId="298"/>
-    <cellStyle name="Hyperlink 4 2 3" xfId="299"/>
-    <cellStyle name="Hyperlink 4 3" xfId="300"/>
-    <cellStyle name="Hyperlink 4 3 2" xfId="301"/>
-    <cellStyle name="Hyperlink 4 3 3" xfId="1319"/>
-    <cellStyle name="Hyperlink 4 4" xfId="302"/>
-    <cellStyle name="Hyperlink 4 4 2" xfId="303"/>
-    <cellStyle name="Hyperlink 4 4 3" xfId="1320"/>
-    <cellStyle name="Hyperlink 4 5" xfId="1321"/>
-    <cellStyle name="Hyperlink 5" xfId="304"/>
-    <cellStyle name="Hyperlink 5 2" xfId="305"/>
-    <cellStyle name="Hyperlink 5 2 2" xfId="1322"/>
-    <cellStyle name="Hyperlink 6" xfId="306"/>
-    <cellStyle name="Hyperlink 6 2" xfId="1323"/>
+    <cellStyle name="Hyperlink 2" xfId="287" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Hyperlink 2 2 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Hyperlink 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Hyperlink 2 4" xfId="292" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Hyperlink 3" xfId="293" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="294" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="295" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Hyperlink 4" xfId="296" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Hyperlink 4 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Hyperlink 4 2 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Hyperlink 4 2 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Hyperlink 4 3" xfId="300" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Hyperlink 4 3 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Hyperlink 4 3 3" xfId="1319" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Hyperlink 4 4" xfId="302" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Hyperlink 4 4 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Hyperlink 4 4 3" xfId="1320" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Hyperlink 4 5" xfId="1321" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Hyperlink 5" xfId="304" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Hyperlink 5 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Hyperlink 5 2 2" xfId="1322" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Hyperlink 6" xfId="306" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Hyperlink 6 2" xfId="1323" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
     <cellStyle name="Input" xfId="1133" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="307"/>
-    <cellStyle name="Input 2 2" xfId="308"/>
-    <cellStyle name="Input 2 2 2" xfId="1324"/>
-    <cellStyle name="Input 2 2 3" xfId="1325"/>
-    <cellStyle name="Input 2 2 4" xfId="1326"/>
-    <cellStyle name="Input 2 3" xfId="309"/>
-    <cellStyle name="Input 2 3 2" xfId="1327"/>
-    <cellStyle name="Input 2 4" xfId="1119"/>
-    <cellStyle name="Input 3" xfId="310"/>
-    <cellStyle name="Input 3 2" xfId="311"/>
-    <cellStyle name="Input 3 2 2" xfId="1328"/>
-    <cellStyle name="Input 3 3" xfId="1329"/>
-    <cellStyle name="Input 3 4" xfId="1330"/>
-    <cellStyle name="Input 4" xfId="312"/>
+    <cellStyle name="Input 2" xfId="307" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Input 2 2" xfId="308" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Input 2 2 2" xfId="1324" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Input 2 2 3" xfId="1325" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Input 2 2 4" xfId="1326" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Input 2 3" xfId="309" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Input 2 3 2" xfId="1327" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Input 2 4" xfId="1119" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Input 3" xfId="310" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Input 3 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Input 3 2 2" xfId="1328" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Input 3 3" xfId="1329" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Input 3 4" xfId="1330" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Input 4" xfId="312" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
     <cellStyle name="Linked Cell" xfId="1136" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Linked Cell 2" xfId="313"/>
-    <cellStyle name="Linked Cell 2 2" xfId="314"/>
-    <cellStyle name="Linked Cell 2 2 2" xfId="1331"/>
-    <cellStyle name="Linked Cell 2 3" xfId="315"/>
-    <cellStyle name="Linked Cell 2 3 2" xfId="1332"/>
-    <cellStyle name="Linked Cell 2 4" xfId="1120"/>
-    <cellStyle name="Linked Cell 3" xfId="316"/>
-    <cellStyle name="Linked Cell 3 2" xfId="317"/>
-    <cellStyle name="Linked Cell 3 2 2" xfId="1333"/>
-    <cellStyle name="Linked Cell 4" xfId="318"/>
+    <cellStyle name="Linked Cell 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Linked Cell 2 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Linked Cell 2 2 2" xfId="1331" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Linked Cell 2 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Linked Cell 2 3 2" xfId="1332" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Linked Cell 2 4" xfId="1120" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Linked Cell 3" xfId="316" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Linked Cell 3 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Linked Cell 3 2 2" xfId="1333" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Linked Cell 4" xfId="318" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
     <cellStyle name="Neutral" xfId="1132" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="319"/>
-    <cellStyle name="Neutral 2 2" xfId="320"/>
-    <cellStyle name="Neutral 2 2 2" xfId="1334"/>
-    <cellStyle name="Neutral 2 2 3" xfId="1335"/>
-    <cellStyle name="Neutral 2 2 4" xfId="1336"/>
-    <cellStyle name="Neutral 2 3" xfId="321"/>
-    <cellStyle name="Neutral 2 3 2" xfId="1337"/>
-    <cellStyle name="Neutral 2 4" xfId="1121"/>
-    <cellStyle name="Neutral 3" xfId="322"/>
-    <cellStyle name="Neutral 3 2" xfId="323"/>
-    <cellStyle name="Neutral 3 2 2" xfId="1338"/>
-    <cellStyle name="Neutral 3 3" xfId="1339"/>
-    <cellStyle name="Neutral 3 4" xfId="1340"/>
-    <cellStyle name="Neutral 4" xfId="324"/>
+    <cellStyle name="Neutral 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Neutral 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Neutral 2 2 2" xfId="1334" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Neutral 2 2 3" xfId="1335" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Neutral 2 2 4" xfId="1336" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Neutral 2 3" xfId="321" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Neutral 2 3 2" xfId="1337" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Neutral 2 4" xfId="1121" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Neutral 3" xfId="322" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Neutral 3 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Neutral 3 2 2" xfId="1338" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Neutral 3 3" xfId="1339" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Neutral 3 4" xfId="1340" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Neutral 4" xfId="324" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="325"/>
-    <cellStyle name="Normal 10 2" xfId="326"/>
-    <cellStyle name="Normal 10 2 2" xfId="327"/>
-    <cellStyle name="Normal 10 2 2 2" xfId="1341"/>
-    <cellStyle name="Normal 10 2 3" xfId="328"/>
-    <cellStyle name="Normal 10 3" xfId="329"/>
-    <cellStyle name="Normal 10 3 2" xfId="330"/>
-    <cellStyle name="Normal 10 3 2 2" xfId="1342"/>
-    <cellStyle name="Normal 10 4" xfId="331"/>
-    <cellStyle name="Normal 10 4 2" xfId="1343"/>
-    <cellStyle name="Normal 10 4 2 2" xfId="1344"/>
-    <cellStyle name="Normal 10 5" xfId="332"/>
-    <cellStyle name="Normal 10 5 2" xfId="1345"/>
-    <cellStyle name="Normal 10 6" xfId="333"/>
-    <cellStyle name="Normal 100" xfId="334"/>
-    <cellStyle name="Normal 100 2" xfId="335"/>
-    <cellStyle name="Normal 100 2 2" xfId="1346"/>
-    <cellStyle name="Normal 101" xfId="336"/>
-    <cellStyle name="Normal 101 2" xfId="337"/>
-    <cellStyle name="Normal 101 2 2" xfId="1347"/>
-    <cellStyle name="Normal 102" xfId="338"/>
-    <cellStyle name="Normal 102 2" xfId="339"/>
-    <cellStyle name="Normal 102 2 2" xfId="1348"/>
-    <cellStyle name="Normal 103" xfId="340"/>
-    <cellStyle name="Normal 103 2" xfId="341"/>
-    <cellStyle name="Normal 103 2 2" xfId="1349"/>
-    <cellStyle name="Normal 104" xfId="342"/>
-    <cellStyle name="Normal 104 2" xfId="343"/>
-    <cellStyle name="Normal 104 2 2" xfId="1350"/>
-    <cellStyle name="Normal 105" xfId="344"/>
-    <cellStyle name="Normal 105 2" xfId="345"/>
-    <cellStyle name="Normal 105 2 2" xfId="1351"/>
-    <cellStyle name="Normal 106" xfId="346"/>
-    <cellStyle name="Normal 106 2" xfId="347"/>
-    <cellStyle name="Normal 106 2 2" xfId="1352"/>
-    <cellStyle name="Normal 107" xfId="348"/>
-    <cellStyle name="Normal 107 2" xfId="349"/>
-    <cellStyle name="Normal 107 2 2" xfId="1353"/>
-    <cellStyle name="Normal 108" xfId="350"/>
-    <cellStyle name="Normal 108 2" xfId="351"/>
-    <cellStyle name="Normal 108 2 2" xfId="1354"/>
-    <cellStyle name="Normal 109" xfId="352"/>
-    <cellStyle name="Normal 109 2" xfId="353"/>
-    <cellStyle name="Normal 109 2 2" xfId="1355"/>
-    <cellStyle name="Normal 11" xfId="354"/>
-    <cellStyle name="Normal 11 2" xfId="355"/>
-    <cellStyle name="Normal 11 2 2" xfId="356"/>
-    <cellStyle name="Normal 11 2 2 2" xfId="1356"/>
-    <cellStyle name="Normal 11 2 2 3" xfId="1357"/>
-    <cellStyle name="Normal 11 2 3" xfId="357"/>
-    <cellStyle name="Normal 11 2 4" xfId="358"/>
-    <cellStyle name="Normal 11 3" xfId="359"/>
-    <cellStyle name="Normal 11 3 2" xfId="360"/>
-    <cellStyle name="Normal 11 3 2 2" xfId="1358"/>
-    <cellStyle name="Normal 11 4" xfId="361"/>
-    <cellStyle name="Normal 11 4 2" xfId="362"/>
-    <cellStyle name="Normal 11 4 2 2" xfId="1359"/>
-    <cellStyle name="Normal 11 5" xfId="363"/>
-    <cellStyle name="Normal 11 5 2" xfId="1360"/>
-    <cellStyle name="Normal 11 6" xfId="364"/>
-    <cellStyle name="Normal 11 6 2" xfId="1361"/>
-    <cellStyle name="Normal 11 7" xfId="365"/>
-    <cellStyle name="Normal 11 8" xfId="1041"/>
-    <cellStyle name="Normal 110" xfId="366"/>
-    <cellStyle name="Normal 110 2" xfId="367"/>
-    <cellStyle name="Normal 110 2 2" xfId="1362"/>
-    <cellStyle name="Normal 111" xfId="368"/>
-    <cellStyle name="Normal 111 2" xfId="369"/>
-    <cellStyle name="Normal 111 2 2" xfId="370"/>
-    <cellStyle name="Normal 111 2 2 2" xfId="1363"/>
-    <cellStyle name="Normal 111 3" xfId="371"/>
-    <cellStyle name="Normal 111 3 2" xfId="372"/>
-    <cellStyle name="Normal 111 3 2 2" xfId="1365"/>
-    <cellStyle name="Normal 111 3 2 3" xfId="1364"/>
-    <cellStyle name="Normal 111 4" xfId="373"/>
-    <cellStyle name="Normal 111 4 2" xfId="1366"/>
-    <cellStyle name="Normal 111 4 2 2" xfId="1367"/>
-    <cellStyle name="Normal 111 4 3" xfId="1368"/>
-    <cellStyle name="Normal 111 4 3 2" xfId="1369"/>
-    <cellStyle name="Normal 111 5" xfId="374"/>
-    <cellStyle name="Normal 111 5 2" xfId="1371"/>
-    <cellStyle name="Normal 111 5 3" xfId="1370"/>
-    <cellStyle name="Normal 111_Households 1" xfId="375"/>
-    <cellStyle name="Normal 112" xfId="376"/>
-    <cellStyle name="Normal 112 2" xfId="377"/>
-    <cellStyle name="Normal 112 2 2" xfId="378"/>
-    <cellStyle name="Normal 112 2 2 2" xfId="1372"/>
-    <cellStyle name="Normal 112 3" xfId="379"/>
-    <cellStyle name="Normal 112 3 2" xfId="380"/>
-    <cellStyle name="Normal 112 3 2 2" xfId="1374"/>
-    <cellStyle name="Normal 112 3 2 3" xfId="1373"/>
-    <cellStyle name="Normal 112 4" xfId="381"/>
-    <cellStyle name="Normal 112 4 2" xfId="1375"/>
-    <cellStyle name="Normal 112 4 2 2" xfId="1376"/>
-    <cellStyle name="Normal 112 4 3" xfId="1377"/>
-    <cellStyle name="Normal 112 4 3 2" xfId="1378"/>
-    <cellStyle name="Normal 112 5" xfId="382"/>
-    <cellStyle name="Normal 112 5 2" xfId="1380"/>
-    <cellStyle name="Normal 112 5 3" xfId="1379"/>
-    <cellStyle name="Normal 113" xfId="383"/>
-    <cellStyle name="Normal 113 2" xfId="384"/>
-    <cellStyle name="Normal 113 2 2" xfId="1381"/>
-    <cellStyle name="Normal 114" xfId="385"/>
-    <cellStyle name="Normal 114 2" xfId="386"/>
-    <cellStyle name="Normal 114 2 2" xfId="1382"/>
-    <cellStyle name="Normal 115" xfId="387"/>
-    <cellStyle name="Normal 115 2" xfId="1383"/>
-    <cellStyle name="Normal 116" xfId="388"/>
-    <cellStyle name="Normal 116 2" xfId="1384"/>
-    <cellStyle name="Normal 117" xfId="389"/>
-    <cellStyle name="Normal 117 2" xfId="1385"/>
-    <cellStyle name="Normal 118" xfId="390"/>
-    <cellStyle name="Normal 118 2" xfId="1386"/>
-    <cellStyle name="Normal 119" xfId="391"/>
-    <cellStyle name="Normal 119 2" xfId="1387"/>
-    <cellStyle name="Normal 12" xfId="392"/>
-    <cellStyle name="Normal 12 2" xfId="393"/>
-    <cellStyle name="Normal 12 2 2" xfId="394"/>
-    <cellStyle name="Normal 12 2 2 2" xfId="1388"/>
-    <cellStyle name="Normal 12 2 3" xfId="1389"/>
-    <cellStyle name="Normal 12 3" xfId="395"/>
-    <cellStyle name="Normal 12 3 2" xfId="396"/>
-    <cellStyle name="Normal 12 3 2 2" xfId="1390"/>
-    <cellStyle name="Normal 12 4" xfId="397"/>
-    <cellStyle name="Normal 12 4 2" xfId="1391"/>
-    <cellStyle name="Normal 12 5" xfId="398"/>
-    <cellStyle name="Normal 12 6" xfId="399"/>
-    <cellStyle name="Normal 120" xfId="400"/>
-    <cellStyle name="Normal 120 2" xfId="1392"/>
-    <cellStyle name="Normal 121" xfId="401"/>
-    <cellStyle name="Normal 121 2" xfId="1393"/>
-    <cellStyle name="Normal 122" xfId="402"/>
-    <cellStyle name="Normal 122 2" xfId="1394"/>
-    <cellStyle name="Normal 123" xfId="403"/>
-    <cellStyle name="Normal 123 2" xfId="1395"/>
-    <cellStyle name="Normal 124" xfId="404"/>
-    <cellStyle name="Normal 124 2" xfId="1396"/>
-    <cellStyle name="Normal 125" xfId="405"/>
-    <cellStyle name="Normal 125 2" xfId="1397"/>
-    <cellStyle name="Normal 126" xfId="406"/>
-    <cellStyle name="Normal 126 2" xfId="1398"/>
-    <cellStyle name="Normal 127" xfId="407"/>
-    <cellStyle name="Normal 127 2" xfId="1399"/>
-    <cellStyle name="Normal 128" xfId="408"/>
-    <cellStyle name="Normal 128 2" xfId="1400"/>
-    <cellStyle name="Normal 129" xfId="409"/>
-    <cellStyle name="Normal 129 2" xfId="1401"/>
-    <cellStyle name="Normal 13" xfId="410"/>
-    <cellStyle name="Normal 13 2" xfId="411"/>
-    <cellStyle name="Normal 13 2 2" xfId="412"/>
-    <cellStyle name="Normal 13 2 2 2" xfId="1402"/>
-    <cellStyle name="Normal 13 3" xfId="413"/>
-    <cellStyle name="Normal 13 3 2" xfId="414"/>
-    <cellStyle name="Normal 13 3 2 2" xfId="1403"/>
-    <cellStyle name="Normal 13 3 3" xfId="1042"/>
-    <cellStyle name="Normal 13 4" xfId="415"/>
-    <cellStyle name="Normal 13 4 2" xfId="416"/>
-    <cellStyle name="Normal 13 4 2 2" xfId="1043"/>
-    <cellStyle name="Normal 13 4 3" xfId="1404"/>
-    <cellStyle name="Normal 13 5" xfId="417"/>
-    <cellStyle name="Normal 13 5 2" xfId="418"/>
-    <cellStyle name="Normal 130" xfId="419"/>
-    <cellStyle name="Normal 130 2" xfId="1405"/>
-    <cellStyle name="Normal 131" xfId="420"/>
-    <cellStyle name="Normal 131 2" xfId="1406"/>
-    <cellStyle name="Normal 132" xfId="421"/>
-    <cellStyle name="Normal 132 2" xfId="1407"/>
-    <cellStyle name="Normal 133" xfId="422"/>
-    <cellStyle name="Normal 133 2" xfId="1408"/>
-    <cellStyle name="Normal 134" xfId="423"/>
-    <cellStyle name="Normal 134 2" xfId="1409"/>
-    <cellStyle name="Normal 135" xfId="424"/>
-    <cellStyle name="Normal 135 2" xfId="1410"/>
-    <cellStyle name="Normal 136" xfId="425"/>
-    <cellStyle name="Normal 136 2" xfId="1411"/>
-    <cellStyle name="Normal 136 2 2" xfId="1412"/>
-    <cellStyle name="Normal 136 3" xfId="1413"/>
-    <cellStyle name="Normal 136 3 2" xfId="1414"/>
-    <cellStyle name="Normal 137" xfId="426"/>
-    <cellStyle name="Normal 137 2" xfId="1415"/>
-    <cellStyle name="Normal 137 2 2" xfId="1416"/>
-    <cellStyle name="Normal 137 3" xfId="1417"/>
-    <cellStyle name="Normal 137 3 2" xfId="1418"/>
-    <cellStyle name="Normal 138" xfId="427"/>
-    <cellStyle name="Normal 138 2" xfId="1419"/>
-    <cellStyle name="Normal 138 2 2" xfId="1420"/>
-    <cellStyle name="Normal 138 3" xfId="1421"/>
-    <cellStyle name="Normal 138 3 2" xfId="1422"/>
-    <cellStyle name="Normal 139" xfId="428"/>
-    <cellStyle name="Normal 139 2" xfId="1423"/>
-    <cellStyle name="Normal 139 2 2" xfId="1424"/>
-    <cellStyle name="Normal 139 3" xfId="1425"/>
-    <cellStyle name="Normal 139 3 2" xfId="1426"/>
-    <cellStyle name="Normal 14" xfId="429"/>
-    <cellStyle name="Normal 14 2" xfId="430"/>
-    <cellStyle name="Normal 14 2 2" xfId="431"/>
-    <cellStyle name="Normal 14 2 2 2" xfId="1427"/>
-    <cellStyle name="Normal 14 2 3" xfId="1428"/>
-    <cellStyle name="Normal 14 3" xfId="432"/>
-    <cellStyle name="Normal 14 3 2" xfId="1429"/>
-    <cellStyle name="Normal 14 4" xfId="433"/>
-    <cellStyle name="Normal 14 4 2" xfId="1430"/>
-    <cellStyle name="Normal 14 5" xfId="434"/>
-    <cellStyle name="Normal 14 6" xfId="435"/>
-    <cellStyle name="Normal 140" xfId="436"/>
-    <cellStyle name="Normal 140 2" xfId="1431"/>
-    <cellStyle name="Normal 140 2 2" xfId="1432"/>
-    <cellStyle name="Normal 140 3" xfId="1433"/>
-    <cellStyle name="Normal 140 3 2" xfId="1434"/>
-    <cellStyle name="Normal 141" xfId="437"/>
-    <cellStyle name="Normal 141 2" xfId="1435"/>
-    <cellStyle name="Normal 141 2 2" xfId="1436"/>
-    <cellStyle name="Normal 141 3" xfId="1437"/>
-    <cellStyle name="Normal 141 3 2" xfId="1438"/>
-    <cellStyle name="Normal 142" xfId="438"/>
-    <cellStyle name="Normal 142 2" xfId="1044"/>
-    <cellStyle name="Normal 142 2 2" xfId="1440"/>
-    <cellStyle name="Normal 142 3" xfId="1441"/>
-    <cellStyle name="Normal 142 4" xfId="1439"/>
-    <cellStyle name="Normal 143" xfId="439"/>
-    <cellStyle name="Normal 143 2" xfId="1045"/>
-    <cellStyle name="Normal 143 2 2" xfId="1443"/>
-    <cellStyle name="Normal 143 3" xfId="1444"/>
-    <cellStyle name="Normal 143 4" xfId="1442"/>
-    <cellStyle name="Normal 144" xfId="440"/>
-    <cellStyle name="Normal 144 2" xfId="1046"/>
-    <cellStyle name="Normal 144 2 2" xfId="1446"/>
-    <cellStyle name="Normal 144 3" xfId="1447"/>
-    <cellStyle name="Normal 144 4" xfId="1445"/>
-    <cellStyle name="Normal 145" xfId="441"/>
-    <cellStyle name="Normal 145 2" xfId="1047"/>
-    <cellStyle name="Normal 145 2 2" xfId="1449"/>
-    <cellStyle name="Normal 145 3" xfId="1450"/>
-    <cellStyle name="Normal 145 4" xfId="1448"/>
-    <cellStyle name="Normal 146" xfId="442"/>
-    <cellStyle name="Normal 146 2" xfId="1048"/>
-    <cellStyle name="Normal 146 2 2" xfId="1452"/>
-    <cellStyle name="Normal 146 3" xfId="1453"/>
-    <cellStyle name="Normal 146 4" xfId="1451"/>
-    <cellStyle name="Normal 147" xfId="443"/>
-    <cellStyle name="Normal 147 2" xfId="1049"/>
-    <cellStyle name="Normal 147 2 2" xfId="1455"/>
-    <cellStyle name="Normal 147 3" xfId="1456"/>
-    <cellStyle name="Normal 147 4" xfId="1454"/>
-    <cellStyle name="Normal 148" xfId="444"/>
-    <cellStyle name="Normal 148 2" xfId="1050"/>
-    <cellStyle name="Normal 148 2 2" xfId="1458"/>
-    <cellStyle name="Normal 148 3" xfId="1459"/>
-    <cellStyle name="Normal 148 4" xfId="1457"/>
-    <cellStyle name="Normal 149" xfId="445"/>
-    <cellStyle name="Normal 149 2" xfId="1051"/>
-    <cellStyle name="Normal 149 2 2" xfId="1461"/>
-    <cellStyle name="Normal 149 3" xfId="1462"/>
-    <cellStyle name="Normal 149 4" xfId="1460"/>
-    <cellStyle name="Normal 15" xfId="446"/>
-    <cellStyle name="Normal 15 2" xfId="447"/>
-    <cellStyle name="Normal 15 2 2" xfId="448"/>
-    <cellStyle name="Normal 15 2 2 2" xfId="1464"/>
-    <cellStyle name="Normal 15 2 2 3" xfId="1463"/>
-    <cellStyle name="Normal 15 2 3" xfId="1465"/>
-    <cellStyle name="Normal 15 3" xfId="449"/>
-    <cellStyle name="Normal 15 3 2" xfId="1466"/>
-    <cellStyle name="Normal 15 4" xfId="450"/>
-    <cellStyle name="Normal 15 4 2" xfId="1467"/>
-    <cellStyle name="Normal 15 4 2 2" xfId="1468"/>
-    <cellStyle name="Normal 15 4 3" xfId="1469"/>
-    <cellStyle name="Normal 15 4 3 2" xfId="1470"/>
-    <cellStyle name="Normal 15 5" xfId="451"/>
-    <cellStyle name="Normal 15 5 2" xfId="1053"/>
-    <cellStyle name="Normal 15 5 2 2" xfId="1472"/>
-    <cellStyle name="Normal 15 5 3" xfId="1473"/>
-    <cellStyle name="Normal 15 5 4" xfId="1471"/>
-    <cellStyle name="Normal 15 6" xfId="452"/>
-    <cellStyle name="Normal 15 7" xfId="1052"/>
-    <cellStyle name="Normal 15 7 2" xfId="1475"/>
-    <cellStyle name="Normal 15 7 3" xfId="1476"/>
-    <cellStyle name="Normal 15 7 3 2" xfId="1477"/>
-    <cellStyle name="Normal 15 7 4" xfId="1474"/>
-    <cellStyle name="Normal 150" xfId="453"/>
-    <cellStyle name="Normal 150 2" xfId="1054"/>
-    <cellStyle name="Normal 150 2 2" xfId="1479"/>
-    <cellStyle name="Normal 150 3" xfId="1480"/>
-    <cellStyle name="Normal 150 4" xfId="1478"/>
-    <cellStyle name="Normal 151" xfId="454"/>
-    <cellStyle name="Normal 151 2" xfId="1055"/>
-    <cellStyle name="Normal 151 2 2" xfId="1482"/>
-    <cellStyle name="Normal 151 3" xfId="1483"/>
-    <cellStyle name="Normal 151 4" xfId="1481"/>
-    <cellStyle name="Normal 152" xfId="455"/>
-    <cellStyle name="Normal 152 2" xfId="1056"/>
-    <cellStyle name="Normal 152 2 2" xfId="1485"/>
-    <cellStyle name="Normal 152 3" xfId="1486"/>
-    <cellStyle name="Normal 152 4" xfId="1484"/>
-    <cellStyle name="Normal 153" xfId="456"/>
-    <cellStyle name="Normal 153 2" xfId="1057"/>
-    <cellStyle name="Normal 153 2 2" xfId="1488"/>
-    <cellStyle name="Normal 153 3" xfId="1489"/>
-    <cellStyle name="Normal 153 4" xfId="1487"/>
-    <cellStyle name="Normal 154" xfId="457"/>
-    <cellStyle name="Normal 154 2" xfId="1058"/>
-    <cellStyle name="Normal 154 2 2" xfId="1491"/>
-    <cellStyle name="Normal 154 3" xfId="1492"/>
-    <cellStyle name="Normal 154 4" xfId="1493"/>
-    <cellStyle name="Normal 154 5" xfId="1490"/>
-    <cellStyle name="Normal 155" xfId="458"/>
-    <cellStyle name="Normal 155 2" xfId="1059"/>
-    <cellStyle name="Normal 155 2 2" xfId="1495"/>
-    <cellStyle name="Normal 155 3" xfId="1496"/>
-    <cellStyle name="Normal 155 4" xfId="1494"/>
-    <cellStyle name="Normal 156" xfId="459"/>
-    <cellStyle name="Normal 156 2" xfId="1060"/>
-    <cellStyle name="Normal 156 2 2" xfId="1498"/>
-    <cellStyle name="Normal 156 3" xfId="1499"/>
-    <cellStyle name="Normal 156 4" xfId="1500"/>
-    <cellStyle name="Normal 156 5" xfId="1497"/>
-    <cellStyle name="Normal 157" xfId="460"/>
-    <cellStyle name="Normal 157 2" xfId="1061"/>
-    <cellStyle name="Normal 157 2 2" xfId="1502"/>
-    <cellStyle name="Normal 157 3" xfId="1503"/>
-    <cellStyle name="Normal 157 4" xfId="1504"/>
-    <cellStyle name="Normal 157 5" xfId="1501"/>
-    <cellStyle name="Normal 158" xfId="461"/>
-    <cellStyle name="Normal 158 2" xfId="1062"/>
-    <cellStyle name="Normal 158 2 2" xfId="1506"/>
-    <cellStyle name="Normal 158 3" xfId="1507"/>
-    <cellStyle name="Normal 158 4" xfId="1505"/>
-    <cellStyle name="Normal 159" xfId="462"/>
-    <cellStyle name="Normal 159 2" xfId="1063"/>
-    <cellStyle name="Normal 159 2 2" xfId="1509"/>
-    <cellStyle name="Normal 159 3" xfId="1510"/>
-    <cellStyle name="Normal 159 4" xfId="1508"/>
-    <cellStyle name="Normal 16" xfId="463"/>
-    <cellStyle name="Normal 16 2" xfId="464"/>
-    <cellStyle name="Normal 16 2 2" xfId="465"/>
-    <cellStyle name="Normal 16 2 2 2" xfId="1511"/>
-    <cellStyle name="Normal 16 3" xfId="466"/>
-    <cellStyle name="Normal 16 3 2" xfId="1512"/>
-    <cellStyle name="Normal 16 3 2 2" xfId="1513"/>
-    <cellStyle name="Normal 16 3 3" xfId="1514"/>
-    <cellStyle name="Normal 16 3 3 2" xfId="1515"/>
-    <cellStyle name="Normal 16 4" xfId="467"/>
-    <cellStyle name="Normal 16 4 2" xfId="1516"/>
-    <cellStyle name="Normal 16 4 3" xfId="1517"/>
-    <cellStyle name="Normal 16 5" xfId="468"/>
-    <cellStyle name="Normal 16 5 2" xfId="1519"/>
-    <cellStyle name="Normal 16 5 3" xfId="1518"/>
-    <cellStyle name="Normal 16 6" xfId="1520"/>
-    <cellStyle name="Normal 160" xfId="469"/>
-    <cellStyle name="Normal 160 2" xfId="1064"/>
-    <cellStyle name="Normal 160 2 2" xfId="1522"/>
-    <cellStyle name="Normal 160 3" xfId="1523"/>
-    <cellStyle name="Normal 160 4" xfId="1521"/>
-    <cellStyle name="Normal 161" xfId="470"/>
-    <cellStyle name="Normal 161 2" xfId="1065"/>
-    <cellStyle name="Normal 161 3" xfId="1524"/>
-    <cellStyle name="Normal 162" xfId="471"/>
-    <cellStyle name="Normal 162 2" xfId="1066"/>
-    <cellStyle name="Normal 162 3" xfId="1525"/>
-    <cellStyle name="Normal 163" xfId="472"/>
-    <cellStyle name="Normal 163 2" xfId="1067"/>
-    <cellStyle name="Normal 163 3" xfId="1526"/>
-    <cellStyle name="Normal 164" xfId="473"/>
-    <cellStyle name="Normal 164 2" xfId="1068"/>
-    <cellStyle name="Normal 164 2 2" xfId="1528"/>
-    <cellStyle name="Normal 164 3" xfId="1527"/>
-    <cellStyle name="Normal 165" xfId="474"/>
-    <cellStyle name="Normal 165 2" xfId="1530"/>
-    <cellStyle name="Normal 165 3" xfId="1529"/>
-    <cellStyle name="Normal 166" xfId="475"/>
-    <cellStyle name="Normal 166 2" xfId="1531"/>
-    <cellStyle name="Normal 167" xfId="7"/>
-    <cellStyle name="Normal 167 2" xfId="1532"/>
-    <cellStyle name="Normal 168" xfId="991"/>
-    <cellStyle name="Normal 168 2" xfId="1534"/>
-    <cellStyle name="Normal 168 3" xfId="1533"/>
-    <cellStyle name="Normal 169" xfId="992"/>
-    <cellStyle name="Normal 169 2" xfId="1536"/>
-    <cellStyle name="Normal 169 3" xfId="1535"/>
-    <cellStyle name="Normal 17" xfId="476"/>
-    <cellStyle name="Normal 17 2" xfId="477"/>
-    <cellStyle name="Normal 17 2 2" xfId="1069"/>
-    <cellStyle name="Normal 17 2 2 2" xfId="1538"/>
-    <cellStyle name="Normal 17 2 3" xfId="1537"/>
-    <cellStyle name="Normal 17 3" xfId="478"/>
-    <cellStyle name="Normal 170" xfId="989"/>
-    <cellStyle name="Normal 170 2" xfId="1539"/>
-    <cellStyle name="Normal 171" xfId="1085"/>
-    <cellStyle name="Normal 172" xfId="1127"/>
-    <cellStyle name="Normal 173" xfId="1128"/>
-    <cellStyle name="Normal 174" xfId="1129"/>
-    <cellStyle name="Normal 18" xfId="479"/>
-    <cellStyle name="Normal 18 2" xfId="480"/>
-    <cellStyle name="Normal 18 2 2" xfId="1540"/>
-    <cellStyle name="Normal 18 3" xfId="481"/>
-    <cellStyle name="Normal 19" xfId="482"/>
-    <cellStyle name="Normal 19 2" xfId="483"/>
-    <cellStyle name="Normal 19 2 2" xfId="1541"/>
-    <cellStyle name="Normal 2" xfId="484"/>
-    <cellStyle name="Normal 2 10" xfId="485"/>
-    <cellStyle name="Normal 2 10 2" xfId="486"/>
-    <cellStyle name="Normal 2 10 2 2" xfId="1542"/>
-    <cellStyle name="Normal 2 11" xfId="487"/>
-    <cellStyle name="Normal 2 11 2" xfId="488"/>
-    <cellStyle name="Normal 2 11 2 2" xfId="1543"/>
-    <cellStyle name="Normal 2 12" xfId="489"/>
-    <cellStyle name="Normal 2 12 2" xfId="490"/>
-    <cellStyle name="Normal 2 12 2 2" xfId="1544"/>
-    <cellStyle name="Normal 2 13" xfId="491"/>
-    <cellStyle name="Normal 2 13 2" xfId="492"/>
-    <cellStyle name="Normal 2 13 2 2" xfId="1545"/>
-    <cellStyle name="Normal 2 14" xfId="493"/>
-    <cellStyle name="Normal 2 14 2" xfId="494"/>
-    <cellStyle name="Normal 2 14 2 2" xfId="1546"/>
-    <cellStyle name="Normal 2 15" xfId="495"/>
-    <cellStyle name="Normal 2 15 2" xfId="496"/>
-    <cellStyle name="Normal 2 15 2 2" xfId="1547"/>
-    <cellStyle name="Normal 2 16" xfId="497"/>
-    <cellStyle name="Normal 2 16 2" xfId="498"/>
-    <cellStyle name="Normal 2 16 2 2" xfId="1548"/>
-    <cellStyle name="Normal 2 17" xfId="499"/>
-    <cellStyle name="Normal 2 17 2" xfId="500"/>
-    <cellStyle name="Normal 2 17 2 2" xfId="1549"/>
-    <cellStyle name="Normal 2 18" xfId="501"/>
-    <cellStyle name="Normal 2 18 2" xfId="502"/>
-    <cellStyle name="Normal 2 18 2 2" xfId="1550"/>
-    <cellStyle name="Normal 2 19" xfId="503"/>
-    <cellStyle name="Normal 2 19 2" xfId="504"/>
-    <cellStyle name="Normal 2 19 2 2" xfId="1551"/>
-    <cellStyle name="Normal 2 2" xfId="505"/>
-    <cellStyle name="Normal 2 2 2" xfId="506"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="507"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="508"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="1552"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="509"/>
-    <cellStyle name="Normal 2 2 2 3 2" xfId="1553"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="510"/>
-    <cellStyle name="Normal 2 2 2 4 2" xfId="1554"/>
-    <cellStyle name="Normal 2 2 3" xfId="511"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="512"/>
-    <cellStyle name="Normal 2 2 3 2 2" xfId="1555"/>
-    <cellStyle name="Normal 2 2 4" xfId="513"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="1556"/>
-    <cellStyle name="Normal 2 2 4 2 2" xfId="1557"/>
-    <cellStyle name="Normal 2 2 5" xfId="514"/>
-    <cellStyle name="Normal 2 2 6" xfId="515"/>
-    <cellStyle name="Normal 2 20" xfId="516"/>
-    <cellStyle name="Normal 2 20 2" xfId="517"/>
-    <cellStyle name="Normal 2 20 2 2" xfId="1558"/>
-    <cellStyle name="Normal 2 21" xfId="518"/>
-    <cellStyle name="Normal 2 21 2" xfId="519"/>
-    <cellStyle name="Normal 2 21 2 2" xfId="1559"/>
-    <cellStyle name="Normal 2 22" xfId="520"/>
-    <cellStyle name="Normal 2 22 2" xfId="521"/>
-    <cellStyle name="Normal 2 22 2 2" xfId="1560"/>
-    <cellStyle name="Normal 2 23" xfId="522"/>
-    <cellStyle name="Normal 2 23 2" xfId="523"/>
-    <cellStyle name="Normal 2 23 2 2" xfId="1561"/>
-    <cellStyle name="Normal 2 24" xfId="524"/>
-    <cellStyle name="Normal 2 24 2" xfId="525"/>
-    <cellStyle name="Normal 2 24 2 2" xfId="1562"/>
-    <cellStyle name="Normal 2 25" xfId="526"/>
-    <cellStyle name="Normal 2 25 2" xfId="527"/>
-    <cellStyle name="Normal 2 25 2 2" xfId="1563"/>
-    <cellStyle name="Normal 2 26" xfId="528"/>
-    <cellStyle name="Normal 2 26 2" xfId="529"/>
-    <cellStyle name="Normal 2 26 2 2" xfId="1564"/>
-    <cellStyle name="Normal 2 27" xfId="530"/>
-    <cellStyle name="Normal 2 27 2" xfId="531"/>
-    <cellStyle name="Normal 2 27 2 2" xfId="1565"/>
-    <cellStyle name="Normal 2 28" xfId="532"/>
-    <cellStyle name="Normal 2 28 2" xfId="533"/>
-    <cellStyle name="Normal 2 28 2 2" xfId="1566"/>
-    <cellStyle name="Normal 2 29" xfId="534"/>
-    <cellStyle name="Normal 2 29 2" xfId="535"/>
-    <cellStyle name="Normal 2 29 2 2" xfId="1567"/>
-    <cellStyle name="Normal 2 3" xfId="536"/>
-    <cellStyle name="Normal 2 3 2" xfId="537"/>
-    <cellStyle name="Normal 2 3 3" xfId="538"/>
-    <cellStyle name="Normal 2 30" xfId="539"/>
-    <cellStyle name="Normal 2 30 2" xfId="540"/>
-    <cellStyle name="Normal 2 30 2 2" xfId="1568"/>
-    <cellStyle name="Normal 2 31" xfId="541"/>
-    <cellStyle name="Normal 2 31 2" xfId="542"/>
-    <cellStyle name="Normal 2 31 2 2" xfId="1569"/>
-    <cellStyle name="Normal 2 32" xfId="543"/>
-    <cellStyle name="Normal 2 32 2" xfId="544"/>
-    <cellStyle name="Normal 2 32 2 2" xfId="1570"/>
-    <cellStyle name="Normal 2 33" xfId="545"/>
-    <cellStyle name="Normal 2 33 2" xfId="546"/>
-    <cellStyle name="Normal 2 33 2 2" xfId="1571"/>
-    <cellStyle name="Normal 2 34" xfId="547"/>
-    <cellStyle name="Normal 2 34 2" xfId="548"/>
-    <cellStyle name="Normal 2 34 2 2" xfId="1572"/>
-    <cellStyle name="Normal 2 35" xfId="549"/>
-    <cellStyle name="Normal 2 35 2" xfId="550"/>
-    <cellStyle name="Normal 2 35 2 2" xfId="1573"/>
-    <cellStyle name="Normal 2 36" xfId="551"/>
-    <cellStyle name="Normal 2 36 2" xfId="552"/>
-    <cellStyle name="Normal 2 36 2 2" xfId="1574"/>
-    <cellStyle name="Normal 2 37" xfId="553"/>
-    <cellStyle name="Normal 2 37 2" xfId="554"/>
-    <cellStyle name="Normal 2 37 2 2" xfId="1575"/>
-    <cellStyle name="Normal 2 38" xfId="555"/>
-    <cellStyle name="Normal 2 38 2" xfId="556"/>
-    <cellStyle name="Normal 2 38 2 2" xfId="1576"/>
-    <cellStyle name="Normal 2 39" xfId="557"/>
-    <cellStyle name="Normal 2 39 2" xfId="558"/>
-    <cellStyle name="Normal 2 39 2 2" xfId="1577"/>
-    <cellStyle name="Normal 2 4" xfId="559"/>
-    <cellStyle name="Normal 2 4 2" xfId="560"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="561"/>
-    <cellStyle name="Normal 2 4 2 2 2" xfId="1578"/>
-    <cellStyle name="Normal 2 4 2 3" xfId="562"/>
-    <cellStyle name="Normal 2 4 3" xfId="563"/>
-    <cellStyle name="Normal 2 4 3 2" xfId="1579"/>
-    <cellStyle name="Normal 2 4 3 3" xfId="1580"/>
-    <cellStyle name="Normal 2 4 4" xfId="564"/>
-    <cellStyle name="Normal 2 4 5" xfId="565"/>
-    <cellStyle name="Normal 2 40" xfId="566"/>
-    <cellStyle name="Normal 2 40 2" xfId="567"/>
-    <cellStyle name="Normal 2 40 2 2" xfId="1581"/>
-    <cellStyle name="Normal 2 41" xfId="568"/>
-    <cellStyle name="Normal 2 41 2" xfId="569"/>
-    <cellStyle name="Normal 2 41 2 2" xfId="1582"/>
-    <cellStyle name="Normal 2 42" xfId="570"/>
-    <cellStyle name="Normal 2 42 2" xfId="571"/>
-    <cellStyle name="Normal 2 42 2 2" xfId="1583"/>
-    <cellStyle name="Normal 2 43" xfId="572"/>
-    <cellStyle name="Normal 2 43 2" xfId="573"/>
-    <cellStyle name="Normal 2 43 2 2" xfId="1584"/>
-    <cellStyle name="Normal 2 44" xfId="574"/>
-    <cellStyle name="Normal 2 44 2" xfId="575"/>
-    <cellStyle name="Normal 2 44 2 2" xfId="1585"/>
-    <cellStyle name="Normal 2 45" xfId="576"/>
-    <cellStyle name="Normal 2 45 2" xfId="577"/>
-    <cellStyle name="Normal 2 45 2 2" xfId="1586"/>
-    <cellStyle name="Normal 2 46" xfId="578"/>
-    <cellStyle name="Normal 2 46 2" xfId="579"/>
-    <cellStyle name="Normal 2 46 2 2" xfId="1587"/>
-    <cellStyle name="Normal 2 47" xfId="580"/>
-    <cellStyle name="Normal 2 47 2" xfId="581"/>
-    <cellStyle name="Normal 2 47 2 2" xfId="1588"/>
-    <cellStyle name="Normal 2 48" xfId="582"/>
-    <cellStyle name="Normal 2 48 2" xfId="583"/>
-    <cellStyle name="Normal 2 48 2 2" xfId="1589"/>
-    <cellStyle name="Normal 2 49" xfId="584"/>
-    <cellStyle name="Normal 2 49 2" xfId="585"/>
-    <cellStyle name="Normal 2 49 2 2" xfId="1590"/>
-    <cellStyle name="Normal 2 5" xfId="586"/>
-    <cellStyle name="Normal 2 5 2" xfId="587"/>
-    <cellStyle name="Normal 2 5 2 2" xfId="1591"/>
-    <cellStyle name="Normal 2 5 3" xfId="588"/>
-    <cellStyle name="Normal 2 5 3 2" xfId="1592"/>
-    <cellStyle name="Normal 2 50" xfId="589"/>
-    <cellStyle name="Normal 2 50 2" xfId="590"/>
-    <cellStyle name="Normal 2 50 2 2" xfId="1593"/>
-    <cellStyle name="Normal 2 51" xfId="591"/>
-    <cellStyle name="Normal 2 51 2" xfId="592"/>
-    <cellStyle name="Normal 2 51 2 2" xfId="1594"/>
-    <cellStyle name="Normal 2 52" xfId="593"/>
-    <cellStyle name="Normal 2 52 2" xfId="594"/>
-    <cellStyle name="Normal 2 52 2 2" xfId="1595"/>
-    <cellStyle name="Normal 2 53" xfId="595"/>
-    <cellStyle name="Normal 2 53 2" xfId="596"/>
-    <cellStyle name="Normal 2 53 2 2" xfId="1596"/>
-    <cellStyle name="Normal 2 54" xfId="597"/>
-    <cellStyle name="Normal 2 54 2" xfId="598"/>
-    <cellStyle name="Normal 2 54 2 2" xfId="1597"/>
-    <cellStyle name="Normal 2 55" xfId="599"/>
-    <cellStyle name="Normal 2 55 2" xfId="600"/>
-    <cellStyle name="Normal 2 55 2 2" xfId="1598"/>
-    <cellStyle name="Normal 2 56" xfId="601"/>
-    <cellStyle name="Normal 2 56 2" xfId="602"/>
-    <cellStyle name="Normal 2 56 2 2" xfId="1599"/>
-    <cellStyle name="Normal 2 57" xfId="603"/>
-    <cellStyle name="Normal 2 57 2" xfId="604"/>
-    <cellStyle name="Normal 2 57 2 2" xfId="1600"/>
-    <cellStyle name="Normal 2 58" xfId="605"/>
-    <cellStyle name="Normal 2 58 2" xfId="606"/>
-    <cellStyle name="Normal 2 58 2 2" xfId="1601"/>
-    <cellStyle name="Normal 2 59" xfId="607"/>
-    <cellStyle name="Normal 2 59 2" xfId="608"/>
-    <cellStyle name="Normal 2 59 2 2" xfId="1602"/>
-    <cellStyle name="Normal 2 6" xfId="609"/>
-    <cellStyle name="Normal 2 6 2" xfId="610"/>
-    <cellStyle name="Normal 2 6 2 2" xfId="1604"/>
-    <cellStyle name="Normal 2 6 2 3" xfId="1605"/>
-    <cellStyle name="Normal 2 6 2 4" xfId="1603"/>
-    <cellStyle name="Normal 2 6 3" xfId="1606"/>
-    <cellStyle name="Normal 2 6 3 2" xfId="1607"/>
-    <cellStyle name="Normal 2 6 4" xfId="1608"/>
-    <cellStyle name="Normal 2 60" xfId="611"/>
-    <cellStyle name="Normal 2 60 2" xfId="612"/>
-    <cellStyle name="Normal 2 60 2 2" xfId="1609"/>
-    <cellStyle name="Normal 2 61" xfId="613"/>
-    <cellStyle name="Normal 2 61 2" xfId="614"/>
-    <cellStyle name="Normal 2 61 2 2" xfId="1610"/>
-    <cellStyle name="Normal 2 62" xfId="615"/>
-    <cellStyle name="Normal 2 62 2" xfId="616"/>
-    <cellStyle name="Normal 2 62 2 2" xfId="1611"/>
-    <cellStyle name="Normal 2 63" xfId="617"/>
-    <cellStyle name="Normal 2 63 2" xfId="618"/>
-    <cellStyle name="Normal 2 63 2 2" xfId="1612"/>
-    <cellStyle name="Normal 2 64" xfId="619"/>
-    <cellStyle name="Normal 2 64 2" xfId="620"/>
-    <cellStyle name="Normal 2 64 2 2" xfId="1613"/>
-    <cellStyle name="Normal 2 65" xfId="621"/>
-    <cellStyle name="Normal 2 65 2" xfId="622"/>
-    <cellStyle name="Normal 2 65 2 2" xfId="1614"/>
-    <cellStyle name="Normal 2 66" xfId="623"/>
-    <cellStyle name="Normal 2 66 2" xfId="624"/>
-    <cellStyle name="Normal 2 66 2 2" xfId="1615"/>
-    <cellStyle name="Normal 2 67" xfId="625"/>
-    <cellStyle name="Normal 2 67 2" xfId="626"/>
-    <cellStyle name="Normal 2 67 2 2" xfId="1616"/>
-    <cellStyle name="Normal 2 68" xfId="627"/>
-    <cellStyle name="Normal 2 68 2" xfId="628"/>
-    <cellStyle name="Normal 2 68 2 2" xfId="1618"/>
-    <cellStyle name="Normal 2 68 2 3" xfId="1617"/>
-    <cellStyle name="Normal 2 68 3" xfId="629"/>
-    <cellStyle name="Normal 2 69" xfId="630"/>
-    <cellStyle name="Normal 2 69 2" xfId="1619"/>
-    <cellStyle name="Normal 2 7" xfId="631"/>
-    <cellStyle name="Normal 2 7 2" xfId="632"/>
-    <cellStyle name="Normal 2 7 2 2" xfId="1620"/>
-    <cellStyle name="Normal 2 70" xfId="633"/>
-    <cellStyle name="Normal 2 70 2" xfId="1622"/>
-    <cellStyle name="Normal 2 70 3" xfId="1621"/>
-    <cellStyle name="Normal 2 71" xfId="1623"/>
-    <cellStyle name="Normal 2 72" xfId="1624"/>
-    <cellStyle name="Normal 2 73" xfId="1625"/>
-    <cellStyle name="Normal 2 74" xfId="1626"/>
-    <cellStyle name="Normal 2 8" xfId="634"/>
-    <cellStyle name="Normal 2 8 2" xfId="635"/>
-    <cellStyle name="Normal 2 8 2 2" xfId="1627"/>
-    <cellStyle name="Normal 2 9" xfId="636"/>
-    <cellStyle name="Normal 2 9 2" xfId="637"/>
-    <cellStyle name="Normal 2 9 2 2" xfId="1628"/>
-    <cellStyle name="Normal 20" xfId="638"/>
-    <cellStyle name="Normal 20 2" xfId="639"/>
-    <cellStyle name="Normal 20 2 2" xfId="1629"/>
-    <cellStyle name="Normal 21" xfId="640"/>
-    <cellStyle name="Normal 21 2" xfId="641"/>
-    <cellStyle name="Normal 21 2 2" xfId="1630"/>
-    <cellStyle name="Normal 22" xfId="642"/>
-    <cellStyle name="Normal 22 2" xfId="643"/>
-    <cellStyle name="Normal 22 2 2" xfId="1631"/>
-    <cellStyle name="Normal 23" xfId="644"/>
-    <cellStyle name="Normal 23 2" xfId="645"/>
-    <cellStyle name="Normal 23 2 2" xfId="1632"/>
-    <cellStyle name="Normal 24" xfId="646"/>
-    <cellStyle name="Normal 24 2" xfId="647"/>
-    <cellStyle name="Normal 24 2 2" xfId="1633"/>
-    <cellStyle name="Normal 25" xfId="648"/>
-    <cellStyle name="Normal 25 2" xfId="649"/>
-    <cellStyle name="Normal 25 2 2" xfId="1634"/>
-    <cellStyle name="Normal 26" xfId="650"/>
-    <cellStyle name="Normal 26 2" xfId="651"/>
-    <cellStyle name="Normal 26 2 2" xfId="1635"/>
-    <cellStyle name="Normal 27" xfId="652"/>
-    <cellStyle name="Normal 27 2" xfId="653"/>
-    <cellStyle name="Normal 27 2 2" xfId="1636"/>
-    <cellStyle name="Normal 28" xfId="654"/>
-    <cellStyle name="Normal 28 2" xfId="655"/>
-    <cellStyle name="Normal 28 2 2" xfId="1637"/>
-    <cellStyle name="Normal 29" xfId="656"/>
-    <cellStyle name="Normal 29 2" xfId="657"/>
-    <cellStyle name="Normal 29 2 2" xfId="1638"/>
-    <cellStyle name="Normal 3" xfId="658"/>
-    <cellStyle name="Normal 3 10" xfId="659"/>
-    <cellStyle name="Normal 3 10 2" xfId="1639"/>
-    <cellStyle name="Normal 3 11" xfId="660"/>
-    <cellStyle name="Normal 3 11 2" xfId="1640"/>
-    <cellStyle name="Normal 3 11 3" xfId="1641"/>
-    <cellStyle name="Normal 3 12" xfId="661"/>
-    <cellStyle name="Normal 3 12 2" xfId="1642"/>
-    <cellStyle name="Normal 3 13" xfId="1643"/>
-    <cellStyle name="Normal 3 2" xfId="662"/>
-    <cellStyle name="Normal 3 2 2" xfId="663"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="664"/>
-    <cellStyle name="Normal 3 2 2 2 2" xfId="1644"/>
-    <cellStyle name="Normal 3 2 2 3" xfId="665"/>
-    <cellStyle name="Normal 3 2 3" xfId="666"/>
-    <cellStyle name="Normal 3 2 4" xfId="667"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="1645"/>
-    <cellStyle name="Normal 3 2 5" xfId="1646"/>
-    <cellStyle name="Normal 3 3" xfId="668"/>
-    <cellStyle name="Normal 3 3 2" xfId="669"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="1647"/>
-    <cellStyle name="Normal 3 3 3" xfId="670"/>
-    <cellStyle name="Normal 3 4" xfId="671"/>
-    <cellStyle name="Normal 3 4 2" xfId="672"/>
-    <cellStyle name="Normal 3 4 3" xfId="673"/>
-    <cellStyle name="Normal 3 5" xfId="674"/>
-    <cellStyle name="Normal 3 5 2" xfId="675"/>
-    <cellStyle name="Normal 3 5 3" xfId="676"/>
-    <cellStyle name="Normal 3 6" xfId="677"/>
-    <cellStyle name="Normal 3 6 2" xfId="678"/>
-    <cellStyle name="Normal 3 6 3" xfId="679"/>
-    <cellStyle name="Normal 3 7" xfId="680"/>
-    <cellStyle name="Normal 3 7 2" xfId="681"/>
-    <cellStyle name="Normal 3 7 3" xfId="682"/>
-    <cellStyle name="Normal 3 8" xfId="683"/>
-    <cellStyle name="Normal 3 8 2" xfId="684"/>
-    <cellStyle name="Normal 3 8 2 2" xfId="685"/>
-    <cellStyle name="Normal 3 8 2 2 2" xfId="1648"/>
-    <cellStyle name="Normal 3 8 2 2 3" xfId="1649"/>
-    <cellStyle name="Normal 3 8 2 3" xfId="686"/>
-    <cellStyle name="Normal 3 8 2 3 2" xfId="1650"/>
-    <cellStyle name="Normal 3 8 2 4" xfId="1651"/>
-    <cellStyle name="Normal 3 8 2 4 2" xfId="1652"/>
-    <cellStyle name="Normal 3 8 2 5" xfId="1653"/>
-    <cellStyle name="Normal 3 8 3" xfId="687"/>
-    <cellStyle name="Normal 3 8 3 2" xfId="688"/>
-    <cellStyle name="Normal 3 8 3 2 2" xfId="1654"/>
-    <cellStyle name="Normal 3 8 4" xfId="689"/>
-    <cellStyle name="Normal 3 8 4 2" xfId="1655"/>
-    <cellStyle name="Normal 3 8 4 3" xfId="1656"/>
-    <cellStyle name="Normal 3 8 5" xfId="690"/>
-    <cellStyle name="Normal 3 8 5 2" xfId="1658"/>
-    <cellStyle name="Normal 3 8 5 3" xfId="1657"/>
-    <cellStyle name="Normal 3 8 6" xfId="1659"/>
-    <cellStyle name="Normal 3 9" xfId="691"/>
-    <cellStyle name="Normal 3 9 2" xfId="692"/>
-    <cellStyle name="Normal 3 9 2 2" xfId="1660"/>
-    <cellStyle name="Normal 3 9 3" xfId="1661"/>
-    <cellStyle name="Normal 3_Xl0000052" xfId="693"/>
-    <cellStyle name="Normal 30" xfId="694"/>
-    <cellStyle name="Normal 30 2" xfId="695"/>
-    <cellStyle name="Normal 30 2 2" xfId="1662"/>
-    <cellStyle name="Normal 31" xfId="696"/>
-    <cellStyle name="Normal 31 2" xfId="697"/>
-    <cellStyle name="Normal 31 2 2" xfId="1663"/>
-    <cellStyle name="Normal 32" xfId="698"/>
-    <cellStyle name="Normal 32 2" xfId="699"/>
-    <cellStyle name="Normal 32 2 2" xfId="1664"/>
-    <cellStyle name="Normal 33" xfId="700"/>
-    <cellStyle name="Normal 33 2" xfId="701"/>
-    <cellStyle name="Normal 33 2 2" xfId="1665"/>
-    <cellStyle name="Normal 34" xfId="702"/>
-    <cellStyle name="Normal 34 2" xfId="703"/>
-    <cellStyle name="Normal 34 2 2" xfId="1666"/>
-    <cellStyle name="Normal 35" xfId="704"/>
-    <cellStyle name="Normal 35 2" xfId="705"/>
-    <cellStyle name="Normal 35 2 2" xfId="1667"/>
-    <cellStyle name="Normal 36" xfId="706"/>
-    <cellStyle name="Normal 36 2" xfId="707"/>
-    <cellStyle name="Normal 36 2 2" xfId="1668"/>
-    <cellStyle name="Normal 37" xfId="708"/>
-    <cellStyle name="Normal 37 2" xfId="709"/>
-    <cellStyle name="Normal 37 2 2" xfId="1669"/>
-    <cellStyle name="Normal 38" xfId="710"/>
-    <cellStyle name="Normal 38 2" xfId="711"/>
-    <cellStyle name="Normal 38 2 2" xfId="1670"/>
-    <cellStyle name="Normal 39" xfId="712"/>
-    <cellStyle name="Normal 39 2" xfId="713"/>
-    <cellStyle name="Normal 39 2 2" xfId="1671"/>
-    <cellStyle name="Normal 4" xfId="714"/>
-    <cellStyle name="Normal 4 10" xfId="715"/>
-    <cellStyle name="Normal 4 11" xfId="1070"/>
-    <cellStyle name="Normal 4 2" xfId="716"/>
-    <cellStyle name="Normal 4 2 2" xfId="717"/>
-    <cellStyle name="Normal 4 2 3" xfId="718"/>
-    <cellStyle name="Normal 4 3" xfId="719"/>
-    <cellStyle name="Normal 4 3 2" xfId="720"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="1072"/>
-    <cellStyle name="Normal 4 3 2 3" xfId="1672"/>
-    <cellStyle name="Normal 4 3 3" xfId="721"/>
-    <cellStyle name="Normal 4 3 4" xfId="1071"/>
-    <cellStyle name="Normal 4 4" xfId="722"/>
-    <cellStyle name="Normal 4 4 2" xfId="723"/>
-    <cellStyle name="Normal 4 4 3" xfId="724"/>
-    <cellStyle name="Normal 4 5" xfId="725"/>
-    <cellStyle name="Normal 4 5 2" xfId="726"/>
-    <cellStyle name="Normal 4 5 3" xfId="727"/>
-    <cellStyle name="Normal 4 6" xfId="728"/>
-    <cellStyle name="Normal 4 6 2" xfId="729"/>
-    <cellStyle name="Normal 4 6 2 2" xfId="1673"/>
-    <cellStyle name="Normal 4 6 2 2 2" xfId="1674"/>
-    <cellStyle name="Normal 4 6 2 3" xfId="1675"/>
-    <cellStyle name="Normal 4 6 2 4" xfId="1676"/>
-    <cellStyle name="Normal 4 6 3" xfId="730"/>
-    <cellStyle name="Normal 4 6 3 2" xfId="1678"/>
-    <cellStyle name="Normal 4 6 3 3" xfId="1677"/>
-    <cellStyle name="Normal 4 6 4" xfId="1679"/>
-    <cellStyle name="Normal 4 7" xfId="731"/>
-    <cellStyle name="Normal 4 7 2" xfId="732"/>
-    <cellStyle name="Normal 4 7 2 2" xfId="1680"/>
-    <cellStyle name="Normal 4 7 2 2 2" xfId="1681"/>
-    <cellStyle name="Normal 4 7 3" xfId="733"/>
-    <cellStyle name="Normal 4 7 3 2" xfId="1682"/>
-    <cellStyle name="Normal 4 8" xfId="734"/>
-    <cellStyle name="Normal 4 8 2" xfId="735"/>
-    <cellStyle name="Normal 4 8 2 2" xfId="1684"/>
-    <cellStyle name="Normal 4 8 2 3" xfId="1683"/>
-    <cellStyle name="Normal 4 9" xfId="736"/>
-    <cellStyle name="Normal 4 9 2" xfId="1685"/>
-    <cellStyle name="Normal 40" xfId="737"/>
-    <cellStyle name="Normal 40 2" xfId="738"/>
-    <cellStyle name="Normal 40 2 2" xfId="1686"/>
-    <cellStyle name="Normal 41" xfId="739"/>
-    <cellStyle name="Normal 41 2" xfId="740"/>
-    <cellStyle name="Normal 41 2 2" xfId="1687"/>
-    <cellStyle name="Normal 42" xfId="741"/>
-    <cellStyle name="Normal 42 2" xfId="742"/>
-    <cellStyle name="Normal 42 2 2" xfId="1688"/>
-    <cellStyle name="Normal 43" xfId="743"/>
-    <cellStyle name="Normal 43 2" xfId="744"/>
-    <cellStyle name="Normal 43 2 2" xfId="1689"/>
-    <cellStyle name="Normal 44" xfId="745"/>
-    <cellStyle name="Normal 44 2" xfId="746"/>
-    <cellStyle name="Normal 44 2 2" xfId="1690"/>
-    <cellStyle name="Normal 45" xfId="747"/>
-    <cellStyle name="Normal 45 2" xfId="748"/>
-    <cellStyle name="Normal 45 2 2" xfId="1691"/>
-    <cellStyle name="Normal 46" xfId="749"/>
-    <cellStyle name="Normal 46 2" xfId="750"/>
-    <cellStyle name="Normal 46 2 2" xfId="1692"/>
-    <cellStyle name="Normal 47" xfId="751"/>
-    <cellStyle name="Normal 47 2" xfId="752"/>
-    <cellStyle name="Normal 47 2 2" xfId="1693"/>
-    <cellStyle name="Normal 48" xfId="753"/>
-    <cellStyle name="Normal 48 2" xfId="754"/>
-    <cellStyle name="Normal 48 2 2" xfId="1694"/>
-    <cellStyle name="Normal 49" xfId="755"/>
-    <cellStyle name="Normal 49 2" xfId="756"/>
-    <cellStyle name="Normal 49 2 2" xfId="1695"/>
-    <cellStyle name="Normal 5" xfId="757"/>
-    <cellStyle name="Normal 5 2" xfId="758"/>
-    <cellStyle name="Normal 5 2 2" xfId="759"/>
-    <cellStyle name="Normal 5 2 3" xfId="760"/>
-    <cellStyle name="Normal 5 3" xfId="761"/>
-    <cellStyle name="Normal 5 3 2" xfId="762"/>
-    <cellStyle name="Normal 5 3 2 2" xfId="1696"/>
-    <cellStyle name="Normal 5 3 3" xfId="763"/>
-    <cellStyle name="Normal 5 4" xfId="764"/>
-    <cellStyle name="Normal 5 4 2" xfId="765"/>
-    <cellStyle name="Normal 5 4 2 2" xfId="1697"/>
-    <cellStyle name="Normal 5 5" xfId="766"/>
-    <cellStyle name="Normal 5 5 2" xfId="1698"/>
-    <cellStyle name="Normal 5 5 2 2" xfId="1699"/>
-    <cellStyle name="Normal 5 6" xfId="767"/>
-    <cellStyle name="Normal 5 6 2" xfId="1700"/>
-    <cellStyle name="Normal 5 7" xfId="768"/>
-    <cellStyle name="Normal 50" xfId="769"/>
-    <cellStyle name="Normal 50 2" xfId="770"/>
-    <cellStyle name="Normal 50 2 2" xfId="1701"/>
-    <cellStyle name="Normal 51" xfId="771"/>
-    <cellStyle name="Normal 51 2" xfId="772"/>
-    <cellStyle name="Normal 51 2 2" xfId="1702"/>
-    <cellStyle name="Normal 52" xfId="773"/>
-    <cellStyle name="Normal 52 2" xfId="774"/>
-    <cellStyle name="Normal 52 2 2" xfId="1703"/>
-    <cellStyle name="Normal 53" xfId="775"/>
-    <cellStyle name="Normal 53 2" xfId="776"/>
-    <cellStyle name="Normal 53 2 2" xfId="1704"/>
-    <cellStyle name="Normal 54" xfId="777"/>
-    <cellStyle name="Normal 54 2" xfId="778"/>
-    <cellStyle name="Normal 54 2 2" xfId="1705"/>
-    <cellStyle name="Normal 55" xfId="779"/>
-    <cellStyle name="Normal 55 2" xfId="780"/>
-    <cellStyle name="Normal 55 2 2" xfId="1706"/>
-    <cellStyle name="Normal 56" xfId="781"/>
-    <cellStyle name="Normal 56 2" xfId="782"/>
-    <cellStyle name="Normal 56 2 2" xfId="1707"/>
-    <cellStyle name="Normal 57" xfId="783"/>
-    <cellStyle name="Normal 57 2" xfId="784"/>
-    <cellStyle name="Normal 57 2 2" xfId="1708"/>
-    <cellStyle name="Normal 58" xfId="785"/>
-    <cellStyle name="Normal 58 2" xfId="786"/>
-    <cellStyle name="Normal 58 2 2" xfId="1709"/>
-    <cellStyle name="Normal 59" xfId="787"/>
-    <cellStyle name="Normal 59 2" xfId="788"/>
-    <cellStyle name="Normal 59 2 2" xfId="1710"/>
-    <cellStyle name="Normal 6" xfId="789"/>
-    <cellStyle name="Normal 6 2" xfId="790"/>
-    <cellStyle name="Normal 6 2 2" xfId="791"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="1711"/>
-    <cellStyle name="Normal 6 3" xfId="792"/>
-    <cellStyle name="Normal 6 3 2" xfId="1712"/>
-    <cellStyle name="Normal 6 4" xfId="793"/>
-    <cellStyle name="Normal 6 5" xfId="794"/>
-    <cellStyle name="Normal 60" xfId="795"/>
-    <cellStyle name="Normal 60 2" xfId="796"/>
-    <cellStyle name="Normal 60 2 2" xfId="1713"/>
-    <cellStyle name="Normal 61" xfId="797"/>
-    <cellStyle name="Normal 61 2" xfId="798"/>
-    <cellStyle name="Normal 61 2 2" xfId="1714"/>
-    <cellStyle name="Normal 62" xfId="799"/>
-    <cellStyle name="Normal 62 2" xfId="800"/>
-    <cellStyle name="Normal 62 2 2" xfId="1715"/>
-    <cellStyle name="Normal 63" xfId="801"/>
-    <cellStyle name="Normal 63 2" xfId="802"/>
-    <cellStyle name="Normal 63 2 2" xfId="1716"/>
-    <cellStyle name="Normal 64" xfId="803"/>
-    <cellStyle name="Normal 64 2" xfId="804"/>
-    <cellStyle name="Normal 64 2 2" xfId="1717"/>
-    <cellStyle name="Normal 65" xfId="805"/>
-    <cellStyle name="Normal 65 2" xfId="806"/>
-    <cellStyle name="Normal 65 2 2" xfId="1718"/>
-    <cellStyle name="Normal 66" xfId="807"/>
-    <cellStyle name="Normal 66 2" xfId="808"/>
-    <cellStyle name="Normal 66 2 2" xfId="1719"/>
-    <cellStyle name="Normal 67" xfId="809"/>
-    <cellStyle name="Normal 67 2" xfId="810"/>
-    <cellStyle name="Normal 67 2 2" xfId="1720"/>
-    <cellStyle name="Normal 68" xfId="811"/>
-    <cellStyle name="Normal 68 2" xfId="812"/>
-    <cellStyle name="Normal 68 2 2" xfId="1721"/>
-    <cellStyle name="Normal 69" xfId="813"/>
-    <cellStyle name="Normal 69 2" xfId="814"/>
-    <cellStyle name="Normal 69 2 2" xfId="1722"/>
-    <cellStyle name="Normal 7" xfId="815"/>
-    <cellStyle name="Normal 7 2" xfId="816"/>
-    <cellStyle name="Normal 7 2 2" xfId="817"/>
-    <cellStyle name="Normal 7 2 2 2" xfId="1723"/>
-    <cellStyle name="Normal 7 3" xfId="818"/>
-    <cellStyle name="Normal 7 3 2" xfId="1724"/>
-    <cellStyle name="Normal 7 4" xfId="819"/>
-    <cellStyle name="Normal 7 5" xfId="820"/>
-    <cellStyle name="Normal 70" xfId="821"/>
-    <cellStyle name="Normal 70 2" xfId="822"/>
-    <cellStyle name="Normal 70 2 2" xfId="1725"/>
-    <cellStyle name="Normal 71" xfId="823"/>
-    <cellStyle name="Normal 71 2" xfId="824"/>
-    <cellStyle name="Normal 71 2 2" xfId="1726"/>
-    <cellStyle name="Normal 72" xfId="825"/>
-    <cellStyle name="Normal 72 2" xfId="826"/>
-    <cellStyle name="Normal 72 2 2" xfId="1727"/>
-    <cellStyle name="Normal 73" xfId="827"/>
-    <cellStyle name="Normal 73 2" xfId="828"/>
-    <cellStyle name="Normal 73 2 2" xfId="1728"/>
-    <cellStyle name="Normal 74" xfId="829"/>
-    <cellStyle name="Normal 74 2" xfId="830"/>
-    <cellStyle name="Normal 74 2 2" xfId="1729"/>
-    <cellStyle name="Normal 75" xfId="831"/>
-    <cellStyle name="Normal 75 2" xfId="832"/>
-    <cellStyle name="Normal 75 2 2" xfId="1730"/>
-    <cellStyle name="Normal 76" xfId="833"/>
-    <cellStyle name="Normal 76 2" xfId="834"/>
-    <cellStyle name="Normal 76 2 2" xfId="1731"/>
-    <cellStyle name="Normal 77" xfId="835"/>
-    <cellStyle name="Normal 77 2" xfId="836"/>
-    <cellStyle name="Normal 77 2 2" xfId="1732"/>
-    <cellStyle name="Normal 78" xfId="837"/>
-    <cellStyle name="Normal 78 2" xfId="838"/>
-    <cellStyle name="Normal 78 2 2" xfId="1733"/>
-    <cellStyle name="Normal 79" xfId="839"/>
-    <cellStyle name="Normal 79 2" xfId="840"/>
-    <cellStyle name="Normal 79 2 2" xfId="1734"/>
-    <cellStyle name="Normal 8" xfId="841"/>
-    <cellStyle name="Normal 8 2" xfId="842"/>
-    <cellStyle name="Normal 8 2 2" xfId="843"/>
-    <cellStyle name="Normal 8 2 2 2" xfId="1735"/>
-    <cellStyle name="Normal 8 2 3" xfId="844"/>
-    <cellStyle name="Normal 8 3" xfId="845"/>
-    <cellStyle name="Normal 8 3 2" xfId="846"/>
-    <cellStyle name="Normal 8 3 2 2" xfId="1736"/>
-    <cellStyle name="Normal 8 4" xfId="847"/>
-    <cellStyle name="Normal 8 4 2" xfId="1737"/>
-    <cellStyle name="Normal 8 4 2 2" xfId="1738"/>
-    <cellStyle name="Normal 8 5" xfId="848"/>
-    <cellStyle name="Normal 8 5 2" xfId="1739"/>
-    <cellStyle name="Normal 8 6" xfId="849"/>
-    <cellStyle name="Normal 80" xfId="850"/>
-    <cellStyle name="Normal 80 2" xfId="851"/>
-    <cellStyle name="Normal 80 2 2" xfId="1740"/>
-    <cellStyle name="Normal 81" xfId="852"/>
-    <cellStyle name="Normal 81 2" xfId="853"/>
-    <cellStyle name="Normal 81 2 2" xfId="1741"/>
-    <cellStyle name="Normal 82" xfId="854"/>
-    <cellStyle name="Normal 82 2" xfId="855"/>
-    <cellStyle name="Normal 82 2 2" xfId="1742"/>
-    <cellStyle name="Normal 83" xfId="856"/>
-    <cellStyle name="Normal 83 2" xfId="857"/>
-    <cellStyle name="Normal 83 2 2" xfId="1743"/>
-    <cellStyle name="Normal 84" xfId="858"/>
-    <cellStyle name="Normal 84 2" xfId="859"/>
-    <cellStyle name="Normal 84 2 2" xfId="1744"/>
-    <cellStyle name="Normal 85" xfId="860"/>
-    <cellStyle name="Normal 85 2" xfId="861"/>
-    <cellStyle name="Normal 85 2 2" xfId="1745"/>
-    <cellStyle name="Normal 86" xfId="862"/>
-    <cellStyle name="Normal 86 2" xfId="863"/>
-    <cellStyle name="Normal 86 2 2" xfId="1746"/>
-    <cellStyle name="Normal 87" xfId="864"/>
-    <cellStyle name="Normal 87 2" xfId="865"/>
-    <cellStyle name="Normal 87 2 2" xfId="1747"/>
-    <cellStyle name="Normal 88" xfId="866"/>
-    <cellStyle name="Normal 88 2" xfId="867"/>
-    <cellStyle name="Normal 88 2 2" xfId="1748"/>
-    <cellStyle name="Normal 89" xfId="868"/>
-    <cellStyle name="Normal 89 2" xfId="869"/>
-    <cellStyle name="Normal 89 2 2" xfId="1749"/>
-    <cellStyle name="Normal 9" xfId="870"/>
-    <cellStyle name="Normal 9 2" xfId="871"/>
-    <cellStyle name="Normal 9 2 2" xfId="872"/>
-    <cellStyle name="Normal 9 2 2 2" xfId="1750"/>
-    <cellStyle name="Normal 9 2 3" xfId="873"/>
-    <cellStyle name="Normal 9 3" xfId="874"/>
-    <cellStyle name="Normal 9 3 2" xfId="875"/>
-    <cellStyle name="Normal 9 3 2 2" xfId="1751"/>
-    <cellStyle name="Normal 9 4" xfId="876"/>
-    <cellStyle name="Normal 9 4 2" xfId="1752"/>
-    <cellStyle name="Normal 9 4 2 2" xfId="1753"/>
-    <cellStyle name="Normal 9 5" xfId="877"/>
-    <cellStyle name="Normal 9 5 2" xfId="1754"/>
-    <cellStyle name="Normal 9 6" xfId="878"/>
-    <cellStyle name="Normal 90" xfId="879"/>
-    <cellStyle name="Normal 90 2" xfId="880"/>
-    <cellStyle name="Normal 90 2 2" xfId="1755"/>
-    <cellStyle name="Normal 91" xfId="881"/>
-    <cellStyle name="Normal 91 2" xfId="882"/>
-    <cellStyle name="Normal 91 2 2" xfId="1756"/>
-    <cellStyle name="Normal 92" xfId="883"/>
-    <cellStyle name="Normal 92 2" xfId="884"/>
-    <cellStyle name="Normal 92 2 2" xfId="1757"/>
-    <cellStyle name="Normal 93" xfId="885"/>
-    <cellStyle name="Normal 93 2" xfId="886"/>
-    <cellStyle name="Normal 93 2 2" xfId="1758"/>
-    <cellStyle name="Normal 94" xfId="887"/>
-    <cellStyle name="Normal 94 2" xfId="888"/>
-    <cellStyle name="Normal 94 2 2" xfId="1759"/>
-    <cellStyle name="Normal 95" xfId="889"/>
-    <cellStyle name="Normal 95 2" xfId="890"/>
-    <cellStyle name="Normal 95 2 2" xfId="1760"/>
-    <cellStyle name="Normal 96" xfId="891"/>
-    <cellStyle name="Normal 96 2" xfId="892"/>
-    <cellStyle name="Normal 96 2 2" xfId="1761"/>
-    <cellStyle name="Normal 97" xfId="893"/>
-    <cellStyle name="Normal 97 2" xfId="894"/>
-    <cellStyle name="Normal 97 2 2" xfId="1762"/>
-    <cellStyle name="Normal 98" xfId="895"/>
-    <cellStyle name="Normal 98 2" xfId="896"/>
-    <cellStyle name="Normal 98 2 2" xfId="1763"/>
-    <cellStyle name="Normal 99" xfId="897"/>
-    <cellStyle name="Normal 99 2" xfId="898"/>
-    <cellStyle name="Normal 99 2 2" xfId="1764"/>
-    <cellStyle name="Normál_04_Tablak_foglakozas_4.1.10­_HunEng_param" xfId="899"/>
-    <cellStyle name="Note 2" xfId="900"/>
-    <cellStyle name="Note 2 2" xfId="901"/>
-    <cellStyle name="Note 2 2 2" xfId="1074"/>
-    <cellStyle name="Note 2 2 3" xfId="1765"/>
-    <cellStyle name="Note 2 3" xfId="902"/>
-    <cellStyle name="Note 2 4" xfId="1073"/>
-    <cellStyle name="Note 2 5" xfId="1122"/>
-    <cellStyle name="Note 3" xfId="903"/>
-    <cellStyle name="Note 3 2" xfId="904"/>
-    <cellStyle name="Note 3 2 2" xfId="1076"/>
-    <cellStyle name="Note 3 2 3" xfId="1766"/>
-    <cellStyle name="Note 3 3" xfId="905"/>
-    <cellStyle name="Note 3 4" xfId="1075"/>
-    <cellStyle name="Note 4" xfId="906"/>
-    <cellStyle name="Note 4 2" xfId="907"/>
-    <cellStyle name="Note 4 2 2" xfId="1078"/>
-    <cellStyle name="Note 4 2 2 2" xfId="1768"/>
-    <cellStyle name="Note 4 2 3" xfId="1767"/>
-    <cellStyle name="Note 4 3" xfId="908"/>
-    <cellStyle name="Note 4 4" xfId="1077"/>
-    <cellStyle name="Note 4 4 2" xfId="1769"/>
-    <cellStyle name="Note 5" xfId="909"/>
-    <cellStyle name="Note 5 2" xfId="910"/>
-    <cellStyle name="Note 5 2 2" xfId="1079"/>
-    <cellStyle name="Note 5 2 3" xfId="1770"/>
-    <cellStyle name="Note 5 3" xfId="911"/>
-    <cellStyle name="Note 6" xfId="912"/>
-    <cellStyle name="Note 6 2" xfId="1080"/>
-    <cellStyle name="Note 6 3" xfId="1771"/>
+    <cellStyle name="Normal 10" xfId="325" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Normal 10 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Normal 10 2 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Normal 10 2 2 2" xfId="1341" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Normal 10 2 3" xfId="328" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Normal 10 3" xfId="329" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Normal 10 3 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Normal 10 3 2 2" xfId="1342" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Normal 10 4" xfId="331" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Normal 10 4 2" xfId="1343" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Normal 10 4 2 2" xfId="1344" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Normal 10 5" xfId="332" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Normal 10 5 2" xfId="1345" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Normal 10 6" xfId="333" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Normal 100" xfId="334" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Normal 100 2" xfId="335" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Normal 100 2 2" xfId="1346" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Normal 101" xfId="336" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Normal 101 2" xfId="337" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Normal 101 2 2" xfId="1347" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Normal 102" xfId="338" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Normal 102 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Normal 102 2 2" xfId="1348" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Normal 103" xfId="340" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Normal 103 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Normal 103 2 2" xfId="1349" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Normal 104" xfId="342" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Normal 104 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Normal 104 2 2" xfId="1350" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Normal 105" xfId="344" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Normal 105 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Normal 105 2 2" xfId="1351" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Normal 106" xfId="346" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Normal 106 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 106 2 2" xfId="1352" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 107" xfId="348" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 107 2" xfId="349" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 107 2 2" xfId="1353" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 108" xfId="350" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 108 2" xfId="351" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 108 2 2" xfId="1354" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Normal 109" xfId="352" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Normal 109 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Normal 109 2 2" xfId="1355" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Normal 11" xfId="354" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Normal 11 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="356" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Normal 11 2 2 2" xfId="1356" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Normal 11 2 2 3" xfId="1357" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Normal 11 2 3" xfId="357" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Normal 11 2 4" xfId="358" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Normal 11 3" xfId="359" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Normal 11 3 2" xfId="360" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Normal 11 3 2 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Normal 11 4" xfId="361" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Normal 11 4 2" xfId="362" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Normal 11 4 2 2" xfId="1359" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Normal 11 5" xfId="363" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Normal 11 5 2" xfId="1360" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Normal 11 6" xfId="364" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Normal 11 6 2" xfId="1361" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Normal 11 7" xfId="365" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Normal 11 8" xfId="1041" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Normal 110" xfId="366" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Normal 110 2" xfId="367" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Normal 110 2 2" xfId="1362" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Normal 111" xfId="368" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Normal 111 2" xfId="369" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Normal 111 2 2" xfId="370" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Normal 111 2 2 2" xfId="1363" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Normal 111 3" xfId="371" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Normal 111 3 2" xfId="372" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Normal 111 3 2 2" xfId="1365" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Normal 111 3 2 3" xfId="1364" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Normal 111 4" xfId="373" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Normal 111 4 2" xfId="1366" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Normal 111 4 2 2" xfId="1367" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Normal 111 4 3" xfId="1368" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Normal 111 4 3 2" xfId="1369" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Normal 111 5" xfId="374" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Normal 111 5 2" xfId="1371" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Normal 111 5 3" xfId="1370" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Normal 111_Households 1" xfId="375" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Normal 112" xfId="376" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Normal 112 2" xfId="377" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Normal 112 2 2" xfId="378" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Normal 112 2 2 2" xfId="1372" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Normal 112 3" xfId="379" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Normal 112 3 2" xfId="380" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Normal 112 3 2 2" xfId="1374" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Normal 112 3 2 3" xfId="1373" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Normal 112 4" xfId="381" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Normal 112 4 2" xfId="1375" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Normal 112 4 2 2" xfId="1376" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Normal 112 4 3" xfId="1377" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Normal 112 4 3 2" xfId="1378" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Normal 112 5" xfId="382" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Normal 112 5 2" xfId="1380" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Normal 112 5 3" xfId="1379" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Normal 113" xfId="383" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Normal 113 2" xfId="384" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Normal 113 2 2" xfId="1381" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Normal 114" xfId="385" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Normal 114 2" xfId="386" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Normal 114 2 2" xfId="1382" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Normal 115" xfId="387" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Normal 115 2" xfId="1383" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Normal 116" xfId="388" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Normal 116 2" xfId="1384" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Normal 117" xfId="389" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Normal 117 2" xfId="1385" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 118" xfId="390" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 118 2" xfId="1386" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Normal 119" xfId="391" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Normal 119 2" xfId="1387" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Normal 12" xfId="392" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Normal 12 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="394" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Normal 12 2 2 2" xfId="1388" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Normal 12 2 3" xfId="1389" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Normal 12 3" xfId="395" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Normal 12 3 2" xfId="396" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Normal 12 3 2 2" xfId="1390" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Normal 12 4" xfId="397" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Normal 12 4 2" xfId="1391" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Normal 12 5" xfId="398" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Normal 12 6" xfId="399" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Normal 120" xfId="400" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Normal 120 2" xfId="1392" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Normal 121" xfId="401" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Normal 121 2" xfId="1393" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Normal 122" xfId="402" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Normal 122 2" xfId="1394" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Normal 123" xfId="403" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Normal 123 2" xfId="1395" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Normal 124" xfId="404" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Normal 124 2" xfId="1396" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Normal 125" xfId="405" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Normal 125 2" xfId="1397" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Normal 126" xfId="406" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Normal 126 2" xfId="1398" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Normal 127" xfId="407" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Normal 127 2" xfId="1399" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Normal 128" xfId="408" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Normal 128 2" xfId="1400" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Normal 129" xfId="409" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Normal 129 2" xfId="1401" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Normal 13" xfId="410" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Normal 13 2" xfId="411" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Normal 13 2 2" xfId="412" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Normal 13 2 2 2" xfId="1402" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Normal 13 3" xfId="413" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Normal 13 3 2" xfId="414" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Normal 13 3 2 2" xfId="1403" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Normal 13 3 3" xfId="1042" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Normal 13 4" xfId="415" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Normal 13 4 2" xfId="416" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Normal 13 4 2 2" xfId="1043" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Normal 13 4 3" xfId="1404" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Normal 13 5" xfId="417" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Normal 13 5 2" xfId="418" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Normal 130" xfId="419" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Normal 130 2" xfId="1405" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Normal 131" xfId="420" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Normal 131 2" xfId="1406" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Normal 132" xfId="421" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Normal 132 2" xfId="1407" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Normal 133" xfId="422" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Normal 133 2" xfId="1408" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Normal 134" xfId="423" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Normal 134 2" xfId="1409" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Normal 135" xfId="424" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Normal 135 2" xfId="1410" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Normal 136" xfId="425" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Normal 136 2" xfId="1411" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal 136 2 2" xfId="1412" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Normal 136 3" xfId="1413" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 136 3 2" xfId="1414" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Normal 137" xfId="426" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Normal 137 2" xfId="1415" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Normal 137 2 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Normal 137 3" xfId="1417" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 137 3 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Normal 138" xfId="427" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Normal 138 2" xfId="1419" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Normal 138 2 2" xfId="1420" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normal 138 3" xfId="1421" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Normal 138 3 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 139" xfId="428" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Normal 139 2" xfId="1423" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Normal 139 2 2" xfId="1424" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 139 3" xfId="1425" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Normal 139 3 2" xfId="1426" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 14" xfId="429" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Normal 14 2" xfId="430" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normal 14 2 2" xfId="431" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Normal 14 2 2 2" xfId="1427" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal 14 2 3" xfId="1428" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normal 14 3" xfId="432" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normal 14 3 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normal 14 4" xfId="433" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Normal 14 4 2" xfId="1430" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Normal 14 5" xfId="434" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Normal 14 6" xfId="435" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Normal 140" xfId="436" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Normal 140 2" xfId="1431" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Normal 140 2 2" xfId="1432" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Normal 140 3" xfId="1433" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Normal 140 3 2" xfId="1434" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Normal 141" xfId="437" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Normal 141 2" xfId="1435" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Normal 141 2 2" xfId="1436" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Normal 141 3" xfId="1437" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 141 3 2" xfId="1438" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 142" xfId="438" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 142 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normal 142 2 2" xfId="1440" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Normal 142 3" xfId="1441" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Normal 142 4" xfId="1439" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Normal 143" xfId="439" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normal 143 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Normal 143 2 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normal 143 3" xfId="1444" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normal 143 4" xfId="1442" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normal 144" xfId="440" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normal 144 2" xfId="1046" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normal 144 2 2" xfId="1446" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normal 144 3" xfId="1447" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normal 144 4" xfId="1445" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normal 145" xfId="441" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normal 145 2" xfId="1047" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normal 145 2 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normal 145 3" xfId="1450" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normal 145 4" xfId="1448" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normal 146" xfId="442" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normal 146 2" xfId="1048" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normal 146 2 2" xfId="1452" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normal 146 3" xfId="1453" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normal 146 4" xfId="1451" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normal 147" xfId="443" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normal 147 2" xfId="1049" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normal 147 2 2" xfId="1455" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normal 147 3" xfId="1456" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normal 147 4" xfId="1454" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normal 148" xfId="444" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normal 148 2" xfId="1050" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normal 148 2 2" xfId="1458" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normal 148 3" xfId="1459" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normal 148 4" xfId="1457" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normal 149" xfId="445" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normal 149 2" xfId="1051" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normal 149 2 2" xfId="1461" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normal 149 3" xfId="1462" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normal 149 4" xfId="1460" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normal 15" xfId="446" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normal 15 2" xfId="447" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normal 15 2 2" xfId="448" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normal 15 2 2 2" xfId="1464" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normal 15 2 2 3" xfId="1463" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normal 15 2 3" xfId="1465" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normal 15 3" xfId="449" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normal 15 3 2" xfId="1466" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normal 15 4" xfId="450" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normal 15 4 2" xfId="1467" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normal 15 4 2 2" xfId="1468" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normal 15 4 3" xfId="1469" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normal 15 4 3 2" xfId="1470" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normal 15 5" xfId="451" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normal 15 5 2" xfId="1053" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normal 15 5 2 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normal 15 5 3" xfId="1473" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normal 15 5 4" xfId="1471" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normal 15 6" xfId="452" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 15 7" xfId="1052" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normal 15 7 2" xfId="1475" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normal 15 7 3" xfId="1476" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normal 15 7 3 2" xfId="1477" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normal 15 7 4" xfId="1474" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normal 150" xfId="453" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normal 150 2" xfId="1054" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normal 150 2 2" xfId="1479" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normal 150 3" xfId="1480" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normal 150 4" xfId="1478" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normal 151" xfId="454" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normal 151 2" xfId="1055" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normal 151 2 2" xfId="1482" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normal 151 3" xfId="1483" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normal 151 4" xfId="1481" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normal 152" xfId="455" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normal 152 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normal 152 2 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normal 152 3" xfId="1486" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normal 152 4" xfId="1484" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normal 153" xfId="456" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normal 153 2" xfId="1057" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normal 153 2 2" xfId="1488" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normal 153 3" xfId="1489" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normal 153 4" xfId="1487" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normal 154" xfId="457" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normal 154 2" xfId="1058" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normal 154 2 2" xfId="1491" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normal 154 3" xfId="1492" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normal 154 4" xfId="1493" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normal 154 5" xfId="1490" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normal 155" xfId="458" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normal 155 2" xfId="1059" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normal 155 2 2" xfId="1495" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normal 155 3" xfId="1496" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normal 155 4" xfId="1494" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normal 156" xfId="459" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normal 156 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normal 156 2 2" xfId="1498" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normal 156 3" xfId="1499" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normal 156 4" xfId="1500" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normal 156 5" xfId="1497" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normal 157" xfId="460" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normal 157 2" xfId="1061" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normal 157 2 2" xfId="1502" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normal 157 3" xfId="1503" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normal 157 4" xfId="1504" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normal 157 5" xfId="1501" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normal 158" xfId="461" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normal 158 2" xfId="1062" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normal 158 2 2" xfId="1506" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normal 158 3" xfId="1507" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normal 158 4" xfId="1505" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normal 159" xfId="462" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normal 159 2" xfId="1063" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normal 159 2 2" xfId="1509" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normal 159 3" xfId="1510" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normal 159 4" xfId="1508" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normal 16" xfId="463" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normal 16 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 16 2 2" xfId="465" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normal 16 2 2 2" xfId="1511" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normal 16 3" xfId="466" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normal 16 3 2" xfId="1512" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normal 16 3 2 2" xfId="1513" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normal 16 3 3" xfId="1514" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normal 16 3 3 2" xfId="1515" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normal 16 4" xfId="467" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normal 16 4 2" xfId="1516" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normal 16 4 3" xfId="1517" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normal 16 5" xfId="468" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normal 16 5 2" xfId="1519" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normal 16 5 3" xfId="1518" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normal 16 6" xfId="1520" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Normal 160" xfId="469" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Normal 160 2" xfId="1064" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Normal 160 2 2" xfId="1522" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Normal 160 3" xfId="1523" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Normal 160 4" xfId="1521" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Normal 161" xfId="470" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Normal 161 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Normal 161 3" xfId="1524" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Normal 162" xfId="471" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Normal 162 2" xfId="1066" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Normal 162 3" xfId="1525" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Normal 163" xfId="472" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Normal 163 2" xfId="1067" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Normal 163 3" xfId="1526" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Normal 164" xfId="473" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Normal 164 2" xfId="1068" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Normal 164 2 2" xfId="1528" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Normal 164 3" xfId="1527" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Normal 165" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 165 2" xfId="1530" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Normal 165 3" xfId="1529" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 166" xfId="475" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 166 2" xfId="1531" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 167" xfId="7" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 167 2" xfId="1532" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 168" xfId="991" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 168 2" xfId="1534" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 168 3" xfId="1533" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 169" xfId="992" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal 169 2" xfId="1536" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal 169 3" xfId="1535" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal 17" xfId="476" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal 17 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal 17 2 2" xfId="1069" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal 17 2 2 2" xfId="1538" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal 17 2 3" xfId="1537" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Normal 17 3" xfId="478" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Normal 170" xfId="989" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Normal 170 2" xfId="1539" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Normal 171" xfId="1085" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Normal 172" xfId="1127" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Normal 173" xfId="1128" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Normal 174" xfId="1129" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Normal 18" xfId="479" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Normal 18 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Normal 18 2 2" xfId="1540" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Normal 18 3" xfId="481" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Normal 19" xfId="482" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Normal 19 2" xfId="483" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Normal 19 2 2" xfId="1541" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Normal 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Normal 2 10" xfId="485" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Normal 2 10 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Normal 2 10 2 2" xfId="1542" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Normal 2 11" xfId="487" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Normal 2 11 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Normal 2 11 2 2" xfId="1543" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Normal 2 12" xfId="489" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Normal 2 12 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Normal 2 12 2 2" xfId="1544" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Normal 2 13" xfId="491" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Normal 2 13 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Normal 2 13 2 2" xfId="1545" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Normal 2 14" xfId="493" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Normal 2 14 2" xfId="494" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Normal 2 14 2 2" xfId="1546" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Normal 2 15" xfId="495" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Normal 2 15 2" xfId="496" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Normal 2 15 2 2" xfId="1547" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Normal 2 16" xfId="497" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Normal 2 16 2" xfId="498" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Normal 2 16 2 2" xfId="1548" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Normal 2 17" xfId="499" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Normal 2 17 2" xfId="500" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Normal 2 17 2 2" xfId="1549" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Normal 2 18" xfId="501" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Normal 2 18 2" xfId="502" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Normal 2 18 2 2" xfId="1550" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Normal 2 19" xfId="503" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Normal 2 19 2" xfId="504" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Normal 2 19 2 2" xfId="1551" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Normal 2 2" xfId="505" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="506" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="507" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="508" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="1552" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="509" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="1553" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="510" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Normal 2 2 2 4 2" xfId="1554" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="512" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Normal 2 2 3 2 2" xfId="1555" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="513" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="1556" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Normal 2 2 4 2 2" xfId="1557" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="514" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Normal 2 2 6" xfId="515" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Normal 2 20" xfId="516" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Normal 2 20 2" xfId="517" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Normal 2 20 2 2" xfId="1558" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Normal 2 21" xfId="518" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Normal 2 21 2" xfId="519" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Normal 2 21 2 2" xfId="1559" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Normal 2 22" xfId="520" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Normal 2 22 2" xfId="521" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Normal 2 22 2 2" xfId="1560" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Normal 2 23" xfId="522" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Normal 2 23 2" xfId="523" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Normal 2 23 2 2" xfId="1561" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Normal 2 24" xfId="524" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Normal 2 24 2" xfId="525" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Normal 2 24 2 2" xfId="1562" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Normal 2 25" xfId="526" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Normal 2 25 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Normal 2 25 2 2" xfId="1563" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Normal 2 26" xfId="528" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Normal 2 26 2" xfId="529" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Normal 2 26 2 2" xfId="1564" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Normal 2 27" xfId="530" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Normal 2 27 2" xfId="531" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Normal 2 27 2 2" xfId="1565" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Normal 2 28" xfId="532" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Normal 2 28 2" xfId="533" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Normal 2 28 2 2" xfId="1566" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Normal 2 29" xfId="534" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Normal 2 29 2" xfId="535" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Normal 2 29 2 2" xfId="1567" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Normal 2 3" xfId="536" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="538" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Normal 2 30" xfId="539" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Normal 2 30 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Normal 2 30 2 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Normal 2 31" xfId="541" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Normal 2 31 2" xfId="542" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Normal 2 31 2 2" xfId="1569" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Normal 2 32" xfId="543" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Normal 2 32 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Normal 2 32 2 2" xfId="1570" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Normal 2 33" xfId="545" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Normal 2 33 2" xfId="546" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Normal 2 33 2 2" xfId="1571" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Normal 2 34" xfId="547" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Normal 2 34 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Normal 2 34 2 2" xfId="1572" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Normal 2 35" xfId="549" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Normal 2 35 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Normal 2 35 2 2" xfId="1573" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Normal 2 36" xfId="551" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Normal 2 36 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Normal 2 36 2 2" xfId="1574" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Normal 2 37" xfId="553" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Normal 2 37 2" xfId="554" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Normal 2 37 2 2" xfId="1575" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Normal 2 38" xfId="555" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Normal 2 38 2" xfId="556" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Normal 2 38 2 2" xfId="1576" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Normal 2 39" xfId="557" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Normal 2 39 2" xfId="558" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Normal 2 39 2 2" xfId="1577" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Normal 2 4" xfId="559" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="560" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Normal 2 4 2 2 2" xfId="1578" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Normal 2 4 2 3" xfId="562" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Normal 2 4 3" xfId="563" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Normal 2 4 3 2" xfId="1579" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Normal 2 4 3 3" xfId="1580" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Normal 2 4 4" xfId="564" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Normal 2 4 5" xfId="565" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Normal 2 40" xfId="566" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Normal 2 40 2" xfId="567" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Normal 2 40 2 2" xfId="1581" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Normal 2 41" xfId="568" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Normal 2 41 2" xfId="569" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Normal 2 41 2 2" xfId="1582" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Normal 2 42" xfId="570" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Normal 2 42 2" xfId="571" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Normal 2 42 2 2" xfId="1583" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Normal 2 43" xfId="572" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Normal 2 43 2" xfId="573" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Normal 2 43 2 2" xfId="1584" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Normal 2 44" xfId="574" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Normal 2 44 2" xfId="575" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Normal 2 44 2 2" xfId="1585" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Normal 2 45" xfId="576" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Normal 2 45 2" xfId="577" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Normal 2 45 2 2" xfId="1586" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Normal 2 46" xfId="578" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Normal 2 46 2" xfId="579" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Normal 2 46 2 2" xfId="1587" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Normal 2 47" xfId="580" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Normal 2 47 2" xfId="581" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Normal 2 47 2 2" xfId="1588" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Normal 2 48" xfId="582" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Normal 2 48 2" xfId="583" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Normal 2 48 2 2" xfId="1589" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Normal 2 49" xfId="584" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Normal 2 49 2" xfId="585" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Normal 2 49 2 2" xfId="1590" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Normal 2 5" xfId="586" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="587" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Normal 2 5 2 2" xfId="1591" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Normal 2 5 3" xfId="588" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Normal 2 5 3 2" xfId="1592" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Normal 2 50" xfId="589" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Normal 2 50 2" xfId="590" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Normal 2 50 2 2" xfId="1593" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Normal 2 51" xfId="591" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Normal 2 51 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Normal 2 51 2 2" xfId="1594" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Normal 2 52" xfId="593" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Normal 2 52 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Normal 2 52 2 2" xfId="1595" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Normal 2 53" xfId="595" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Normal 2 53 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Normal 2 53 2 2" xfId="1596" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Normal 2 54" xfId="597" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Normal 2 54 2" xfId="598" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Normal 2 54 2 2" xfId="1597" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Normal 2 55" xfId="599" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Normal 2 55 2" xfId="600" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Normal 2 55 2 2" xfId="1598" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Normal 2 56" xfId="601" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Normal 2 56 2" xfId="602" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Normal 2 56 2 2" xfId="1599" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Normal 2 57" xfId="603" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Normal 2 57 2" xfId="604" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Normal 2 57 2 2" xfId="1600" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Normal 2 58" xfId="605" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Normal 2 58 2" xfId="606" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Normal 2 58 2 2" xfId="1601" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Normal 2 59" xfId="607" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Normal 2 59 2" xfId="608" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Normal 2 59 2 2" xfId="1602" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Normal 2 6" xfId="609" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="610" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Normal 2 6 2 2" xfId="1604" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Normal 2 6 2 3" xfId="1605" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Normal 2 6 2 4" xfId="1603" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Normal 2 6 3" xfId="1606" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Normal 2 6 3 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Normal 2 6 4" xfId="1608" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Normal 2 60" xfId="611" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Normal 2 60 2" xfId="612" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Normal 2 60 2 2" xfId="1609" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Normal 2 61" xfId="613" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Normal 2 61 2" xfId="614" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Normal 2 61 2 2" xfId="1610" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Normal 2 62" xfId="615" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Normal 2 62 2" xfId="616" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Normal 2 62 2 2" xfId="1611" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Normal 2 63" xfId="617" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Normal 2 63 2" xfId="618" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Normal 2 63 2 2" xfId="1612" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Normal 2 64" xfId="619" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Normal 2 64 2" xfId="620" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Normal 2 64 2 2" xfId="1613" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Normal 2 65" xfId="621" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Normal 2 65 2" xfId="622" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Normal 2 65 2 2" xfId="1614" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Normal 2 66" xfId="623" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Normal 2 66 2" xfId="624" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Normal 2 66 2 2" xfId="1615" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Normal 2 67" xfId="625" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Normal 2 67 2" xfId="626" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Normal 2 67 2 2" xfId="1616" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Normal 2 68" xfId="627" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Normal 2 68 2" xfId="628" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Normal 2 68 2 2" xfId="1618" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Normal 2 68 2 3" xfId="1617" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Normal 2 68 3" xfId="629" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Normal 2 69" xfId="630" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Normal 2 69 2" xfId="1619" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Normal 2 7" xfId="631" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Normal 2 7 2" xfId="632" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Normal 2 7 2 2" xfId="1620" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Normal 2 70" xfId="633" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Normal 2 70 2" xfId="1622" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Normal 2 70 3" xfId="1621" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Normal 2 71" xfId="1623" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Normal 2 72" xfId="1624" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Normal 2 73" xfId="1625" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Normal 2 74" xfId="1626" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Normal 2 8" xfId="634" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Normal 2 8 2" xfId="635" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Normal 2 8 2 2" xfId="1627" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Normal 2 9" xfId="636" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Normal 2 9 2" xfId="637" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Normal 2 9 2 2" xfId="1628" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Normal 20" xfId="638" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Normal 20 2" xfId="639" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Normal 20 2 2" xfId="1629" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Normal 21" xfId="640" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Normal 21 2" xfId="641" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Normal 21 2 2" xfId="1630" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Normal 22" xfId="642" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Normal 22 2" xfId="643" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Normal 22 2 2" xfId="1631" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Normal 23" xfId="644" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Normal 23 2" xfId="645" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Normal 23 2 2" xfId="1632" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Normal 24" xfId="646" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Normal 24 2" xfId="647" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Normal 24 2 2" xfId="1633" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Normal 25" xfId="648" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Normal 25 2" xfId="649" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Normal 25 2 2" xfId="1634" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Normal 26" xfId="650" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Normal 26 2" xfId="651" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Normal 26 2 2" xfId="1635" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Normal 27" xfId="652" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Normal 27 2" xfId="653" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Normal 27 2 2" xfId="1636" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Normal 28" xfId="654" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Normal 28 2" xfId="655" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Normal 28 2 2" xfId="1637" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Normal 29" xfId="656" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Normal 29 2" xfId="657" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Normal 29 2 2" xfId="1638" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Normal 3" xfId="658" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Normal 3 10" xfId="659" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Normal 3 10 2" xfId="1639" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Normal 3 11" xfId="660" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Normal 3 11 2" xfId="1640" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Normal 3 11 3" xfId="1641" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Normal 3 12" xfId="661" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Normal 3 12 2" xfId="1642" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Normal 3 13" xfId="1643" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Normal 3 2" xfId="662" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="663" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="664" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="1644" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="665" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="666" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="667" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="1645" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Normal 3 2 5" xfId="1646" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Normal 3 3" xfId="668" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="669" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="1647" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="670" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Normal 3 4" xfId="671" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="672" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="673" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Normal 3 5" xfId="674" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Normal 3 5 2" xfId="675" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Normal 3 5 3" xfId="676" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Normal 3 6" xfId="677" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Normal 3 6 2" xfId="678" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Normal 3 6 3" xfId="679" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Normal 3 7" xfId="680" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Normal 3 7 2" xfId="681" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Normal 3 7 3" xfId="682" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Normal 3 8" xfId="683" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Normal 3 8 2" xfId="684" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Normal 3 8 2 2" xfId="685" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Normal 3 8 2 2 2" xfId="1648" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Normal 3 8 2 2 3" xfId="1649" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Normal 3 8 2 3" xfId="686" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Normal 3 8 2 3 2" xfId="1650" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Normal 3 8 2 4" xfId="1651" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Normal 3 8 2 4 2" xfId="1652" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Normal 3 8 2 5" xfId="1653" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Normal 3 8 3" xfId="687" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Normal 3 8 3 2" xfId="688" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Normal 3 8 3 2 2" xfId="1654" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Normal 3 8 4" xfId="689" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Normal 3 8 4 2" xfId="1655" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Normal 3 8 4 3" xfId="1656" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Normal 3 8 5" xfId="690" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Normal 3 8 5 2" xfId="1658" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Normal 3 8 5 3" xfId="1657" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Normal 3 8 6" xfId="1659" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Normal 3 9" xfId="691" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Normal 3 9 2" xfId="692" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Normal 3 9 2 2" xfId="1660" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Normal 3 9 3" xfId="1661" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Normal 3_Xl0000052" xfId="693" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Normal 30" xfId="694" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Normal 30 2" xfId="695" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Normal 30 2 2" xfId="1662" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Normal 31" xfId="696" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Normal 31 2" xfId="697" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Normal 31 2 2" xfId="1663" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Normal 32" xfId="698" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Normal 32 2" xfId="699" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Normal 32 2 2" xfId="1664" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Normal 33" xfId="700" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Normal 33 2" xfId="701" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Normal 33 2 2" xfId="1665" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Normal 34" xfId="702" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Normal 34 2" xfId="703" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Normal 34 2 2" xfId="1666" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Normal 35" xfId="704" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Normal 35 2" xfId="705" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Normal 35 2 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Normal 36" xfId="706" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Normal 36 2" xfId="707" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Normal 36 2 2" xfId="1668" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Normal 37" xfId="708" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Normal 37 2" xfId="709" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Normal 37 2 2" xfId="1669" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Normal 38" xfId="710" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Normal 38 2" xfId="711" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Normal 38 2 2" xfId="1670" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Normal 39" xfId="712" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Normal 39 2" xfId="713" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Normal 39 2 2" xfId="1671" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Normal 4" xfId="714" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Normal 4 10" xfId="715" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Normal 4 11" xfId="1070" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Normal 4 2" xfId="716" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="717" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="718" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Normal 4 3" xfId="719" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="720" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="1072" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Normal 4 3 2 3" xfId="1672" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="721" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Normal 4 3 4" xfId="1071" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Normal 4 4" xfId="722" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="723" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Normal 4 4 3" xfId="724" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Normal 4 5" xfId="725" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Normal 4 5 2" xfId="726" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Normal 4 5 3" xfId="727" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Normal 4 6" xfId="728" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Normal 4 6 2" xfId="729" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Normal 4 6 2 2" xfId="1673" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Normal 4 6 2 2 2" xfId="1674" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Normal 4 6 2 3" xfId="1675" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Normal 4 6 2 4" xfId="1676" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Normal 4 6 3" xfId="730" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Normal 4 6 3 2" xfId="1678" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Normal 4 6 3 3" xfId="1677" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Normal 4 6 4" xfId="1679" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Normal 4 7" xfId="731" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Normal 4 7 2" xfId="732" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Normal 4 7 2 2" xfId="1680" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Normal 4 7 2 2 2" xfId="1681" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Normal 4 7 3" xfId="733" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Normal 4 7 3 2" xfId="1682" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Normal 4 8" xfId="734" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Normal 4 8 2" xfId="735" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Normal 4 8 2 2" xfId="1684" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Normal 4 8 2 3" xfId="1683" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Normal 4 9" xfId="736" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Normal 4 9 2" xfId="1685" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Normal 40" xfId="737" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Normal 40 2" xfId="738" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Normal 40 2 2" xfId="1686" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Normal 41" xfId="739" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Normal 41 2" xfId="740" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Normal 41 2 2" xfId="1687" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Normal 42" xfId="741" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Normal 42 2" xfId="742" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Normal 42 2 2" xfId="1688" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Normal 43" xfId="743" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Normal 43 2" xfId="744" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Normal 43 2 2" xfId="1689" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Normal 44" xfId="745" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Normal 44 2" xfId="746" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Normal 44 2 2" xfId="1690" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Normal 45" xfId="747" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Normal 45 2" xfId="748" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Normal 45 2 2" xfId="1691" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Normal 46" xfId="749" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Normal 46 2" xfId="750" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Normal 46 2 2" xfId="1692" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Normal 47" xfId="751" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Normal 47 2" xfId="752" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Normal 47 2 2" xfId="1693" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Normal 48" xfId="753" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Normal 48 2" xfId="754" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Normal 48 2 2" xfId="1694" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Normal 49" xfId="755" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Normal 49 2" xfId="756" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Normal 49 2 2" xfId="1695" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Normal 5" xfId="757" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Normal 5 2" xfId="758" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="759" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="760" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Normal 5 3" xfId="761" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="762" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normal 5 3 2 2" xfId="1696" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Normal 5 3 3" xfId="763" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Normal 5 4" xfId="764" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Normal 5 4 2" xfId="765" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Normal 5 4 2 2" xfId="1697" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Normal 5 5" xfId="766" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Normal 5 5 2" xfId="1698" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Normal 5 5 2 2" xfId="1699" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Normal 5 6" xfId="767" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Normal 5 6 2" xfId="1700" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Normal 5 7" xfId="768" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Normal 50" xfId="769" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Normal 50 2" xfId="770" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Normal 50 2 2" xfId="1701" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Normal 51" xfId="771" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Normal 51 2" xfId="772" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Normal 51 2 2" xfId="1702" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Normal 52" xfId="773" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Normal 52 2" xfId="774" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Normal 52 2 2" xfId="1703" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Normal 53" xfId="775" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Normal 53 2" xfId="776" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Normal 53 2 2" xfId="1704" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Normal 54" xfId="777" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Normal 54 2" xfId="778" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Normal 54 2 2" xfId="1705" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Normal 55" xfId="779" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Normal 55 2" xfId="780" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Normal 55 2 2" xfId="1706" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Normal 56" xfId="781" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Normal 56 2" xfId="782" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Normal 56 2 2" xfId="1707" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Normal 57" xfId="783" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Normal 57 2" xfId="784" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Normal 57 2 2" xfId="1708" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Normal 58" xfId="785" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Normal 58 2" xfId="786" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Normal 58 2 2" xfId="1709" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Normal 59" xfId="787" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Normal 59 2" xfId="788" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Normal 59 2 2" xfId="1710" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Normal 6" xfId="789" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Normal 6 2" xfId="790" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="791" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="1711" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
+    <cellStyle name="Normal 6 3" xfId="792" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="1712" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
+    <cellStyle name="Normal 6 4" xfId="793" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
+    <cellStyle name="Normal 6 5" xfId="794" xr:uid="{00000000-0005-0000-0000-0000D7050000}"/>
+    <cellStyle name="Normal 60" xfId="795" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
+    <cellStyle name="Normal 60 2" xfId="796" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
+    <cellStyle name="Normal 60 2 2" xfId="1713" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
+    <cellStyle name="Normal 61" xfId="797" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
+    <cellStyle name="Normal 61 2" xfId="798" xr:uid="{00000000-0005-0000-0000-0000DC050000}"/>
+    <cellStyle name="Normal 61 2 2" xfId="1714" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
+    <cellStyle name="Normal 62" xfId="799" xr:uid="{00000000-0005-0000-0000-0000DE050000}"/>
+    <cellStyle name="Normal 62 2" xfId="800" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
+    <cellStyle name="Normal 62 2 2" xfId="1715" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
+    <cellStyle name="Normal 63" xfId="801" xr:uid="{00000000-0005-0000-0000-0000E1050000}"/>
+    <cellStyle name="Normal 63 2" xfId="802" xr:uid="{00000000-0005-0000-0000-0000E2050000}"/>
+    <cellStyle name="Normal 63 2 2" xfId="1716" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
+    <cellStyle name="Normal 64" xfId="803" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
+    <cellStyle name="Normal 64 2" xfId="804" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
+    <cellStyle name="Normal 64 2 2" xfId="1717" xr:uid="{00000000-0005-0000-0000-0000E6050000}"/>
+    <cellStyle name="Normal 65" xfId="805" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
+    <cellStyle name="Normal 65 2" xfId="806" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
+    <cellStyle name="Normal 65 2 2" xfId="1718" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
+    <cellStyle name="Normal 66" xfId="807" xr:uid="{00000000-0005-0000-0000-0000EA050000}"/>
+    <cellStyle name="Normal 66 2" xfId="808" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
+    <cellStyle name="Normal 66 2 2" xfId="1719" xr:uid="{00000000-0005-0000-0000-0000EC050000}"/>
+    <cellStyle name="Normal 67" xfId="809" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
+    <cellStyle name="Normal 67 2" xfId="810" xr:uid="{00000000-0005-0000-0000-0000EE050000}"/>
+    <cellStyle name="Normal 67 2 2" xfId="1720" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
+    <cellStyle name="Normal 68" xfId="811" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
+    <cellStyle name="Normal 68 2" xfId="812" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
+    <cellStyle name="Normal 68 2 2" xfId="1721" xr:uid="{00000000-0005-0000-0000-0000F2050000}"/>
+    <cellStyle name="Normal 69" xfId="813" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
+    <cellStyle name="Normal 69 2" xfId="814" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
+    <cellStyle name="Normal 69 2 2" xfId="1722" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
+    <cellStyle name="Normal 7" xfId="815" xr:uid="{00000000-0005-0000-0000-0000F6050000}"/>
+    <cellStyle name="Normal 7 2" xfId="816" xr:uid="{00000000-0005-0000-0000-0000F7050000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="817" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
+    <cellStyle name="Normal 7 2 2 2" xfId="1723" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
+    <cellStyle name="Normal 7 3" xfId="818" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
+    <cellStyle name="Normal 7 3 2" xfId="1724" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
+    <cellStyle name="Normal 7 4" xfId="819" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
+    <cellStyle name="Normal 7 5" xfId="820" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
+    <cellStyle name="Normal 70" xfId="821" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
+    <cellStyle name="Normal 70 2" xfId="822" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
+    <cellStyle name="Normal 70 2 2" xfId="1725" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
+    <cellStyle name="Normal 71" xfId="823" xr:uid="{00000000-0005-0000-0000-000001060000}"/>
+    <cellStyle name="Normal 71 2" xfId="824" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
+    <cellStyle name="Normal 71 2 2" xfId="1726" xr:uid="{00000000-0005-0000-0000-000003060000}"/>
+    <cellStyle name="Normal 72" xfId="825" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
+    <cellStyle name="Normal 72 2" xfId="826" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
+    <cellStyle name="Normal 72 2 2" xfId="1727" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
+    <cellStyle name="Normal 73" xfId="827" xr:uid="{00000000-0005-0000-0000-000007060000}"/>
+    <cellStyle name="Normal 73 2" xfId="828" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
+    <cellStyle name="Normal 73 2 2" xfId="1728" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
+    <cellStyle name="Normal 74" xfId="829" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
+    <cellStyle name="Normal 74 2" xfId="830" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
+    <cellStyle name="Normal 74 2 2" xfId="1729" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
+    <cellStyle name="Normal 75" xfId="831" xr:uid="{00000000-0005-0000-0000-00000D060000}"/>
+    <cellStyle name="Normal 75 2" xfId="832" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
+    <cellStyle name="Normal 75 2 2" xfId="1730" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
+    <cellStyle name="Normal 76" xfId="833" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
+    <cellStyle name="Normal 76 2" xfId="834" xr:uid="{00000000-0005-0000-0000-000011060000}"/>
+    <cellStyle name="Normal 76 2 2" xfId="1731" xr:uid="{00000000-0005-0000-0000-000012060000}"/>
+    <cellStyle name="Normal 77" xfId="835" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
+    <cellStyle name="Normal 77 2" xfId="836" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
+    <cellStyle name="Normal 77 2 2" xfId="1732" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Normal 78" xfId="837" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
+    <cellStyle name="Normal 78 2" xfId="838" xr:uid="{00000000-0005-0000-0000-000017060000}"/>
+    <cellStyle name="Normal 78 2 2" xfId="1733" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
+    <cellStyle name="Normal 79" xfId="839" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
+    <cellStyle name="Normal 79 2" xfId="840" xr:uid="{00000000-0005-0000-0000-00001A060000}"/>
+    <cellStyle name="Normal 79 2 2" xfId="1734" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
+    <cellStyle name="Normal 8" xfId="841" xr:uid="{00000000-0005-0000-0000-00001C060000}"/>
+    <cellStyle name="Normal 8 2" xfId="842" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="843" xr:uid="{00000000-0005-0000-0000-00001E060000}"/>
+    <cellStyle name="Normal 8 2 2 2" xfId="1735" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
+    <cellStyle name="Normal 8 2 3" xfId="844" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
+    <cellStyle name="Normal 8 3" xfId="845" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
+    <cellStyle name="Normal 8 3 2" xfId="846" xr:uid="{00000000-0005-0000-0000-000022060000}"/>
+    <cellStyle name="Normal 8 3 2 2" xfId="1736" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
+    <cellStyle name="Normal 8 4" xfId="847" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
+    <cellStyle name="Normal 8 4 2" xfId="1737" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
+    <cellStyle name="Normal 8 4 2 2" xfId="1738" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
+    <cellStyle name="Normal 8 5" xfId="848" xr:uid="{00000000-0005-0000-0000-000027060000}"/>
+    <cellStyle name="Normal 8 5 2" xfId="1739" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
+    <cellStyle name="Normal 8 6" xfId="849" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
+    <cellStyle name="Normal 80" xfId="850" xr:uid="{00000000-0005-0000-0000-00002A060000}"/>
+    <cellStyle name="Normal 80 2" xfId="851" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
+    <cellStyle name="Normal 80 2 2" xfId="1740" xr:uid="{00000000-0005-0000-0000-00002C060000}"/>
+    <cellStyle name="Normal 81" xfId="852" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
+    <cellStyle name="Normal 81 2" xfId="853" xr:uid="{00000000-0005-0000-0000-00002E060000}"/>
+    <cellStyle name="Normal 81 2 2" xfId="1741" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
+    <cellStyle name="Normal 82" xfId="854" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
+    <cellStyle name="Normal 82 2" xfId="855" xr:uid="{00000000-0005-0000-0000-000031060000}"/>
+    <cellStyle name="Normal 82 2 2" xfId="1742" xr:uid="{00000000-0005-0000-0000-000032060000}"/>
+    <cellStyle name="Normal 83" xfId="856" xr:uid="{00000000-0005-0000-0000-000033060000}"/>
+    <cellStyle name="Normal 83 2" xfId="857" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
+    <cellStyle name="Normal 83 2 2" xfId="1743" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
+    <cellStyle name="Normal 84" xfId="858" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
+    <cellStyle name="Normal 84 2" xfId="859" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
+    <cellStyle name="Normal 84 2 2" xfId="1744" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
+    <cellStyle name="Normal 85" xfId="860" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
+    <cellStyle name="Normal 85 2" xfId="861" xr:uid="{00000000-0005-0000-0000-00003A060000}"/>
+    <cellStyle name="Normal 85 2 2" xfId="1745" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
+    <cellStyle name="Normal 86" xfId="862" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
+    <cellStyle name="Normal 86 2" xfId="863" xr:uid="{00000000-0005-0000-0000-00003D060000}"/>
+    <cellStyle name="Normal 86 2 2" xfId="1746" xr:uid="{00000000-0005-0000-0000-00003E060000}"/>
+    <cellStyle name="Normal 87" xfId="864" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
+    <cellStyle name="Normal 87 2" xfId="865" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
+    <cellStyle name="Normal 87 2 2" xfId="1747" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
+    <cellStyle name="Normal 88" xfId="866" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
+    <cellStyle name="Normal 88 2" xfId="867" xr:uid="{00000000-0005-0000-0000-000043060000}"/>
+    <cellStyle name="Normal 88 2 2" xfId="1748" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
+    <cellStyle name="Normal 89" xfId="868" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
+    <cellStyle name="Normal 89 2" xfId="869" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
+    <cellStyle name="Normal 89 2 2" xfId="1749" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
+    <cellStyle name="Normal 9" xfId="870" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
+    <cellStyle name="Normal 9 2" xfId="871" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Normal 9 2 2" xfId="872" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
+    <cellStyle name="Normal 9 2 2 2" xfId="1750" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
+    <cellStyle name="Normal 9 2 3" xfId="873" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
+    <cellStyle name="Normal 9 3" xfId="874" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
+    <cellStyle name="Normal 9 3 2" xfId="875" xr:uid="{00000000-0005-0000-0000-00004E060000}"/>
+    <cellStyle name="Normal 9 3 2 2" xfId="1751" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
+    <cellStyle name="Normal 9 4" xfId="876" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
+    <cellStyle name="Normal 9 4 2" xfId="1752" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
+    <cellStyle name="Normal 9 4 2 2" xfId="1753" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
+    <cellStyle name="Normal 9 5" xfId="877" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
+    <cellStyle name="Normal 9 5 2" xfId="1754" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
+    <cellStyle name="Normal 9 6" xfId="878" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
+    <cellStyle name="Normal 90" xfId="879" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
+    <cellStyle name="Normal 90 2" xfId="880" xr:uid="{00000000-0005-0000-0000-000057060000}"/>
+    <cellStyle name="Normal 90 2 2" xfId="1755" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
+    <cellStyle name="Normal 91" xfId="881" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
+    <cellStyle name="Normal 91 2" xfId="882" xr:uid="{00000000-0005-0000-0000-00005A060000}"/>
+    <cellStyle name="Normal 91 2 2" xfId="1756" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
+    <cellStyle name="Normal 92" xfId="883" xr:uid="{00000000-0005-0000-0000-00005C060000}"/>
+    <cellStyle name="Normal 92 2" xfId="884" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
+    <cellStyle name="Normal 92 2 2" xfId="1757" xr:uid="{00000000-0005-0000-0000-00005E060000}"/>
+    <cellStyle name="Normal 93" xfId="885" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
+    <cellStyle name="Normal 93 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
+    <cellStyle name="Normal 93 2 2" xfId="1758" xr:uid="{00000000-0005-0000-0000-000061060000}"/>
+    <cellStyle name="Normal 94" xfId="887" xr:uid="{00000000-0005-0000-0000-000062060000}"/>
+    <cellStyle name="Normal 94 2" xfId="888" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
+    <cellStyle name="Normal 94 2 2" xfId="1759" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
+    <cellStyle name="Normal 95" xfId="889" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
+    <cellStyle name="Normal 95 2" xfId="890" xr:uid="{00000000-0005-0000-0000-000066060000}"/>
+    <cellStyle name="Normal 95 2 2" xfId="1760" xr:uid="{00000000-0005-0000-0000-000067060000}"/>
+    <cellStyle name="Normal 96" xfId="891" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
+    <cellStyle name="Normal 96 2" xfId="892" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
+    <cellStyle name="Normal 96 2 2" xfId="1761" xr:uid="{00000000-0005-0000-0000-00006A060000}"/>
+    <cellStyle name="Normal 97" xfId="893" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
+    <cellStyle name="Normal 97 2" xfId="894" xr:uid="{00000000-0005-0000-0000-00006C060000}"/>
+    <cellStyle name="Normal 97 2 2" xfId="1762" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
+    <cellStyle name="Normal 98" xfId="895" xr:uid="{00000000-0005-0000-0000-00006E060000}"/>
+    <cellStyle name="Normal 98 2" xfId="896" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
+    <cellStyle name="Normal 98 2 2" xfId="1763" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
+    <cellStyle name="Normal 99" xfId="897" xr:uid="{00000000-0005-0000-0000-000071060000}"/>
+    <cellStyle name="Normal 99 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000072060000}"/>
+    <cellStyle name="Normal 99 2 2" xfId="1764" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
+    <cellStyle name="Normál_04_Tablak_foglakozas_4.1.10­_HunEng_param" xfId="899" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
+    <cellStyle name="Note 2" xfId="900" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
+    <cellStyle name="Note 2 2" xfId="901" xr:uid="{00000000-0005-0000-0000-000076060000}"/>
+    <cellStyle name="Note 2 2 2" xfId="1074" xr:uid="{00000000-0005-0000-0000-000077060000}"/>
+    <cellStyle name="Note 2 2 3" xfId="1765" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
+    <cellStyle name="Note 2 3" xfId="902" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
+    <cellStyle name="Note 2 4" xfId="1073" xr:uid="{00000000-0005-0000-0000-00007A060000}"/>
+    <cellStyle name="Note 2 5" xfId="1122" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
+    <cellStyle name="Note 3" xfId="903" xr:uid="{00000000-0005-0000-0000-00007C060000}"/>
+    <cellStyle name="Note 3 2" xfId="904" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
+    <cellStyle name="Note 3 2 2" xfId="1076" xr:uid="{00000000-0005-0000-0000-00007E060000}"/>
+    <cellStyle name="Note 3 2 3" xfId="1766" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
+    <cellStyle name="Note 3 3" xfId="905" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
+    <cellStyle name="Note 3 4" xfId="1075" xr:uid="{00000000-0005-0000-0000-000081060000}"/>
+    <cellStyle name="Note 4" xfId="906" xr:uid="{00000000-0005-0000-0000-000082060000}"/>
+    <cellStyle name="Note 4 2" xfId="907" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
+    <cellStyle name="Note 4 2 2" xfId="1078" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
+    <cellStyle name="Note 4 2 2 2" xfId="1768" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="Note 4 2 3" xfId="1767" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
+    <cellStyle name="Note 4 3" xfId="908" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
+    <cellStyle name="Note 4 4" xfId="1077" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
+    <cellStyle name="Note 4 4 2" xfId="1769" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
+    <cellStyle name="Note 5" xfId="909" xr:uid="{00000000-0005-0000-0000-00008A060000}"/>
+    <cellStyle name="Note 5 2" xfId="910" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
+    <cellStyle name="Note 5 2 2" xfId="1079" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
+    <cellStyle name="Note 5 2 3" xfId="1770" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
+    <cellStyle name="Note 5 3" xfId="911" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
+    <cellStyle name="Note 6" xfId="912" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
+    <cellStyle name="Note 6 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
+    <cellStyle name="Note 6 3" xfId="1771" xr:uid="{00000000-0005-0000-0000-000091060000}"/>
     <cellStyle name="Output" xfId="1134" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Output 2" xfId="913"/>
-    <cellStyle name="Output 2 2" xfId="914"/>
-    <cellStyle name="Output 2 2 2" xfId="1772"/>
-    <cellStyle name="Output 2 3" xfId="915"/>
-    <cellStyle name="Output 2 3 2" xfId="1773"/>
-    <cellStyle name="Output 2 4" xfId="1123"/>
-    <cellStyle name="Output 3" xfId="916"/>
-    <cellStyle name="Output 3 2" xfId="917"/>
-    <cellStyle name="Output 3 2 2" xfId="1774"/>
-    <cellStyle name="Output 4" xfId="918"/>
-    <cellStyle name="Percent 10" xfId="919"/>
-    <cellStyle name="Percent 10 2" xfId="1081"/>
-    <cellStyle name="Percent 10 3" xfId="1775"/>
-    <cellStyle name="Percent 11" xfId="920"/>
-    <cellStyle name="Percent 11 2" xfId="921"/>
-    <cellStyle name="Percent 11 3" xfId="922"/>
-    <cellStyle name="Percent 12" xfId="923"/>
-    <cellStyle name="Percent 12 2" xfId="924"/>
-    <cellStyle name="Percent 12 3" xfId="925"/>
-    <cellStyle name="Percent 13" xfId="926"/>
-    <cellStyle name="Percent 13 2" xfId="927"/>
-    <cellStyle name="Percent 13 3" xfId="928"/>
-    <cellStyle name="Percent 14" xfId="929"/>
-    <cellStyle name="Percent 14 2" xfId="930"/>
-    <cellStyle name="Percent 14 3" xfId="931"/>
-    <cellStyle name="Percent 15" xfId="932"/>
-    <cellStyle name="Percent 15 2" xfId="933"/>
-    <cellStyle name="Percent 15 3" xfId="934"/>
-    <cellStyle name="Percent 16" xfId="935"/>
-    <cellStyle name="Percent 16 2" xfId="936"/>
-    <cellStyle name="Percent 16 3" xfId="937"/>
-    <cellStyle name="Percent 17" xfId="990"/>
-    <cellStyle name="Percent 18" xfId="938"/>
-    <cellStyle name="Percent 18 2" xfId="939"/>
-    <cellStyle name="Percent 18 3" xfId="940"/>
-    <cellStyle name="Percent 2" xfId="941"/>
-    <cellStyle name="Percent 2 2" xfId="942"/>
-    <cellStyle name="Percent 2 2 2" xfId="1776"/>
-    <cellStyle name="Percent 2 2 3" xfId="1777"/>
-    <cellStyle name="Percent 2 3" xfId="943"/>
-    <cellStyle name="Percent 2 3 2" xfId="1778"/>
-    <cellStyle name="Percent 2 3 3" xfId="1779"/>
-    <cellStyle name="Percent 2 4" xfId="944"/>
-    <cellStyle name="Percent 2 4 2" xfId="1780"/>
-    <cellStyle name="Percent 2 5" xfId="1781"/>
-    <cellStyle name="Percent 3" xfId="945"/>
-    <cellStyle name="Percent 3 2" xfId="946"/>
-    <cellStyle name="Percent 3 3" xfId="947"/>
-    <cellStyle name="Percent 4" xfId="948"/>
-    <cellStyle name="Percent 4 2" xfId="949"/>
-    <cellStyle name="Percent 4 2 2" xfId="950"/>
-    <cellStyle name="Percent 4 2 2 2" xfId="1782"/>
-    <cellStyle name="Percent 4 3" xfId="951"/>
-    <cellStyle name="Percent 4 3 2" xfId="1783"/>
-    <cellStyle name="Percent 4 4" xfId="952"/>
-    <cellStyle name="Percent 4 5" xfId="1082"/>
-    <cellStyle name="Percent 5" xfId="953"/>
-    <cellStyle name="Percent 5 2" xfId="1083"/>
-    <cellStyle name="Percent 5 2 2" xfId="1785"/>
-    <cellStyle name="Percent 5 3" xfId="1786"/>
-    <cellStyle name="Percent 5 4" xfId="1784"/>
-    <cellStyle name="Percent 6" xfId="954"/>
-    <cellStyle name="Percent 6 2" xfId="955"/>
-    <cellStyle name="Percent 6 2 2" xfId="1084"/>
-    <cellStyle name="Percent 6 3" xfId="1787"/>
-    <cellStyle name="Percent 7" xfId="956"/>
-    <cellStyle name="Percent 7 2" xfId="957"/>
-    <cellStyle name="Percent 7 3" xfId="958"/>
-    <cellStyle name="Percent 8" xfId="959"/>
-    <cellStyle name="Percent 8 2" xfId="960"/>
-    <cellStyle name="Percent 8 3" xfId="961"/>
-    <cellStyle name="Percent 9" xfId="962"/>
-    <cellStyle name="Percent 9 2" xfId="963"/>
-    <cellStyle name="Percent 9 3" xfId="964"/>
-    <cellStyle name="Standard_Tab02-05" xfId="965"/>
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Output 2" xfId="913" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
+    <cellStyle name="Output 2 2" xfId="914" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
+    <cellStyle name="Output 2 2 2" xfId="1772" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
+    <cellStyle name="Output 2 3" xfId="915" xr:uid="{00000000-0005-0000-0000-000096060000}"/>
+    <cellStyle name="Output 2 3 2" xfId="1773" xr:uid="{00000000-0005-0000-0000-000097060000}"/>
+    <cellStyle name="Output 2 4" xfId="1123" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
+    <cellStyle name="Output 3" xfId="916" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
+    <cellStyle name="Output 3 2" xfId="917" xr:uid="{00000000-0005-0000-0000-00009A060000}"/>
+    <cellStyle name="Output 3 2 2" xfId="1774" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
+    <cellStyle name="Output 4" xfId="918" xr:uid="{00000000-0005-0000-0000-00009C060000}"/>
+    <cellStyle name="Percent 10" xfId="919" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
+    <cellStyle name="Percent 10 2" xfId="1081" xr:uid="{00000000-0005-0000-0000-00009E060000}"/>
+    <cellStyle name="Percent 10 3" xfId="1775" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
+    <cellStyle name="Percent 11" xfId="920" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
+    <cellStyle name="Percent 11 2" xfId="921" xr:uid="{00000000-0005-0000-0000-0000A1060000}"/>
+    <cellStyle name="Percent 11 3" xfId="922" xr:uid="{00000000-0005-0000-0000-0000A2060000}"/>
+    <cellStyle name="Percent 12" xfId="923" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
+    <cellStyle name="Percent 12 2" xfId="924" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
+    <cellStyle name="Percent 12 3" xfId="925" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
+    <cellStyle name="Percent 13" xfId="926" xr:uid="{00000000-0005-0000-0000-0000A6060000}"/>
+    <cellStyle name="Percent 13 2" xfId="927" xr:uid="{00000000-0005-0000-0000-0000A7060000}"/>
+    <cellStyle name="Percent 13 3" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
+    <cellStyle name="Percent 14" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
+    <cellStyle name="Percent 14 2" xfId="930" xr:uid="{00000000-0005-0000-0000-0000AA060000}"/>
+    <cellStyle name="Percent 14 3" xfId="931" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
+    <cellStyle name="Percent 15" xfId="932" xr:uid="{00000000-0005-0000-0000-0000AC060000}"/>
+    <cellStyle name="Percent 15 2" xfId="933" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
+    <cellStyle name="Percent 15 3" xfId="934" xr:uid="{00000000-0005-0000-0000-0000AE060000}"/>
+    <cellStyle name="Percent 16" xfId="935" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
+    <cellStyle name="Percent 16 2" xfId="936" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
+    <cellStyle name="Percent 16 3" xfId="937" xr:uid="{00000000-0005-0000-0000-0000B1060000}"/>
+    <cellStyle name="Percent 17" xfId="990" xr:uid="{00000000-0005-0000-0000-0000B2060000}"/>
+    <cellStyle name="Percent 18" xfId="938" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
+    <cellStyle name="Percent 18 2" xfId="939" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
+    <cellStyle name="Percent 18 3" xfId="940" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
+    <cellStyle name="Percent 2" xfId="941" xr:uid="{00000000-0005-0000-0000-0000B6060000}"/>
+    <cellStyle name="Percent 2 2" xfId="942" xr:uid="{00000000-0005-0000-0000-0000B7060000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="1776" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
+    <cellStyle name="Percent 2 2 3" xfId="1777" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
+    <cellStyle name="Percent 2 3" xfId="943" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
+    <cellStyle name="Percent 2 3 2" xfId="1778" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
+    <cellStyle name="Percent 2 3 3" xfId="1779" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
+    <cellStyle name="Percent 2 4" xfId="944" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
+    <cellStyle name="Percent 2 4 2" xfId="1780" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
+    <cellStyle name="Percent 2 5" xfId="1781" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
+    <cellStyle name="Percent 3" xfId="945" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
+    <cellStyle name="Percent 3 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000C1060000}"/>
+    <cellStyle name="Percent 3 3" xfId="947" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
+    <cellStyle name="Percent 4" xfId="948" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
+    <cellStyle name="Percent 4 2" xfId="949" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
+    <cellStyle name="Percent 4 2 2" xfId="950" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
+    <cellStyle name="Percent 4 2 2 2" xfId="1782" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
+    <cellStyle name="Percent 4 3" xfId="951" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
+    <cellStyle name="Percent 4 3 2" xfId="1783" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
+    <cellStyle name="Percent 4 4" xfId="952" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
+    <cellStyle name="Percent 4 5" xfId="1082" xr:uid="{00000000-0005-0000-0000-0000CA060000}"/>
+    <cellStyle name="Percent 5" xfId="953" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
+    <cellStyle name="Percent 5 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-0000CC060000}"/>
+    <cellStyle name="Percent 5 2 2" xfId="1785" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
+    <cellStyle name="Percent 5 3" xfId="1786" xr:uid="{00000000-0005-0000-0000-0000CE060000}"/>
+    <cellStyle name="Percent 5 4" xfId="1784" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
+    <cellStyle name="Percent 6" xfId="954" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
+    <cellStyle name="Percent 6 2" xfId="955" xr:uid="{00000000-0005-0000-0000-0000D1060000}"/>
+    <cellStyle name="Percent 6 2 2" xfId="1084" xr:uid="{00000000-0005-0000-0000-0000D2060000}"/>
+    <cellStyle name="Percent 6 3" xfId="1787" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
+    <cellStyle name="Percent 7" xfId="956" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
+    <cellStyle name="Percent 7 2" xfId="957" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
+    <cellStyle name="Percent 7 3" xfId="958" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
+    <cellStyle name="Percent 8" xfId="959" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
+    <cellStyle name="Percent 8 2" xfId="960" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
+    <cellStyle name="Percent 8 3" xfId="961" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
+    <cellStyle name="Percent 9" xfId="962" xr:uid="{00000000-0005-0000-0000-0000DA060000}"/>
+    <cellStyle name="Percent 9 2" xfId="963" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
+    <cellStyle name="Percent 9 3" xfId="964" xr:uid="{00000000-0005-0000-0000-0000DC060000}"/>
+    <cellStyle name="Standard_Tab02-05" xfId="965" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-0000DE060000}"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="966"/>
-    <cellStyle name="Title 2 2" xfId="967"/>
-    <cellStyle name="Title 2 3" xfId="968"/>
-    <cellStyle name="Title 2 4" xfId="1124"/>
-    <cellStyle name="Title 3" xfId="969"/>
-    <cellStyle name="Title 3 2" xfId="970"/>
-    <cellStyle name="Title 3 3" xfId="971"/>
-    <cellStyle name="Title 4" xfId="972"/>
-    <cellStyle name="Title 4 2" xfId="973"/>
-    <cellStyle name="Title 4 2 2" xfId="1788"/>
-    <cellStyle name="Title 5" xfId="974"/>
-    <cellStyle name="Title 5 2" xfId="1789"/>
-    <cellStyle name="Title 6" xfId="975"/>
+    <cellStyle name="Title 2" xfId="966" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
+    <cellStyle name="Title 2 2" xfId="967" xr:uid="{00000000-0005-0000-0000-0000E1060000}"/>
+    <cellStyle name="Title 2 3" xfId="968" xr:uid="{00000000-0005-0000-0000-0000E2060000}"/>
+    <cellStyle name="Title 2 4" xfId="1124" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
+    <cellStyle name="Title 3" xfId="969" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
+    <cellStyle name="Title 3 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
+    <cellStyle name="Title 3 3" xfId="971" xr:uid="{00000000-0005-0000-0000-0000E6060000}"/>
+    <cellStyle name="Title 4" xfId="972" xr:uid="{00000000-0005-0000-0000-0000E7060000}"/>
+    <cellStyle name="Title 4 2" xfId="973" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
+    <cellStyle name="Title 4 2 2" xfId="1788" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
+    <cellStyle name="Title 5" xfId="974" xr:uid="{00000000-0005-0000-0000-0000EA060000}"/>
+    <cellStyle name="Title 5 2" xfId="1789" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
+    <cellStyle name="Title 6" xfId="975" xr:uid="{00000000-0005-0000-0000-0000EC060000}"/>
     <cellStyle name="Total" xfId="1140" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Total 2" xfId="976"/>
-    <cellStyle name="Total 2 2" xfId="977"/>
-    <cellStyle name="Total 2 2 2" xfId="1790"/>
-    <cellStyle name="Total 2 3" xfId="978"/>
-    <cellStyle name="Total 2 3 2" xfId="1791"/>
-    <cellStyle name="Total 2 4" xfId="1125"/>
-    <cellStyle name="Total 3" xfId="979"/>
-    <cellStyle name="Total 3 2" xfId="980"/>
-    <cellStyle name="Total 3 2 2" xfId="1792"/>
-    <cellStyle name="Total 4" xfId="981"/>
+    <cellStyle name="Total 2" xfId="976" xr:uid="{00000000-0005-0000-0000-0000EE060000}"/>
+    <cellStyle name="Total 2 2" xfId="977" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
+    <cellStyle name="Total 2 2 2" xfId="1790" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
+    <cellStyle name="Total 2 3" xfId="978" xr:uid="{00000000-0005-0000-0000-0000F1060000}"/>
+    <cellStyle name="Total 2 3 2" xfId="1791" xr:uid="{00000000-0005-0000-0000-0000F2060000}"/>
+    <cellStyle name="Total 2 4" xfId="1125" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
+    <cellStyle name="Total 3" xfId="979" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
+    <cellStyle name="Total 3 2" xfId="980" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
+    <cellStyle name="Total 3 2 2" xfId="1792" xr:uid="{00000000-0005-0000-0000-0000F6060000}"/>
+    <cellStyle name="Total 4" xfId="981" xr:uid="{00000000-0005-0000-0000-0000F7060000}"/>
     <cellStyle name="Warning Text" xfId="1138" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Warning Text 2" xfId="982"/>
-    <cellStyle name="Warning Text 2 2" xfId="983"/>
-    <cellStyle name="Warning Text 2 2 2" xfId="1793"/>
-    <cellStyle name="Warning Text 2 3" xfId="984"/>
-    <cellStyle name="Warning Text 2 3 2" xfId="1794"/>
-    <cellStyle name="Warning Text 2 4" xfId="1126"/>
-    <cellStyle name="Warning Text 3" xfId="985"/>
-    <cellStyle name="Warning Text 3 2" xfId="986"/>
-    <cellStyle name="Warning Text 3 2 2" xfId="1795"/>
-    <cellStyle name="Warning Text 4" xfId="987"/>
-    <cellStyle name="Обычный_Report" xfId="988"/>
+    <cellStyle name="Warning Text 2" xfId="982" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
+    <cellStyle name="Warning Text 2 2" xfId="983" xr:uid="{00000000-0005-0000-0000-0000FA060000}"/>
+    <cellStyle name="Warning Text 2 2 2" xfId="1793" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
+    <cellStyle name="Warning Text 2 3" xfId="984" xr:uid="{00000000-0005-0000-0000-0000FC060000}"/>
+    <cellStyle name="Warning Text 2 3 2" xfId="1794" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
+    <cellStyle name="Warning Text 2 4" xfId="1126" xr:uid="{00000000-0005-0000-0000-0000FE060000}"/>
+    <cellStyle name="Warning Text 3" xfId="985" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
+    <cellStyle name="Warning Text 3 2" xfId="986" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
+    <cellStyle name="Warning Text 3 2 2" xfId="1795" xr:uid="{00000000-0005-0000-0000-000001070000}"/>
+    <cellStyle name="Warning Text 4" xfId="987" xr:uid="{00000000-0005-0000-0000-000002070000}"/>
+    <cellStyle name="Обычный_Report" xfId="988" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7039,6 +7040,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7085,7 +7094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7117,9 +7126,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7151,6 +7178,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7326,7 +7371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -7336,19 +7381,18 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="45.7109375"/>
-    <col min="3" max="3" width="24.85546875"/>
-    <col min="4" max="4" width="11.42578125"/>
-    <col min="5" max="5" width="6.28515625"/>
-    <col min="6" max="6" width="11.28515625" style="2"/>
+    <col min="2" max="2" width="45.6640625"/>
+    <col min="3" max="3" width="24.83203125"/>
+    <col min="4" max="4" width="11.5"/>
+    <col min="5" max="5" width="6.33203125"/>
+    <col min="6" max="6" width="11.33203125" style="2"/>
     <col min="7" max="7" width="22" style="2"/>
-    <col min="8" max="1022" width="8.7109375"/>
+    <col min="8" max="1022" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25">
+    <row r="1" spans="1:7" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7371,7 +7415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="2" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -7394,7 +7438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -7417,7 +7461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -7440,7 +7484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
@@ -7463,7 +7507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
@@ -7478,7 +7522,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
@@ -7501,7 +7545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
@@ -7516,7 +7560,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
@@ -7539,7 +7583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
@@ -7562,7 +7606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A11" s="17" t="s">
         <v>30</v>
       </c>
@@ -7585,7 +7629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
@@ -7608,7 +7652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="13" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A13" s="17" t="s">
         <v>34</v>
       </c>
@@ -7631,7 +7675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
@@ -7654,7 +7698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A15" s="17" t="s">
         <v>38</v>
       </c>
@@ -7677,7 +7721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A16" s="17" t="s">
         <v>40</v>
       </c>
@@ -7700,7 +7744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A17" s="17" t="s">
         <v>42</v>
       </c>
@@ -7715,7 +7759,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A18" s="17" t="s">
         <v>44</v>
       </c>
@@ -7738,7 +7782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="19" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A19" s="17" t="s">
         <v>46</v>
       </c>
@@ -7753,7 +7797,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="20" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A20" s="17" t="s">
         <v>48</v>
       </c>
@@ -7777,7 +7821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
@@ -7800,7 +7844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A22" s="17" t="s">
         <v>52</v>
       </c>
@@ -7823,7 +7867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A23" s="17" t="s">
         <v>54</v>
       </c>
@@ -7846,7 +7890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="24" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A24" s="17" t="s">
         <v>56</v>
       </c>
@@ -7869,7 +7913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="25" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A25" s="17" t="s">
         <v>58</v>
       </c>
@@ -7892,7 +7936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A26" s="17" t="s">
         <v>60</v>
       </c>
@@ -7915,7 +7959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="27" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A27" s="17" t="s">
         <v>62</v>
       </c>
@@ -7938,7 +7982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="28" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A28" s="17" t="s">
         <v>65</v>
       </c>
@@ -7961,7 +8005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="29" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A29" s="17" t="s">
         <v>68</v>
       </c>
@@ -7976,7 +8020,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="30" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A30" s="17" t="s">
         <v>71</v>
       </c>
@@ -7991,7 +8035,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A31" s="17" t="s">
         <v>73</v>
       </c>
@@ -8006,7 +8050,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="32" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A32" s="17" t="s">
         <v>75</v>
       </c>
@@ -8030,7 +8074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="33" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A33" s="17" t="s">
         <v>77</v>
       </c>
@@ -8053,7 +8097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="34" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A34" s="17" t="s">
         <v>79</v>
       </c>
@@ -8076,7 +8120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="35" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A35" s="17" t="s">
         <v>81</v>
       </c>
@@ -8099,7 +8143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="36" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A36" s="17" t="s">
         <v>83</v>
       </c>
@@ -8122,7 +8166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="37" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A37" s="17" t="s">
         <v>85</v>
       </c>
@@ -8137,7 +8181,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="38" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A38" s="17" t="s">
         <v>87</v>
       </c>
@@ -8160,7 +8204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="39" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
@@ -8183,7 +8227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="40" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A40" s="17" t="s">
         <v>91</v>
       </c>
@@ -8206,7 +8250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="41" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A41" s="17" t="s">
         <v>93</v>
       </c>
@@ -8229,7 +8273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="42" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A42" s="17" t="s">
         <v>95</v>
       </c>
@@ -8252,7 +8296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="16" customFormat="1" ht="15.75">
+    <row r="43" spans="1:7" s="16" customFormat="1" ht="16">
       <c r="A43" s="17" t="s">
         <v>97</v>
       </c>
@@ -8275,7 +8319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="17" t="s">
         <v>99</v>
       </c>
@@ -8290,7 +8334,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="21"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="17" t="s">
         <v>101</v>
       </c>
@@ -8321,7 +8365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -8334,14 +8378,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="3" width="24.85546875"/>
-    <col min="43" max="44" width="9.140625" style="16"/>
+    <col min="2" max="3" width="24.83203125"/>
+    <col min="43" max="44" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="31.5">
+    <row r="1" spans="1:74" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8565,7 +8608,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="15.75">
+    <row r="2" spans="1:74" ht="16">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -8594,7 +8637,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:74" ht="15.75">
+    <row r="3" spans="1:74" ht="16">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -8629,7 +8672,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:74" ht="15.75">
+    <row r="4" spans="1:74" ht="16">
       <c r="A4" s="28" t="s">
         <v>95</v>
       </c>
@@ -8685,7 +8728,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:74" ht="15.75">
+    <row r="5" spans="1:74" ht="16">
       <c r="A5" s="28" t="s">
         <v>85</v>
       </c>
@@ -8726,7 +8769,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:74" ht="15.75">
+    <row r="6" spans="1:74" ht="16">
       <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
@@ -8767,7 +8810,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:74" ht="15.75">
+    <row r="7" spans="1:74" ht="16">
       <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
@@ -8796,7 +8839,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:74" ht="15.75">
+    <row r="8" spans="1:74" ht="16">
       <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
@@ -8831,7 +8874,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:74" ht="15.75">
+    <row r="9" spans="1:74" ht="16">
       <c r="A9" s="28" t="s">
         <v>42</v>
       </c>
@@ -8914,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:74" ht="15.75">
+    <row r="10" spans="1:74" ht="16">
       <c r="A10" s="28" t="s">
         <v>56</v>
       </c>
@@ -8997,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:74" ht="15.75">
+    <row r="11" spans="1:74" ht="16">
       <c r="A11" s="28" t="s">
         <v>68</v>
       </c>
@@ -9080,7 +9123,7 @@
         <v>2.6339986398754602E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:74" ht="15.75">
+    <row r="12" spans="1:74" ht="16">
       <c r="A12" s="28" t="s">
         <v>71</v>
       </c>
@@ -9163,7 +9206,7 @@
         <v>8.6999999999999897E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:74" ht="15.75">
+    <row r="13" spans="1:74" ht="16">
       <c r="A13" s="28" t="s">
         <v>77</v>
       </c>
@@ -9246,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:74" ht="15.75">
+    <row r="14" spans="1:74" ht="16">
       <c r="A14" s="28" t="s">
         <v>99</v>
       </c>
@@ -9329,7 +9372,7 @@
         <v>2.6339986398754602E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:74" ht="15.75">
+    <row r="15" spans="1:74" ht="16">
       <c r="A15" s="28" t="s">
         <v>25</v>
       </c>
@@ -9363,19 +9406,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9393,25 +9436,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" s="77" customFormat="1">
       <c r="A5" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="77" customFormat="1">
-      <c r="A6" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B5" s="76" t="s">
         <v>309</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
@@ -9419,7 +9454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -9429,18 +9464,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="45.7109375"/>
-    <col min="3" max="3" width="24.85546875"/>
-    <col min="4" max="4" width="11.42578125"/>
-    <col min="5" max="5" width="6.28515625"/>
+    <col min="2" max="2" width="45.6640625"/>
+    <col min="3" max="3" width="24.83203125"/>
+    <col min="4" max="4" width="11.5"/>
+    <col min="5" max="5" width="6.33203125"/>
     <col min="6" max="6" width="26" style="2"/>
-    <col min="7" max="7" width="24.42578125" style="2"/>
+    <col min="7" max="7" width="24.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25">
+    <row r="1" spans="1:7" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9463,7 +9497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
@@ -9486,7 +9520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -9509,7 +9543,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -9532,7 +9566,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -9555,7 +9589,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
@@ -9578,7 +9612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="28" t="s">
         <v>21</v>
       </c>
@@ -9601,7 +9635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
@@ -9624,7 +9658,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -9647,7 +9681,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -9670,7 +9704,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
@@ -9693,7 +9727,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="28" t="s">
         <v>32</v>
       </c>
@@ -9716,7 +9750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="28" t="s">
         <v>34</v>
       </c>
@@ -9739,7 +9773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="28" t="s">
         <v>36</v>
       </c>
@@ -9762,7 +9796,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
@@ -9785,7 +9819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="17" t="s">
         <v>40</v>
       </c>
@@ -9808,7 +9842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="28" t="s">
         <v>42</v>
       </c>
@@ -9831,7 +9865,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="28" t="s">
         <v>44</v>
       </c>
@@ -9854,7 +9888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="28" t="s">
         <v>46</v>
       </c>
@@ -9877,7 +9911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
@@ -9900,7 +9934,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="28" t="s">
         <v>50</v>
       </c>
@@ -9923,7 +9957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="28" t="s">
         <v>52</v>
       </c>
@@ -9946,7 +9980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="28" t="s">
         <v>54</v>
       </c>
@@ -9969,7 +10003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="28" t="s">
         <v>56</v>
       </c>
@@ -9992,7 +10026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="28" t="s">
         <v>58</v>
       </c>
@@ -10015,7 +10049,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="28" t="s">
         <v>60</v>
       </c>
@@ -10038,7 +10072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="28" t="s">
         <v>62</v>
       </c>
@@ -10061,7 +10095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="28" t="s">
         <v>65</v>
       </c>
@@ -10084,7 +10118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
@@ -10107,7 +10141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="28" t="s">
         <v>71</v>
       </c>
@@ -10130,7 +10164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="28" t="s">
         <v>73</v>
       </c>
@@ -10153,7 +10187,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="28" t="s">
         <v>75</v>
       </c>
@@ -10176,7 +10210,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="28" t="s">
         <v>77</v>
       </c>
@@ -10199,7 +10233,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="28" t="s">
         <v>79</v>
       </c>
@@ -10222,7 +10256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="28" t="s">
         <v>81</v>
       </c>
@@ -10245,7 +10279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="28" t="s">
         <v>83</v>
       </c>
@@ -10268,7 +10302,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="28" t="s">
         <v>85</v>
       </c>
@@ -10291,7 +10325,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="28" t="s">
         <v>87</v>
       </c>
@@ -10314,7 +10348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="28" t="s">
         <v>89</v>
       </c>
@@ -10337,7 +10371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="28" t="s">
         <v>91</v>
       </c>
@@ -10360,7 +10394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="28" t="s">
         <v>93</v>
       </c>
@@ -10383,7 +10417,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="28" t="s">
         <v>95</v>
       </c>
@@ -10406,7 +10440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="28" t="s">
         <v>97</v>
       </c>
@@ -10429,7 +10463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="28" t="s">
         <v>99</v>
       </c>
@@ -10452,7 +10486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="28" t="s">
         <v>101</v>
       </c>
@@ -10482,7 +10516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -10492,18 +10526,17 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="45.7109375"/>
-    <col min="3" max="3" width="24.85546875"/>
-    <col min="4" max="4" width="11.42578125" style="44"/>
-    <col min="5" max="5" width="6.28515625"/>
+    <col min="2" max="2" width="45.6640625"/>
+    <col min="3" max="3" width="24.83203125"/>
+    <col min="4" max="4" width="11.5" style="44"/>
+    <col min="5" max="5" width="6.33203125"/>
     <col min="6" max="6" width="26" style="2"/>
-    <col min="7" max="7" width="24.42578125" style="2"/>
+    <col min="7" max="7" width="24.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="78.75">
+    <row r="1" spans="1:7" ht="68">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10526,7 +10559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
@@ -10547,7 +10580,7 @@
       </c>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -10568,7 +10601,7 @@
       </c>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -10589,7 +10622,7 @@
       </c>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -10610,7 +10643,7 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
@@ -10632,7 +10665,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="28" t="s">
         <v>21</v>
       </c>
@@ -10653,7 +10686,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
@@ -10675,7 +10708,7 @@
       </c>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -10696,7 +10729,7 @@
       </c>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -10717,7 +10750,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
@@ -10738,7 +10771,7 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="28" t="s">
         <v>32</v>
       </c>
@@ -10759,7 +10792,7 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="28" t="s">
         <v>34</v>
       </c>
@@ -10780,7 +10813,7 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="28" t="s">
         <v>36</v>
       </c>
@@ -10801,7 +10834,7 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
@@ -10822,7 +10855,7 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="17" t="s">
         <v>40</v>
       </c>
@@ -10843,7 +10876,7 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="28" t="s">
         <v>42</v>
       </c>
@@ -10864,7 +10897,7 @@
       </c>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="28" t="s">
         <v>44</v>
       </c>
@@ -10885,7 +10918,7 @@
       </c>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="28" t="s">
         <v>46</v>
       </c>
@@ -10906,7 +10939,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
@@ -10927,7 +10960,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="28" t="s">
         <v>50</v>
       </c>
@@ -10948,7 +10981,7 @@
       </c>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="28" t="s">
         <v>52</v>
       </c>
@@ -10969,7 +11002,7 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="28" t="s">
         <v>54</v>
       </c>
@@ -10990,7 +11023,7 @@
       </c>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="28" t="s">
         <v>56</v>
       </c>
@@ -11011,7 +11044,7 @@
       </c>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="28" t="s">
         <v>58</v>
       </c>
@@ -11032,7 +11065,7 @@
       </c>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="28" t="s">
         <v>60</v>
       </c>
@@ -11053,7 +11086,7 @@
       </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="28" t="s">
         <v>62</v>
       </c>
@@ -11074,7 +11107,7 @@
       </c>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="28" t="s">
         <v>65</v>
       </c>
@@ -11095,7 +11128,7 @@
       </c>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
@@ -11117,7 +11150,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="28" t="s">
         <v>71</v>
       </c>
@@ -11138,7 +11171,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="28" t="s">
         <v>73</v>
       </c>
@@ -11160,7 +11193,7 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="28" t="s">
         <v>75</v>
       </c>
@@ -11181,7 +11214,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="28" t="s">
         <v>77</v>
       </c>
@@ -11202,7 +11235,7 @@
       </c>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="28" t="s">
         <v>79</v>
       </c>
@@ -11223,7 +11256,7 @@
       </c>
       <c r="G34" s="27"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="28" t="s">
         <v>81</v>
       </c>
@@ -11244,7 +11277,7 @@
       </c>
       <c r="G35" s="27"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="28" t="s">
         <v>83</v>
       </c>
@@ -11265,7 +11298,7 @@
       </c>
       <c r="G36" s="27"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="28" t="s">
         <v>85</v>
       </c>
@@ -11287,7 +11320,7 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="28" t="s">
         <v>87</v>
       </c>
@@ -11308,7 +11341,7 @@
       </c>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="28" t="s">
         <v>89</v>
       </c>
@@ -11329,7 +11362,7 @@
       </c>
       <c r="G39" s="27"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="28" t="s">
         <v>91</v>
       </c>
@@ -11350,7 +11383,7 @@
       </c>
       <c r="G40" s="27"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="28" t="s">
         <v>93</v>
       </c>
@@ -11371,7 +11404,7 @@
       </c>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="28" t="s">
         <v>95</v>
       </c>
@@ -11392,7 +11425,7 @@
       </c>
       <c r="G42" s="27"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="28" t="s">
         <v>97</v>
       </c>
@@ -11413,7 +11446,7 @@
       </c>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="28" t="s">
         <v>99</v>
       </c>
@@ -11435,7 +11468,7 @@
       </c>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="28" t="s">
         <v>101</v>
       </c>
@@ -11463,7 +11496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -11471,19 +11504,18 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="45.7109375"/>
-    <col min="3" max="3" width="24.85546875"/>
-    <col min="4" max="4" width="11.42578125" style="44"/>
-    <col min="5" max="5" width="11.85546875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="2"/>
-    <col min="7" max="7" width="24.42578125" style="2"/>
-    <col min="8" max="8" width="15.7109375"/>
+    <col min="2" max="2" width="45.6640625"/>
+    <col min="3" max="3" width="24.83203125"/>
+    <col min="4" max="4" width="11.5" style="44"/>
+    <col min="5" max="5" width="11.83203125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="2"/>
+    <col min="7" max="7" width="24.5" style="2"/>
+    <col min="8" max="8" width="15.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="78.75">
+    <row r="1" spans="1:8" ht="68">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11509,7 +11541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
@@ -11532,7 +11564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -11555,7 +11587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -11578,7 +11610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -11601,7 +11633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
@@ -11622,7 +11654,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="28" t="s">
         <v>21</v>
       </c>
@@ -11645,7 +11677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
@@ -11666,7 +11698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -11687,7 +11719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -11710,7 +11742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
@@ -11733,7 +11765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="16">
       <c r="A12" s="28" t="s">
         <v>32</v>
       </c>
@@ -11756,7 +11788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="28" t="s">
         <v>34</v>
       </c>
@@ -11779,7 +11811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="28" t="s">
         <v>36</v>
       </c>
@@ -11800,7 +11832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
@@ -11823,7 +11855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="17" t="s">
         <v>40</v>
       </c>
@@ -11846,7 +11878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="28" t="s">
         <v>42</v>
       </c>
@@ -11867,7 +11899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="28" t="s">
         <v>44</v>
       </c>
@@ -11890,7 +11922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="28" t="s">
         <v>46</v>
       </c>
@@ -11911,7 +11943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
@@ -11934,7 +11966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="28" t="s">
         <v>50</v>
       </c>
@@ -11957,7 +11989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="28" t="s">
         <v>52</v>
       </c>
@@ -11978,7 +12010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="28" t="s">
         <v>54</v>
       </c>
@@ -12001,7 +12033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="28" t="s">
         <v>56</v>
       </c>
@@ -12024,7 +12056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="28" t="s">
         <v>58</v>
       </c>
@@ -12047,7 +12079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="28" t="s">
         <v>60</v>
       </c>
@@ -12070,7 +12102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="28" t="s">
         <v>62</v>
       </c>
@@ -12093,7 +12125,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="28" t="s">
         <v>65</v>
       </c>
@@ -12114,7 +12146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
@@ -12135,7 +12167,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="28" t="s">
         <v>71</v>
       </c>
@@ -12156,7 +12188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="28" t="s">
         <v>73</v>
       </c>
@@ -12177,7 +12209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="28" t="s">
         <v>75</v>
       </c>
@@ -12198,7 +12230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="28" t="s">
         <v>77</v>
       </c>
@@ -12221,7 +12253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="28" t="s">
         <v>79</v>
       </c>
@@ -12244,7 +12276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="28" t="s">
         <v>81</v>
       </c>
@@ -12267,7 +12299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="28" t="s">
         <v>83</v>
       </c>
@@ -12290,7 +12322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="28" t="s">
         <v>85</v>
       </c>
@@ -12311,7 +12343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="28" t="s">
         <v>87</v>
       </c>
@@ -12334,7 +12366,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="28" t="s">
         <v>89</v>
       </c>
@@ -12357,7 +12389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="28" t="s">
         <v>91</v>
       </c>
@@ -12380,7 +12412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="28" t="s">
         <v>93</v>
       </c>
@@ -12403,7 +12435,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="28" t="s">
         <v>95</v>
       </c>
@@ -12426,7 +12458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="28" t="s">
         <v>97</v>
       </c>
@@ -12449,7 +12481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="28" t="s">
         <v>99</v>
       </c>
@@ -12470,7 +12502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="28" t="s">
         <v>101</v>
       </c>
@@ -12498,7 +12530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -12506,20 +12538,19 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="45.7109375"/>
-    <col min="3" max="3" width="24.85546875"/>
-    <col min="4" max="4" width="12.140625"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625"/>
+    <col min="3" max="3" width="24.83203125"/>
+    <col min="4" max="4" width="12.1640625"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="12"/>
-    <col min="7" max="7" width="8.7109375"/>
-    <col min="8" max="8" width="8.7109375" style="1"/>
-    <col min="9" max="1025" width="8.7109375"/>
+    <col min="7" max="7" width="8.6640625"/>
+    <col min="8" max="8" width="8.6640625" style="1"/>
+    <col min="9" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="81">
+    <row r="1" spans="1:8" ht="88">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12545,7 +12576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
@@ -12569,7 +12600,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -12595,7 +12626,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -12621,7 +12652,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -12647,7 +12678,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
@@ -12673,7 +12704,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="28" t="s">
         <v>21</v>
       </c>
@@ -12699,7 +12730,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
@@ -12723,7 +12754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -12749,7 +12780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -12775,7 +12806,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
@@ -12801,7 +12832,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="16">
       <c r="A12" s="28" t="s">
         <v>32</v>
       </c>
@@ -12827,7 +12858,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="28" t="s">
         <v>34</v>
       </c>
@@ -12853,7 +12884,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="28" t="s">
         <v>36</v>
       </c>
@@ -12879,7 +12910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
@@ -12905,7 +12936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="17" t="s">
         <v>40</v>
       </c>
@@ -12931,7 +12962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="28" t="s">
         <v>42</v>
       </c>
@@ -12957,7 +12988,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="28" t="s">
         <v>44</v>
       </c>
@@ -12983,7 +13014,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="28" t="s">
         <v>46</v>
       </c>
@@ -13007,7 +13038,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
@@ -13033,7 +13064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="28" t="s">
         <v>50</v>
       </c>
@@ -13059,7 +13090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="28" t="s">
         <v>52</v>
       </c>
@@ -13085,7 +13116,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="28" t="s">
         <v>54</v>
       </c>
@@ -13111,7 +13142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="28" t="s">
         <v>56</v>
       </c>
@@ -13137,7 +13168,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
+    <row r="25" spans="1:8" ht="16">
       <c r="A25" s="28" t="s">
         <v>58</v>
       </c>
@@ -13163,7 +13194,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="28" t="s">
         <v>60</v>
       </c>
@@ -13189,7 +13220,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8" ht="16">
       <c r="A27" s="28" t="s">
         <v>62</v>
       </c>
@@ -13215,7 +13246,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="28" t="s">
         <v>65</v>
       </c>
@@ -13241,7 +13272,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
@@ -13267,7 +13298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="28" t="s">
         <v>71</v>
       </c>
@@ -13283,7 +13314,7 @@
       <c r="G30" s="33"/>
       <c r="H30" s="52"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
+    <row r="31" spans="1:8" ht="16">
       <c r="A31" s="28" t="s">
         <v>73</v>
       </c>
@@ -13309,7 +13340,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="28" t="s">
         <v>75</v>
       </c>
@@ -13335,7 +13366,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
+    <row r="33" spans="1:8" ht="16">
       <c r="A33" s="28" t="s">
         <v>77</v>
       </c>
@@ -13359,7 +13390,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8" ht="16">
       <c r="A34" s="28" t="s">
         <v>79</v>
       </c>
@@ -13385,7 +13416,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8" ht="16">
       <c r="A35" s="28" t="s">
         <v>81</v>
       </c>
@@ -13409,7 +13440,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8" ht="16">
       <c r="A36" s="28" t="s">
         <v>83</v>
       </c>
@@ -13435,7 +13466,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
+    <row r="37" spans="1:8" ht="16">
       <c r="A37" s="28" t="s">
         <v>85</v>
       </c>
@@ -13461,7 +13492,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
+    <row r="38" spans="1:8" ht="16">
       <c r="A38" s="28" t="s">
         <v>87</v>
       </c>
@@ -13487,7 +13518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
+    <row r="39" spans="1:8" ht="16">
       <c r="A39" s="28" t="s">
         <v>89</v>
       </c>
@@ -13511,7 +13542,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
+    <row r="40" spans="1:8" ht="16">
       <c r="A40" s="28" t="s">
         <v>91</v>
       </c>
@@ -13537,7 +13568,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75">
+    <row r="41" spans="1:8" ht="16">
       <c r="A41" s="28" t="s">
         <v>93</v>
       </c>
@@ -13563,7 +13594,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
+    <row r="42" spans="1:8" ht="16">
       <c r="A42" s="28" t="s">
         <v>95</v>
       </c>
@@ -13589,7 +13620,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75">
+    <row r="43" spans="1:8" ht="16">
       <c r="A43" s="28" t="s">
         <v>97</v>
       </c>
@@ -13613,7 +13644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
+    <row r="44" spans="1:8" ht="16">
       <c r="A44" s="28" t="s">
         <v>99</v>
       </c>
@@ -13637,7 +13668,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18">
+    <row r="45" spans="1:8" ht="19">
       <c r="A45" s="28" t="s">
         <v>101</v>
       </c>
@@ -13668,7 +13699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -13678,20 +13709,20 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5" style="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5" style="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:11" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14798,7 +14829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -14806,17 +14837,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="45.7109375"/>
-    <col min="3" max="3" width="17.140625"/>
-    <col min="4" max="17" width="8.7109375"/>
-    <col min="18" max="25" width="9.140625" style="16"/>
-    <col min="26" max="1025" width="8.7109375"/>
+    <col min="2" max="2" width="45.6640625"/>
+    <col min="3" max="3" width="17.1640625"/>
+    <col min="4" max="17" width="8.6640625"/>
+    <col min="18" max="25" width="9.1640625" style="16"/>
+    <col min="26" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="31.5">
+    <row r="1" spans="1:84" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15070,7 +15100,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:84" ht="15.75">
+    <row r="2" spans="1:84" ht="16">
       <c r="A2" s="62" t="s">
         <v>11</v>
       </c>
@@ -15133,7 +15163,7 @@
       <c r="X2" s="63"/>
       <c r="Y2" s="63"/>
     </row>
-    <row r="3" spans="1:84" ht="15.75">
+    <row r="3" spans="1:84" ht="16">
       <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
@@ -15196,7 +15226,7 @@
       <c r="X3" s="63"/>
       <c r="Y3" s="63"/>
     </row>
-    <row r="4" spans="1:84" ht="15.75">
+    <row r="4" spans="1:84" ht="16">
       <c r="A4" s="62" t="s">
         <v>28</v>
       </c>
@@ -15259,7 +15289,7 @@
       <c r="X4" s="63"/>
       <c r="Y4" s="63"/>
     </row>
-    <row r="5" spans="1:84" ht="15.75">
+    <row r="5" spans="1:84" ht="16">
       <c r="A5" s="62" t="s">
         <v>30</v>
       </c>
@@ -15322,7 +15352,7 @@
       <c r="X5" s="63"/>
       <c r="Y5" s="63"/>
     </row>
-    <row r="6" spans="1:84" ht="15.75">
+    <row r="6" spans="1:84" ht="16">
       <c r="A6" s="62" t="s">
         <v>32</v>
       </c>
@@ -15387,7 +15417,7 @@
         <v>4.0096230954290287E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:84" ht="15.75">
+    <row r="7" spans="1:84" ht="16">
       <c r="A7" s="62" t="s">
         <v>34</v>
       </c>
@@ -15452,7 +15482,7 @@
         <v>7.5157696953429059E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:84" ht="15.75">
+    <row r="8" spans="1:84" ht="16">
       <c r="A8" s="62" t="s">
         <v>36</v>
       </c>
@@ -15511,7 +15541,7 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:84" ht="15.75">
+    <row r="9" spans="1:84" ht="16">
       <c r="A9" s="62" t="s">
         <v>38</v>
       </c>
@@ -15574,7 +15604,7 @@
       <c r="X9" s="63"/>
       <c r="Y9" s="63"/>
     </row>
-    <row r="10" spans="1:84" ht="15.75">
+    <row r="10" spans="1:84" ht="16">
       <c r="A10" s="62" t="s">
         <v>44</v>
       </c>
@@ -15637,7 +15667,7 @@
       <c r="X10" s="63"/>
       <c r="Y10" s="63"/>
     </row>
-    <row r="11" spans="1:84" ht="15.75">
+    <row r="11" spans="1:84" ht="16">
       <c r="A11" s="62" t="s">
         <v>48</v>
       </c>
@@ -15700,7 +15730,7 @@
       <c r="X11" s="63"/>
       <c r="Y11" s="63"/>
     </row>
-    <row r="12" spans="1:84" ht="15.75">
+    <row r="12" spans="1:84" ht="16">
       <c r="A12" s="62" t="s">
         <v>50</v>
       </c>
@@ -15759,7 +15789,7 @@
       <c r="X12" s="63"/>
       <c r="Y12" s="63"/>
     </row>
-    <row r="13" spans="1:84" ht="15.75">
+    <row r="13" spans="1:84" ht="16">
       <c r="A13" s="62" t="s">
         <v>54</v>
       </c>
@@ -15824,7 +15854,7 @@
         <v>1.1346817957572764E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:84" ht="15.75">
+    <row r="14" spans="1:84" ht="16">
       <c r="A14" s="62" t="s">
         <v>58</v>
       </c>
@@ -15889,7 +15919,7 @@
         <v>6.2735257214554582E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:84" ht="15.75">
+    <row r="15" spans="1:84" ht="16">
       <c r="A15" s="62" t="s">
         <v>60</v>
       </c>
@@ -15952,7 +15982,7 @@
       <c r="X15" s="63"/>
       <c r="Y15" s="63"/>
     </row>
-    <row r="16" spans="1:84" ht="15.75">
+    <row r="16" spans="1:84" ht="16">
       <c r="A16" s="62" t="s">
         <v>65</v>
       </c>
@@ -16011,7 +16041,7 @@
       <c r="X16" s="63"/>
       <c r="Y16" s="63"/>
     </row>
-    <row r="17" spans="1:84" ht="15.75">
+    <row r="17" spans="1:84" ht="16">
       <c r="A17" s="62" t="s">
         <v>79</v>
       </c>
@@ -16074,7 +16104,7 @@
       <c r="X17" s="63"/>
       <c r="Y17" s="63"/>
     </row>
-    <row r="18" spans="1:84" ht="15.75">
+    <row r="18" spans="1:84" ht="16">
       <c r="A18" s="62" t="s">
         <v>87</v>
       </c>
@@ -16137,7 +16167,7 @@
       <c r="X18" s="63"/>
       <c r="Y18" s="63"/>
     </row>
-    <row r="19" spans="1:84" ht="15.75">
+    <row r="19" spans="1:84" ht="16">
       <c r="A19" s="62" t="s">
         <v>89</v>
       </c>
@@ -16200,7 +16230,7 @@
       <c r="X19" s="63"/>
       <c r="Y19" s="63"/>
     </row>
-    <row r="20" spans="1:84" ht="15.75">
+    <row r="20" spans="1:84" ht="16">
       <c r="A20" s="62" t="s">
         <v>91</v>
       </c>
@@ -16259,7 +16289,7 @@
       <c r="X20" s="63"/>
       <c r="Y20" s="63"/>
     </row>
-    <row r="21" spans="1:84" ht="15.75">
+    <row r="21" spans="1:84" ht="16">
       <c r="A21" s="62" t="s">
         <v>93</v>
       </c>
@@ -16324,7 +16354,7 @@
         <v>4.9943246311010209E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:84" s="16" customFormat="1" ht="15.75">
+    <row r="22" spans="1:84" s="16" customFormat="1" ht="16">
       <c r="A22" s="62" t="s">
         <v>75</v>
       </c>
@@ -16387,7 +16417,7 @@
       <c r="X22" s="63"/>
       <c r="Y22" s="63"/>
     </row>
-    <row r="23" spans="1:84" s="16" customFormat="1" ht="15.75">
+    <row r="23" spans="1:84" s="16" customFormat="1" ht="16">
       <c r="A23" s="62" t="s">
         <v>101</v>
       </c>
@@ -16450,7 +16480,7 @@
       <c r="X23" s="63"/>
       <c r="Y23" s="63"/>
     </row>
-    <row r="24" spans="1:84" ht="15.75">
+    <row r="24" spans="1:84" ht="16">
       <c r="A24" s="28" t="s">
         <v>21</v>
       </c>
@@ -16543,7 +16573,7 @@
       <c r="BZ24" s="43"/>
       <c r="CA24" s="43"/>
     </row>
-    <row r="25" spans="1:84" ht="15.75">
+    <row r="25" spans="1:84" ht="16">
       <c r="A25" s="28" t="s">
         <v>7</v>
       </c>
@@ -16614,7 +16644,7 @@
       <c r="BZ25" s="43"/>
       <c r="CA25" s="43"/>
     </row>
-    <row r="26" spans="1:84" ht="15.75">
+    <row r="26" spans="1:84" ht="16">
       <c r="A26" s="28" t="s">
         <v>40</v>
       </c>
@@ -16695,7 +16725,7 @@
       <c r="BZ26" s="43"/>
       <c r="CA26" s="43"/>
     </row>
-    <row r="27" spans="1:84" ht="15.75">
+    <row r="27" spans="1:84" ht="16">
       <c r="A27" s="28" t="s">
         <v>62</v>
       </c>
@@ -16772,7 +16802,7 @@
       <c r="BZ27" s="43"/>
       <c r="CA27" s="43"/>
     </row>
-    <row r="28" spans="1:84" ht="15.75">
+    <row r="28" spans="1:84" ht="16">
       <c r="A28" s="28" t="s">
         <v>81</v>
       </c>
@@ -16853,7 +16883,7 @@
       <c r="BZ28" s="43"/>
       <c r="CA28" s="43"/>
     </row>
-    <row r="29" spans="1:84" ht="15.75">
+    <row r="29" spans="1:84" ht="16">
       <c r="A29" s="28" t="s">
         <v>83</v>
       </c>
@@ -16928,7 +16958,7 @@
       <c r="BZ29" s="43"/>
       <c r="CA29" s="43"/>
     </row>
-    <row r="30" spans="1:84" ht="15.75">
+    <row r="30" spans="1:84" ht="16">
       <c r="A30" s="28" t="s">
         <v>97</v>
       </c>
@@ -17013,7 +17043,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:84" ht="15.75">
+    <row r="31" spans="1:84" ht="16">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
@@ -17046,7 +17076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -17056,15 +17086,15 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="8.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="31.5">
+    <row r="1" spans="1:77" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17297,7 +17327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="15.75">
+    <row r="2" spans="1:77" ht="16">
       <c r="A2" s="66" t="s">
         <v>11</v>
       </c>
@@ -17360,7 +17390,7 @@
       <c r="X2" s="63"/>
       <c r="Y2" s="63"/>
     </row>
-    <row r="3" spans="1:77" ht="15.75">
+    <row r="3" spans="1:77" ht="16">
       <c r="A3" s="66" t="s">
         <v>16</v>
       </c>
@@ -17423,7 +17453,7 @@
       <c r="X3" s="63"/>
       <c r="Y3" s="63"/>
     </row>
-    <row r="4" spans="1:77" ht="15.75">
+    <row r="4" spans="1:77" ht="16">
       <c r="A4" s="66" t="s">
         <v>28</v>
       </c>
@@ -17486,7 +17516,7 @@
       <c r="X4" s="63"/>
       <c r="Y4" s="63"/>
     </row>
-    <row r="5" spans="1:77" ht="15.75">
+    <row r="5" spans="1:77" ht="16">
       <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
@@ -17549,7 +17579,7 @@
       <c r="X5" s="63"/>
       <c r="Y5" s="63"/>
     </row>
-    <row r="6" spans="1:77" ht="15.75">
+    <row r="6" spans="1:77" ht="16">
       <c r="A6" s="66" t="s">
         <v>32</v>
       </c>
@@ -17614,7 +17644,7 @@
         <v>4.0096230954290287E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:77" ht="15.75">
+    <row r="7" spans="1:77" ht="16">
       <c r="A7" s="66" t="s">
         <v>34</v>
       </c>
@@ -17679,7 +17709,7 @@
         <v>7.5157696953429059E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:77" ht="15.75">
+    <row r="8" spans="1:77" ht="16">
       <c r="A8" s="66" t="s">
         <v>36</v>
       </c>
@@ -17738,7 +17768,7 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:77" ht="15.75">
+    <row r="9" spans="1:77" ht="16">
       <c r="A9" s="66" t="s">
         <v>38</v>
       </c>
@@ -17801,7 +17831,7 @@
       <c r="X9" s="63"/>
       <c r="Y9" s="63"/>
     </row>
-    <row r="10" spans="1:77" ht="15.75">
+    <row r="10" spans="1:77" ht="16">
       <c r="A10" s="66" t="s">
         <v>44</v>
       </c>
@@ -17864,7 +17894,7 @@
       <c r="X10" s="63"/>
       <c r="Y10" s="63"/>
     </row>
-    <row r="11" spans="1:77" ht="15.75">
+    <row r="11" spans="1:77" ht="16">
       <c r="A11" s="66" t="s">
         <v>48</v>
       </c>
@@ -17927,7 +17957,7 @@
       <c r="X11" s="63"/>
       <c r="Y11" s="63"/>
     </row>
-    <row r="12" spans="1:77" ht="15.75">
+    <row r="12" spans="1:77" ht="16">
       <c r="A12" s="66" t="s">
         <v>50</v>
       </c>
@@ -17986,7 +18016,7 @@
       <c r="X12" s="63"/>
       <c r="Y12" s="63"/>
     </row>
-    <row r="13" spans="1:77" ht="15.75">
+    <row r="13" spans="1:77" ht="16">
       <c r="A13" s="66" t="s">
         <v>54</v>
       </c>
@@ -18051,7 +18081,7 @@
         <v>1.1346817957572764E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:77" ht="15.75">
+    <row r="14" spans="1:77" ht="16">
       <c r="A14" s="66" t="s">
         <v>58</v>
       </c>
@@ -18116,7 +18146,7 @@
         <v>6.2735257214554582E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:77" ht="15.75">
+    <row r="15" spans="1:77" ht="16">
       <c r="A15" s="66" t="s">
         <v>60</v>
       </c>
@@ -18179,7 +18209,7 @@
       <c r="X15" s="63"/>
       <c r="Y15" s="63"/>
     </row>
-    <row r="16" spans="1:77" ht="15.75">
+    <row r="16" spans="1:77" ht="16">
       <c r="A16" s="66" t="s">
         <v>65</v>
       </c>
@@ -18238,7 +18268,7 @@
       <c r="X16" s="63"/>
       <c r="Y16" s="63"/>
     </row>
-    <row r="17" spans="1:84" ht="15.75">
+    <row r="17" spans="1:84" ht="16">
       <c r="A17" s="66" t="s">
         <v>79</v>
       </c>
@@ -18301,7 +18331,7 @@
       <c r="X17" s="63"/>
       <c r="Y17" s="63"/>
     </row>
-    <row r="18" spans="1:84" ht="15.75">
+    <row r="18" spans="1:84" ht="16">
       <c r="A18" s="66" t="s">
         <v>87</v>
       </c>
@@ -18364,7 +18394,7 @@
       <c r="X18" s="63"/>
       <c r="Y18" s="63"/>
     </row>
-    <row r="19" spans="1:84" ht="15.75">
+    <row r="19" spans="1:84" ht="16">
       <c r="A19" s="66" t="s">
         <v>89</v>
       </c>
@@ -18427,7 +18457,7 @@
       <c r="X19" s="63"/>
       <c r="Y19" s="63"/>
     </row>
-    <row r="20" spans="1:84" ht="15.75">
+    <row r="20" spans="1:84" ht="16">
       <c r="A20" s="66" t="s">
         <v>91</v>
       </c>
@@ -18486,7 +18516,7 @@
       <c r="X20" s="63"/>
       <c r="Y20" s="63"/>
     </row>
-    <row r="21" spans="1:84" ht="15.75">
+    <row r="21" spans="1:84" ht="16">
       <c r="A21" s="66" t="s">
         <v>93</v>
       </c>
@@ -18551,7 +18581,7 @@
         <v>4.9943246311010209E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:84" ht="15.75">
+    <row r="22" spans="1:84" ht="16">
       <c r="A22" s="66" t="s">
         <v>75</v>
       </c>
@@ -18614,7 +18644,7 @@
       <c r="X22" s="63"/>
       <c r="Y22" s="63"/>
     </row>
-    <row r="23" spans="1:84" ht="15.75">
+    <row r="23" spans="1:84" ht="16">
       <c r="A23" s="66" t="s">
         <v>101</v>
       </c>
@@ -18677,7 +18707,7 @@
       <c r="X23" s="63"/>
       <c r="Y23" s="63"/>
     </row>
-    <row r="24" spans="1:84" ht="15.75">
+    <row r="24" spans="1:84" ht="16">
       <c r="A24" s="66" t="s">
         <v>21</v>
       </c>
@@ -18770,7 +18800,7 @@
       <c r="BZ24" s="43"/>
       <c r="CA24" s="43"/>
     </row>
-    <row r="25" spans="1:84" ht="15.75">
+    <row r="25" spans="1:84" ht="16">
       <c r="A25" s="66" t="s">
         <v>7</v>
       </c>
@@ -18841,7 +18871,7 @@
       <c r="BZ25" s="43"/>
       <c r="CA25" s="43"/>
     </row>
-    <row r="26" spans="1:84" ht="15.75">
+    <row r="26" spans="1:84" ht="16">
       <c r="A26" s="66" t="s">
         <v>40</v>
       </c>
@@ -18922,7 +18952,7 @@
       <c r="BZ26" s="43"/>
       <c r="CA26" s="43"/>
     </row>
-    <row r="27" spans="1:84" ht="15.75">
+    <row r="27" spans="1:84" ht="16">
       <c r="A27" s="66" t="s">
         <v>62</v>
       </c>
@@ -18999,7 +19029,7 @@
       <c r="BZ27" s="43"/>
       <c r="CA27" s="43"/>
     </row>
-    <row r="28" spans="1:84" ht="15.75">
+    <row r="28" spans="1:84" ht="16">
       <c r="A28" s="66" t="s">
         <v>81</v>
       </c>
@@ -19080,7 +19110,7 @@
       <c r="BZ28" s="43"/>
       <c r="CA28" s="43"/>
     </row>
-    <row r="29" spans="1:84" ht="15.75">
+    <row r="29" spans="1:84" ht="16">
       <c r="A29" s="66" t="s">
         <v>83</v>
       </c>
@@ -19155,7 +19185,7 @@
       <c r="BZ29" s="43"/>
       <c r="CA29" s="43"/>
     </row>
-    <row r="30" spans="1:84" ht="15.75">
+    <row r="30" spans="1:84" ht="16">
       <c r="A30" s="66" t="s">
         <v>97</v>
       </c>
@@ -19240,7 +19270,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:84" ht="15.75">
+    <row r="31" spans="1:84" ht="16">
       <c r="A31" s="66" t="s">
         <v>52</v>
       </c>
@@ -19273,7 +19303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -19286,16 +19316,15 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="3" width="24.85546875"/>
-    <col min="4" max="42" width="8.7109375"/>
-    <col min="43" max="54" width="9.140625" style="16"/>
-    <col min="55" max="1037" width="8.7109375"/>
+    <col min="2" max="3" width="24.83203125"/>
+    <col min="4" max="42" width="8.6640625"/>
+    <col min="43" max="54" width="9.1640625" style="16"/>
+    <col min="55" max="1037" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="31.5">
+    <row r="1" spans="1:85" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19552,7 +19581,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:85" ht="15.75">
+    <row r="2" spans="1:85" ht="16">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -19581,7 +19610,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:85" ht="15.75">
+    <row r="3" spans="1:85" ht="16">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -19616,7 +19645,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:85" ht="15.75">
+    <row r="4" spans="1:85" ht="16">
       <c r="A4" s="28" t="s">
         <v>95</v>
       </c>
@@ -19672,7 +19701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:85" ht="15.75">
+    <row r="5" spans="1:85" ht="16">
       <c r="A5" s="28" t="s">
         <v>85</v>
       </c>
@@ -19713,7 +19742,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:85" ht="15.75">
+    <row r="6" spans="1:85" ht="16">
       <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
@@ -19754,7 +19783,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:85" ht="15.75">
+    <row r="7" spans="1:85" ht="16">
       <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
@@ -19789,7 +19818,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:85" ht="15.75">
+    <row r="8" spans="1:85" ht="16">
       <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
@@ -19854,7 +19883,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:85" ht="15.75">
+    <row r="9" spans="1:85" ht="16">
       <c r="A9" s="28" t="s">
         <v>42</v>
       </c>
@@ -19940,7 +19969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:85" ht="15.75">
+    <row r="10" spans="1:85" ht="16">
       <c r="A10" s="28" t="s">
         <v>56</v>
       </c>
@@ -20026,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:85" ht="15.75">
+    <row r="11" spans="1:85" ht="16">
       <c r="A11" s="28" t="s">
         <v>68</v>
       </c>
@@ -20112,7 +20141,7 @@
         <v>2.6339986398755898E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:85" ht="15.75">
+    <row r="12" spans="1:85" ht="16">
       <c r="A12" s="28" t="s">
         <v>71</v>
       </c>
@@ -20198,7 +20227,7 @@
         <v>8.6999999999999897E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:85" ht="15.75">
+    <row r="13" spans="1:85" ht="16">
       <c r="A13" s="28" t="s">
         <v>77</v>
       </c>
@@ -20284,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:85" ht="15.75">
+    <row r="14" spans="1:85" ht="16">
       <c r="A14" s="28" t="s">
         <v>99</v>
       </c>
@@ -20370,7 +20399,7 @@
         <v>2.6339986398755898E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:85" ht="15.75">
+    <row r="15" spans="1:85" ht="16">
       <c r="A15" s="28" t="s">
         <v>25</v>
       </c>
